--- a/result.xlsx
+++ b/result.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -481,7 +481,7 @@
         <v>0.86</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>116032</v>
+        <v>116038</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>3.99</v>
@@ -500,7 +500,7 @@
         <v>0.89</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>422685</v>
+        <v>422691</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.99</v>
@@ -519,7 +519,7 @@
         <v>0.97</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>608245</v>
+        <v>608262</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.97</v>
@@ -557,7 +557,7 @@
         <v>0.9</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>30551</v>
+        <v>30552</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>2.99</v>
@@ -576,7 +576,7 @@
         <v>0.98</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>306852</v>
+        <v>306860</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.97</v>
@@ -595,7 +595,7 @@
         <v>0.85</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>98580</v>
+        <v>98582</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>8.99</v>
@@ -614,7 +614,7 @@
         <v>0.8</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>134880</v>
+        <v>134882</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>8.99</v>
@@ -626,17 +626,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>STAR WARS™ Battlefront™ II</t>
+          <t>Titanfall® 2</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>45033</v>
+        <v>177672</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>5.99</v>
+        <v>4.49</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0.85</v>
@@ -645,17 +645,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Titanfall® 2</t>
+          <t>STAR WARS™ Battlefront™ II</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>177667</v>
+        <v>45036</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>4.49</v>
+        <v>5.99</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0.85</v>
@@ -671,7 +671,7 @@
         <v>0.84</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>8036</v>
+        <v>8037</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>5.99</v>
@@ -702,55 +702,55 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Trailmakers</t>
+          <t>The Talos Principle</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>16352</v>
+        <v>25376</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>6.06</v>
+        <v>4.34</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Metro Exodus</t>
+          <t>Trailmakers</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>86272</v>
+        <v>16355</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>5.99</v>
+        <v>6.06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>DOOM</t>
+          <t>Metro Exodus</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>124046</v>
+        <v>86275</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>3.99</v>
+        <v>5.99</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0.8</v>
@@ -759,17 +759,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Far Cry® 4</t>
+          <t>DOOM</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>46101</v>
+        <v>124049</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>5.99</v>
+        <v>3.99</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0.8</v>
@@ -778,17 +778,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Unravel Two</t>
+          <t>Far Cry® 4</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>4318</v>
+        <v>46101</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>3.99</v>
+        <v>5.99</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0.8</v>
@@ -804,7 +804,7 @@
         <v>0.95</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>99536</v>
+        <v>99537</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>2.99</v>
@@ -816,33 +816,33 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>It Takes Two</t>
+          <t>Unravel Two</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>126946</v>
+        <v>4318</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>9.99</v>
+        <v>3.99</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Halo: The Master Chief Collection</t>
+          <t>It Takes Two</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>198198</v>
+        <v>126957</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>9.99</v>
@@ -854,14 +854,14 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>DOOM Eternal</t>
+          <t>Halo: The Master Chief Collection</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>156949</v>
+        <v>198201</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>9.99</v>
@@ -873,17 +873,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Celeste</t>
+          <t>DOOM Eternal</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>77600</v>
+        <v>156951</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0.75</v>
@@ -892,17 +892,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Borderlands 2</t>
+          <t>Celeste</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>186184</v>
+        <v>77605</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>7.49</v>
+        <v>4.99</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0.75</v>
@@ -911,17 +911,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Little Nightmares</t>
+          <t>Borderlands 2</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>39402</v>
+        <v>186186</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0.75</v>
@@ -930,55 +930,55 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Inscryption</t>
+          <t>Little Nightmares</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>95550</v>
+        <v>39406</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Keep Talking and Nobody Explodes</t>
+          <t>BioShock Infinite</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>10784</v>
+        <v>100494</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>4.43</v>
+        <v>7.49</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Human Fall Flat</t>
+          <t>Inscryption</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>149817</v>
+        <v>95560</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>5.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0.7</v>
@@ -987,52 +987,52 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Call of Duty®: Black Ops III</t>
+          <t>Keep Talking and Nobody Explodes</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>116101</v>
+        <v>10784</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>19.79</v>
+        <v>4.43</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Deep Rock Galactic</t>
+          <t>Human Fall Flat</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>213323</v>
+        <v>149823</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>5.99</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Call of Duty®: Black Ops Cold War</t>
+          <t>Call of Duty®: Black Ops III</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>10560</v>
+        <v>116103</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>19.79</v>
@@ -1044,17 +1044,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Call of Duty®: Black Ops II</t>
+          <t>Deep Rock Galactic</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>18232</v>
+        <v>213340</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>19.79</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0.67</v>
@@ -1063,17 +1063,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Ori and the Will of the Wisps</t>
+          <t>Call of Duty®: Black Ops Cold War</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>112324</v>
+        <v>10560</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>19.79</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0.67</v>
@@ -1082,17 +1082,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Little Nightmares II</t>
+          <t>Call of Duty®: Black Ops II</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>26807</v>
+        <v>18232</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>19.79</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0.67</v>
@@ -1101,14 +1101,14 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Insurgency: Sandstorm</t>
+          <t>Little Nightmares II</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>89328</v>
+        <v>26808</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>9.890000000000001</v>
@@ -1120,74 +1120,74 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Hunt: Showdown</t>
+          <t>Insurgency: Sandstorm</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>148433</v>
+        <v>89331</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>13.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>We Were Here Together</t>
+          <t>Hunt: Showdown</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>10212</v>
+        <v>148438</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>4.93</v>
+        <v>13.99</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Tom Clancy's Rainbow Six® Siege</t>
+          <t>We Were Here Together</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1025211</v>
+        <v>10215</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>7.99</v>
+        <v>4.93</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Rain World</t>
+          <t>Tom Clancy's Rainbow Six® Siege</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>19792</v>
+        <v>1025238</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>0.6</v>
@@ -1196,17 +1196,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Metal: Hellsinger</t>
+          <t>Rain World</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>10738</v>
+        <v>19794</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>11.99</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>0.6</v>
@@ -1234,39 +1234,39 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Ultimate Chicken Horse</t>
+          <t>High On Life</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>29447</v>
+        <v>13172</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>5.84</v>
+        <v>24.53</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>High On Life</t>
+          <t>Atomic Heart</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>13171</v>
+        <v>21445</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>24.53</v>
+        <v>29.99</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
@@ -1279,7 +1279,7 @@
         <v>0.84</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>21442</v>
+        <v>21445</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>29.99</v>
@@ -1298,7 +1298,7 @@
         <v>0.83</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>119705</v>
+        <v>119714</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>22.49</v>
@@ -1317,7 +1317,7 @@
         <v>0.97</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>290251</v>
+        <v>290262</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>7.39</v>
@@ -1336,7 +1336,7 @@
         <v>0.92</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>23436</v>
+        <v>23438</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>9.99</v>
@@ -1355,7 +1355,7 @@
         <v>0.91</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>16890</v>
+        <v>16889</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>19.99</v>
@@ -1367,17 +1367,17 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MechWarrior 5: Mercenaries</t>
+          <t>Sackboy™: A Big Adventure</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>8242</v>
+        <v>1327</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>14.99</v>
+        <v>29.99</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>0.5</v>
@@ -1386,17 +1386,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Sackboy™: A Big Adventure</t>
+          <t>Call of Duty®: Modern Warfare® 3 (2011)</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>1327</v>
+        <v>12366</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>0.5</v>
@@ -1405,14 +1405,14 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Call of Duty®: Modern Warfare® 3 (2011)</t>
+          <t>Shovel Knight: Treasure Trove</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>12366</v>
+        <v>12826</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>19.99</v>
@@ -1431,7 +1431,7 @@
         <v>0.95</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>8523</v>
+        <v>8525</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>7.39</v>
@@ -1443,55 +1443,55 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Shovel Knight: Treasure Trove</t>
+          <t>We Were Here Forever</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>12823</v>
+        <v>10360</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>19.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>We Were Here Forever</t>
+          <t>BattleBit Remastered</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>10360</v>
+        <v>104945</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>BattleBit Remastered</t>
+          <t>GTFO</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>104930</v>
+        <v>37182</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>23.99</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>0.4</v>
@@ -1507,7 +1507,7 @@
         <v>0.87</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>37181</v>
+        <v>37182</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>23.99</v>
@@ -1526,7 +1526,7 @@
         <v>0.96</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>22867</v>
+        <v>22871</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>7.79</v>
@@ -1545,7 +1545,7 @@
         <v>0.84</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>72361</v>
+        <v>72362</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>29.24</v>
@@ -1564,7 +1564,7 @@
         <v>0.9</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>9.74</v>
@@ -1621,7 +1621,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>5173</v>
+        <v>5174</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>20.09</v>
@@ -1640,7 +1640,7 @@
         <v>0.96</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>21610</v>
+        <v>21614</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>13.06</v>
@@ -1678,7 +1678,7 @@
         <v>0.96</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>134777</v>
+        <v>134784</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>13.99</v>
@@ -1697,7 +1697,7 @@
         <v>0.92</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>9663</v>
+        <v>9664</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>20.29</v>
@@ -1728,17 +1728,17 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>The Case of the Golden Idol</t>
+          <t>Terra Nil</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>4768</v>
+        <v>4392</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>12.59</v>
+        <v>17.49</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>0.3</v>
@@ -1747,17 +1747,17 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Baba Is You</t>
+          <t>The Case of the Golden Idol</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
         <v>0.98</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>16244</v>
+        <v>4768</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>8.74</v>
+        <v>12.59</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>0.3</v>
@@ -1773,7 +1773,7 @@
         <v>0.95</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>11.75</v>
@@ -1785,36 +1785,36 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Six Days in Fallujah</t>
+          <t>Baba Is You</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>7533</v>
+        <v>16246</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>29.24</v>
+        <v>8.74</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>ULTRAKILL</t>
+          <t>Six Days in Fallujah</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>81134</v>
+        <v>7533</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>15.74</v>
+        <v>29.24</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>0.25</v>
@@ -1823,17 +1823,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Roboquest</t>
+          <t>ULTRAKILL</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>8716</v>
+        <v>81149</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>18.74</v>
+        <v>15.74</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>0.25</v>
@@ -1842,17 +1842,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Escape Simulator</t>
+          <t>Roboquest</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>11388</v>
+        <v>8719</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>11.24</v>
+        <v>18.74</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>0.25</v>
@@ -1861,17 +1861,17 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Gunfire Reborn</t>
+          <t>Escape Simulator</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>78856</v>
+        <v>11388</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>12.59</v>
+        <v>11.24</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>0.25</v>
@@ -1880,17 +1880,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Pizza Tower</t>
+          <t>Gunfire Reborn</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>45210</v>
+        <v>78858</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>14.62</v>
+        <v>12.59</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>0.25</v>
@@ -1899,17 +1899,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Viewfinder</t>
+          <t>Pizza Tower</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>4389</v>
+        <v>45214</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>18.74</v>
+        <v>14.62</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>0.25</v>
@@ -1918,74 +1918,74 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>The Talos Principle 2</t>
+          <t>Viewfinder</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>6066</v>
+        <v>4389</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>23.19</v>
+        <v>18.74</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Chants of Sennaar</t>
+          <t>Squad 44</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>7772</v>
+        <v>15817</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>15.99</v>
+        <v>21</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Jusant</t>
+          <t>Sticky Business</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>1160</v>
+        <v>2805</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>19.99</v>
+        <v>7.49</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>COCOON</t>
+          <t>The Talos Principle 2</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
         <v>0.96</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>2883</v>
+        <v>6070</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>18.39</v>
+        <v>23.19</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>0.2</v>
@@ -1994,74 +1994,74 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Mini Motorways</t>
+          <t>Chants of Sennaar</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>17414</v>
+        <v>7775</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>7.37</v>
+        <v>15.99</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Team Fortress 2</t>
+          <t>Jusant</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>1018966</v>
+        <v>1160</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Fireworks Mania - An Explosive Simulator</t>
+          <t>COCOON</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
         <v>0.96</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>4674</v>
+        <v>2884</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>9.99</v>
+        <v>18.39</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>GROUND BRANCH</t>
+          <t>Team Fortress 2</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>14919</v>
+        <v>1018978</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>24.99</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>0</v>
@@ -2070,19 +2070,57 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
+          <t>Fireworks Mania - An Explosive Simulator</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>4675</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>GROUND BRANCH</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>14919</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
           <t>Ori and the Blind Forest</t>
         </is>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B88" s="2" t="n">
         <v>0.95</v>
       </c>
-      <c r="C86" s="3" t="n">
-        <v>44812</v>
-      </c>
-      <c r="D86" s="4" t="n">
+      <c r="C88" s="3" t="n">
+        <v>44811</v>
+      </c>
+      <c r="D88" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E88" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2173,6 +2211,8 @@
     <hyperlink ref="A84" r:id="rId83"/>
     <hyperlink ref="A85" r:id="rId84"/>
     <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -487,7 +487,7 @@
         <v>0.8</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>135703</v>
+        <v>135708</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>8.99</v>
@@ -525,7 +525,7 @@
         <v>0.83</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>46479</v>
+        <v>46480</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>5.99</v>
@@ -544,7 +544,7 @@
         <v>0.93</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>100662</v>
+        <v>100663</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>7.49</v>
@@ -563,7 +563,7 @@
         <v>0.86</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1030605</v>
+        <v>1030616</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>7.99</v>
@@ -601,7 +601,7 @@
         <v>0.96</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>29613</v>
+        <v>29614</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>5.84</v>
@@ -658,7 +658,7 @@
         <v>0.95</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3122</v>
+        <v>3124</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>16.09</v>
@@ -677,7 +677,7 @@
         <v>0.95</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9296</v>
+        <v>9298</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>18.74</v>
@@ -734,7 +734,7 @@
         <v>0.97</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>215232</v>
+        <v>215237</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>29.99</v>
@@ -753,7 +753,7 @@
         <v>0.93</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1021736</v>
+        <v>1021751</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0.9</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>106712</v>
+        <v>106716</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>14.79</v>
@@ -791,7 +791,7 @@
         <v>0.98</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>83277</v>
+        <v>83284</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>24.5</v>
@@ -822,17 +822,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Cuphead</t>
+          <t>Metal: Hellsinger</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>135820</v>
+        <v>10871</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
@@ -841,17 +841,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>The Talos Principle 2</t>
+          <t>Inscryption</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6479</v>
+        <v>96657</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>28.99</v>
+        <v>19.99</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -860,14 +860,14 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Inscryption</t>
+          <t>Cuphead</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>96655</v>
+        <v>135824</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>19.99</v>
@@ -879,17 +879,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Metal: Hellsinger</t>
+          <t>The Talos Principle 2</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10871</v>
+        <v>6480</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29.99</v>
+        <v>28.99</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Gunfire Reborn</t>
+          <t>Hollow Knight</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>79072</v>
+        <v>292670</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>16.79</v>
+        <v>14.79</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -917,17 +917,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Metro Exodus</t>
+          <t>Gunfire Reborn</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>86782</v>
+        <v>79074</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>29.99</v>
+        <v>16.79</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -936,17 +936,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Portal 2</t>
+          <t>Metro Exodus</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>310030</v>
+        <v>86783</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9.75</v>
+        <v>29.99</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -955,17 +955,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Escape Simulator</t>
+          <t>Portal 2</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11485</v>
+        <v>310055</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14.99</v>
+        <v>9.75</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
@@ -974,17 +974,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Hollow Knight</t>
+          <t>Escape Simulator</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>292658</v>
+        <v>11485</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>14.79</v>
+        <v>14.99</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
@@ -993,17 +993,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead 2</t>
+          <t>GROUND BRANCH</t>
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>613385</v>
+        <v>15051</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>9.75</v>
+        <v>24.99</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
@@ -1031,17 +1031,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Squad 44</t>
+          <t>Chants of Sennaar</t>
         </is>
       </c>
       <c r="B31" s="4" t="n">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>15908</v>
+        <v>8418</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>28</v>
+        <v>19.99</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
@@ -1050,17 +1050,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Chants of Sennaar</t>
+          <t>Squad 44</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>8416</v>
+        <v>15908</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>19.99</v>
+        <v>28</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
@@ -1088,17 +1088,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Unpacking</t>
+          <t>Jusant</t>
         </is>
       </c>
       <c r="B34" s="4" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23820</v>
+        <v>1316</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>19.99</v>
+        <v>24.99</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
@@ -1107,17 +1107,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Jusant</t>
+          <t>Unpacking</t>
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1316</v>
+        <v>23821</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>24.99</v>
+        <v>19.99</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -1126,17 +1126,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>GROUND BRANCH</t>
+          <t>Dorfromantik</t>
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>15050</v>
+        <v>22995</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>24.99</v>
+        <v>12.99</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -1145,17 +1145,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Borderlands 2</t>
+          <t>Left 4 Dead 2</t>
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>186430</v>
+        <v>613402</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>29.99</v>
+        <v>9.75</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>0</v>
@@ -1164,14 +1164,14 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Ori and the Will of the Wisps</t>
+          <t>Borderlands 2</t>
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>112784</v>
+        <v>186431</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>29.99</v>
@@ -1183,17 +1183,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Dorfromantik</t>
+          <t>Ori and the Will of the Wisps</t>
         </is>
       </c>
       <c r="B39" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>22995</v>
+        <v>112786</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>12.99</v>
+        <v>29.99</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>0</v>
@@ -1202,17 +1202,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>PAYDAY 2</t>
+          <t>TUNIC</t>
         </is>
       </c>
       <c r="B40" s="4" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>423509</v>
+        <v>9794</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>9.99</v>
+        <v>28.99</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>0</v>
@@ -1221,17 +1221,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>TUNIC</t>
+          <t>PAYDAY 2</t>
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>9795</v>
+        <v>423511</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>28.99</v>
+        <v>9.99</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>0</v>
@@ -1240,17 +1240,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Rain World</t>
+          <t>Starship Troopers: Extermination</t>
         </is>
       </c>
       <c r="B42" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>20196</v>
+        <v>23201</v>
       </c>
       <c r="D42" s="6" t="n">
-        <v>24.5</v>
+        <v>28.99</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -1259,17 +1259,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Together</t>
+          <t>Rain World</t>
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>10316</v>
+        <v>20197</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>12.99</v>
+        <v>24.5</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>0</v>
@@ -1278,17 +1278,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty: World at War</t>
+          <t>Terra Nil</t>
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>39852</v>
+        <v>4456</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>19.99</v>
+        <v>24.99</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>0</v>
@@ -1297,17 +1297,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>SCP: 5K</t>
+          <t>We Were Here Together</t>
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>6659</v>
+        <v>10316</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>19.5</v>
+        <v>12.99</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>0</v>
@@ -1316,14 +1316,14 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Celeste</t>
+          <t>SCP: 5K</t>
         </is>
       </c>
       <c r="B46" s="4" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>78511</v>
+        <v>6659</v>
       </c>
       <c r="D46" s="6" t="n">
         <v>19.5</v>
@@ -1335,17 +1335,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Insurgency: Sandstorm</t>
+          <t>Call of Duty: World at War</t>
         </is>
       </c>
       <c r="B47" s="4" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>89575</v>
+        <v>39853</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>0</v>
@@ -1354,17 +1354,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>Celeste</t>
         </is>
       </c>
       <c r="B48" s="4" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>126736</v>
+        <v>78514</v>
       </c>
       <c r="D48" s="6" t="n">
-        <v>9.75</v>
+        <v>19.5</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -1373,17 +1373,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Viewfinder</t>
+          <t>Insurgency: Sandstorm</t>
         </is>
       </c>
       <c r="B49" s="4" t="n">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>4512</v>
+        <v>89575</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>24.99</v>
+        <v>29.99</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0</v>
@@ -1392,14 +1392,14 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty® 4: Modern Warfare® (2007)</t>
+          <t>Human Fall Flat</t>
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>18133</v>
+        <v>150189</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>19.99</v>
@@ -1411,17 +1411,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Human Fall Flat</t>
+          <t>Viewfinder</t>
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>150188</v>
+        <v>4512</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>19.99</v>
+        <v>24.99</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>0</v>
@@ -1430,17 +1430,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Little Nightmares II</t>
+          <t>Call of Duty® 4: Modern Warfare® (2007)</t>
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>27152</v>
+        <v>18133</v>
       </c>
       <c r="D52" s="6" t="n">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>0</v>
@@ -1449,17 +1449,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Trailmakers</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>16488</v>
+        <v>126748</v>
       </c>
       <c r="D53" s="6" t="n">
-        <v>24.99</v>
+        <v>9.75</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>0</v>
@@ -1468,17 +1468,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Killing Floor 2</t>
+          <t>Pizza Tower</t>
         </is>
       </c>
       <c r="B54" s="4" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>76905</v>
+        <v>45794</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>27.99</v>
+        <v>19.5</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>0</v>
@@ -1487,17 +1487,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Pizza Tower</t>
+          <t>Little Nightmares II</t>
         </is>
       </c>
       <c r="B55" s="4" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>45793</v>
+        <v>27153</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>19.5</v>
+        <v>29.99</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>0</v>
@@ -1506,17 +1506,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>DOOM</t>
+          <t>Trailmakers</t>
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>124493</v>
+        <v>16488</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>19.99</v>
+        <v>24.99</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>0</v>
@@ -1525,17 +1525,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Ori and the Blind Forest</t>
+          <t>The Exit 8</t>
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>44933</v>
+        <v>3895</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -1544,17 +1544,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>The Exit 8</t>
+          <t>DOOM</t>
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>3894</v>
+        <v>124494</v>
       </c>
       <c r="D58" s="6" t="n">
-        <v>3.99</v>
+        <v>19.99</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -1563,17 +1563,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Astral Ascent</t>
+          <t>Ori and the Blind Forest</t>
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>2459</v>
+        <v>44933</v>
       </c>
       <c r="D59" s="6" t="n">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -1582,17 +1582,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Titanfall® 2</t>
+          <t>Killing Floor 2</t>
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>178749</v>
+        <v>76904</v>
       </c>
       <c r="D60" s="6" t="n">
-        <v>29.99</v>
+        <v>27.99</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -1601,17 +1601,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty®: Modern Warfare® 2 (2009)</t>
+          <t>Titanfall® 2</t>
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>30534</v>
+        <v>178751</v>
       </c>
       <c r="D61" s="6" t="n">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -1620,17 +1620,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Keep Talking and Nobody Explodes</t>
+          <t>Astral Ascent</t>
         </is>
       </c>
       <c r="B62" s="4" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>10849</v>
+        <v>2460</v>
       </c>
       <c r="D62" s="6" t="n">
-        <v>14.79</v>
+        <v>24.5</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0</v>
@@ -1639,17 +1639,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Half-Life 2</t>
+          <t>Keep Talking and Nobody Explodes</t>
         </is>
       </c>
       <c r="B63" s="4" t="n">
         <v>0.97</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>144551</v>
+        <v>10849</v>
       </c>
       <c r="D63" s="6" t="n">
-        <v>9.75</v>
+        <v>14.79</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>0</v>
@@ -1658,17 +1658,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>The Case of the Golden Idol</t>
+          <t>Call of Duty®: Modern Warfare® 2 (2009)</t>
         </is>
       </c>
       <c r="B64" s="4" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>4889</v>
+        <v>30534</v>
       </c>
       <c r="D64" s="6" t="n">
-        <v>17.99</v>
+        <v>19.99</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>0</v>
@@ -1677,17 +1677,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Too</t>
+          <t>Half-Life 2</t>
         </is>
       </c>
       <c r="B65" s="4" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>6195</v>
+        <v>144553</v>
       </c>
       <c r="D65" s="6" t="n">
-        <v>9.99</v>
+        <v>9.75</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -1696,17 +1696,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>KovaaK's</t>
+          <t>The Case of the Golden Idol</t>
         </is>
       </c>
       <c r="B66" s="4" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>27845</v>
+        <v>4890</v>
       </c>
       <c r="D66" s="6" t="n">
-        <v>8.19</v>
+        <v>17.99</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -1715,17 +1715,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Rising Front</t>
+          <t>We Were Here Too</t>
         </is>
       </c>
       <c r="B67" s="4" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>1655</v>
+        <v>6195</v>
       </c>
       <c r="D67" s="6" t="n">
-        <v>14.79</v>
+        <v>9.99</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
@@ -1734,17 +1734,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Terra Nil</t>
+          <t>Rogue Legacy 2</t>
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>4456</v>
+        <v>12700</v>
       </c>
       <c r="D68" s="6" t="n">
-        <v>24.99</v>
+        <v>24.5</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
@@ -1753,17 +1753,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Unravel Two</t>
+          <t>KovaaK's</t>
         </is>
       </c>
       <c r="B69" s="4" t="n">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>4365</v>
+        <v>27846</v>
       </c>
       <c r="D69" s="6" t="n">
-        <v>19.99</v>
+        <v>8.19</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>0</v>
@@ -1791,17 +1791,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Turing Complete</t>
+          <t>Car For Sale Simulator 2023</t>
         </is>
       </c>
       <c r="B71" s="4" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>2188</v>
+        <v>10659</v>
       </c>
       <c r="D71" s="6" t="n">
-        <v>16.79</v>
+        <v>17.49</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>0</v>
@@ -1810,17 +1810,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Starship Troopers: Extermination</t>
+          <t>Unravel Two</t>
         </is>
       </c>
       <c r="B72" s="4" t="n">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>23201</v>
+        <v>4365</v>
       </c>
       <c r="D72" s="6" t="n">
-        <v>28.99</v>
+        <v>19.99</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>0</v>
@@ -1829,17 +1829,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Car For Sale Simulator 2023</t>
+          <t>Turing Complete</t>
         </is>
       </c>
       <c r="B73" s="4" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>10659</v>
+        <v>2188</v>
       </c>
       <c r="D73" s="6" t="n">
-        <v>17.49</v>
+        <v>16.79</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
@@ -1867,17 +1867,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Counter-Strike: Source</t>
+          <t>Sticky Business</t>
         </is>
       </c>
       <c r="B75" s="4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>112638</v>
+        <v>2926</v>
       </c>
       <c r="D75" s="6" t="n">
-        <v>9.75</v>
+        <v>9.99</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
@@ -1886,17 +1886,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Sticky Business</t>
+          <t>Rising Front</t>
         </is>
       </c>
       <c r="B76" s="4" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>2926</v>
+        <v>1655</v>
       </c>
       <c r="D76" s="6" t="n">
-        <v>9.99</v>
+        <v>14.79</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
@@ -1905,17 +1905,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Ravenfield</t>
+          <t>Trine 5: A Clockwork Conspiracy</t>
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>61710</v>
+        <v>1055</v>
       </c>
       <c r="D77" s="6" t="n">
-        <v>17.49</v>
+        <v>29.99</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>0</v>
@@ -1943,17 +1943,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Superliminal</t>
+          <t>Counter-Strike: Source</t>
         </is>
       </c>
       <c r="B79" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>21251</v>
+        <v>112640</v>
       </c>
       <c r="D79" s="6" t="n">
-        <v>16.79</v>
+        <v>9.75</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>0</v>
@@ -1962,17 +1962,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Trine 5: A Clockwork Conspiracy</t>
+          <t>Ravenfield</t>
         </is>
       </c>
       <c r="B80" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>1055</v>
+        <v>61711</v>
       </c>
       <c r="D80" s="6" t="n">
-        <v>29.99</v>
+        <v>17.49</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>0</v>
@@ -2000,17 +2000,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>The Past Within</t>
+          <t>Superliminal</t>
         </is>
       </c>
       <c r="B82" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>11133</v>
+        <v>21253</v>
       </c>
       <c r="D82" s="6" t="n">
-        <v>5.99</v>
+        <v>16.79</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
@@ -2019,17 +2019,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty: United Offensive</t>
+          <t>Labyrinthine</t>
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>1679</v>
+        <v>11292</v>
       </c>
       <c r="D83" s="6" t="n">
-        <v>19.99</v>
+        <v>8.99</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
@@ -2038,17 +2038,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Rayman® Legends</t>
+          <t>The Past Within</t>
         </is>
       </c>
       <c r="B84" s="4" t="n">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>6975</v>
+        <v>11133</v>
       </c>
       <c r="D84" s="6" t="n">
-        <v>19.99</v>
+        <v>5.99</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -2057,38 +2057,19 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Labyrinthine</t>
+          <t>Left 4 Dead</t>
         </is>
       </c>
       <c r="B85" s="4" t="n">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>11292</v>
+        <v>44508</v>
       </c>
       <c r="D85" s="6" t="n">
-        <v>8.99</v>
+        <v>9.75</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="inlineStr">
-        <is>
-          <t>Left 4 Dead</t>
-        </is>
-      </c>
-      <c r="B86" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C86" s="5" t="n">
-        <v>44508</v>
-      </c>
-      <c r="D86" s="6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E86" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2178,7 +2159,6 @@
     <hyperlink ref="A83" r:id="rId82"/>
     <hyperlink ref="A84" r:id="rId83"/>
     <hyperlink ref="A85" r:id="rId84"/>
-    <hyperlink ref="A86" r:id="rId85"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -487,7 +487,7 @@
         <v>0.8</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>135708</v>
+        <v>135834</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>8.99</v>
@@ -506,7 +506,7 @@
         <v>0.85</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>98949</v>
+        <v>98992</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>8.99</v>
@@ -525,7 +525,7 @@
         <v>0.83</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>46480</v>
+        <v>46513</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>5.99</v>
@@ -544,7 +544,7 @@
         <v>0.93</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>100663</v>
+        <v>100670</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>7.49</v>
@@ -563,7 +563,7 @@
         <v>0.86</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1030616</v>
+        <v>1031177</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>7.99</v>
@@ -601,7 +601,7 @@
         <v>0.96</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>29614</v>
+        <v>29641</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>5.84</v>
@@ -620,7 +620,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5383</v>
+        <v>5401</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>20.09</v>
@@ -639,7 +639,7 @@
         <v>0.91</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>9733</v>
+        <v>9752</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>14.95</v>
@@ -658,7 +658,7 @@
         <v>0.95</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3124</v>
+        <v>3190</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>16.09</v>
@@ -677,7 +677,7 @@
         <v>0.95</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9298</v>
+        <v>9413</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>18.74</v>
@@ -696,7 +696,7 @@
         <v>0.84</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1403</v>
+        <v>1410</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>15.21</v>
@@ -715,7 +715,7 @@
         <v>0.96</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4797</v>
+        <v>4799</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>7.99</v>
@@ -727,17 +727,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Deep Rock Galactic</t>
+          <t>BattleBit Remastered</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>215237</v>
+        <v>106835</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29.99</v>
+        <v>14.79</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0.93</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1021751</v>
+        <v>1022043</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>0</v>
@@ -765,17 +765,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>BattleBit Remastered</t>
+          <t>ULTRAKILL</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>106716</v>
+        <v>83460</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>14.79</v>
+        <v>24.5</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0</v>
@@ -784,17 +784,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>ULTRAKILL</t>
+          <t>Deep Rock Galactic</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>83284</v>
+        <v>215369</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24.5</v>
+        <v>29.99</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
@@ -803,17 +803,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>A Little to the Left</t>
+          <t>The Talos Principle 2</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>6169</v>
+        <v>6509</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14.99</v>
+        <v>28.99</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0.96</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10871</v>
+        <v>10887</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>29.99</v>
@@ -841,17 +841,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Inscryption</t>
+          <t>Hollow Knight</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>96657</v>
+        <v>292854</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>19.99</v>
+        <v>14.79</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -860,17 +860,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Cuphead</t>
+          <t>Gunfire Reborn</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>135824</v>
+        <v>79106</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19.99</v>
+        <v>16.79</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -879,17 +879,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>The Talos Principle 2</t>
+          <t>Inscryption</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6480</v>
+        <v>96741</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28.99</v>
+        <v>19.99</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Hollow Knight</t>
+          <t>A Little to the Left</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>292670</v>
+        <v>6179</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>14.79</v>
+        <v>14.99</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -917,17 +917,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Gunfire Reborn</t>
+          <t>Escape Simulator</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>79074</v>
+        <v>11493</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>16.79</v>
+        <v>14.99</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -936,17 +936,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Metro Exodus</t>
+          <t>Portal 2</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>86783</v>
+        <v>310357</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>29.99</v>
+        <v>9.75</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -955,17 +955,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Portal 2</t>
+          <t>GROUND BRANCH</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>310055</v>
+        <v>15060</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9.75</v>
+        <v>24.99</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
@@ -974,17 +974,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Escape Simulator</t>
+          <t>Chants of Sennaar</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>11485</v>
+        <v>8453</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>14.99</v>
+        <v>19.99</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
@@ -993,17 +993,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>GROUND BRANCH</t>
+          <t>Left 4 Dead 2</t>
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>15051</v>
+        <v>613841</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>24.99</v>
+        <v>9.75</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
@@ -1012,17 +1012,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Forever</t>
+          <t>Ori and the Will of the Wisps</t>
         </is>
       </c>
       <c r="B30" s="4" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10539</v>
+        <v>112842</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>17.99</v>
+        <v>29.99</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
@@ -1031,17 +1031,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Chants of Sennaar</t>
+          <t>We Were Here Forever</t>
         </is>
       </c>
       <c r="B31" s="4" t="n">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>8418</v>
+        <v>10562</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19.99</v>
+        <v>17.99</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
@@ -1050,17 +1050,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Squad 44</t>
+          <t>Cuphead</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>15908</v>
+        <v>135917</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>28</v>
+        <v>19.99</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>MechWarrior 5: Mercenaries</t>
+          <t>Metro Exodus</t>
         </is>
       </c>
       <c r="B33" s="4" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>8307</v>
+        <v>86822</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>29.99</v>
@@ -1088,17 +1088,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Jusant</t>
+          <t>Insurgency: Sandstorm</t>
         </is>
       </c>
       <c r="B34" s="4" t="n">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>1316</v>
+        <v>89600</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>24.99</v>
+        <v>29.99</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
@@ -1107,17 +1107,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Unpacking</t>
+          <t>SCP: 5K</t>
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>23821</v>
+        <v>6671</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>19.99</v>
+        <v>19.5</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -1126,17 +1126,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Dorfromantik</t>
+          <t>PAYDAY 2</t>
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22995</v>
+        <v>423581</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>12.99</v>
+        <v>9.99</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -1145,17 +1145,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead 2</t>
+          <t>Starship Troopers: Extermination</t>
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>613402</v>
+        <v>23218</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>9.75</v>
+        <v>28.99</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>0</v>
@@ -1164,17 +1164,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Borderlands 2</t>
+          <t>Unpacking</t>
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>186431</v>
+        <v>23842</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>0</v>
@@ -1183,17 +1183,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Ori and the Will of the Wisps</t>
+          <t>We Were Here Together</t>
         </is>
       </c>
       <c r="B39" s="4" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>112786</v>
+        <v>10325</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>29.99</v>
+        <v>12.99</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>0</v>
@@ -1202,17 +1202,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>TUNIC</t>
+          <t>Dorfromantik</t>
         </is>
       </c>
       <c r="B40" s="4" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>9794</v>
+        <v>23005</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>28.99</v>
+        <v>12.99</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>0</v>
@@ -1221,17 +1221,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>PAYDAY 2</t>
+          <t>Terra Nil</t>
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>423511</v>
+        <v>4464</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>9.99</v>
+        <v>24.99</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>0</v>
@@ -1240,17 +1240,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Starship Troopers: Extermination</t>
+          <t>Borderlands 2</t>
         </is>
       </c>
       <c r="B42" s="4" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>23201</v>
+        <v>186443</v>
       </c>
       <c r="D42" s="6" t="n">
-        <v>28.99</v>
+        <v>29.99</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -1259,17 +1259,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Rain World</t>
+          <t>Labyrinthine</t>
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>20197</v>
+        <v>11303</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>24.5</v>
+        <v>8.99</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>0</v>
@@ -1278,17 +1278,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Terra Nil</t>
+          <t>Keep Talking and Nobody Explodes</t>
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>4456</v>
+        <v>10852</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>24.99</v>
+        <v>14.79</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>0</v>
@@ -1297,17 +1297,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Together</t>
+          <t>Jusant</t>
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>10316</v>
+        <v>1329</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>12.99</v>
+        <v>24.99</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>0</v>
@@ -1316,17 +1316,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>SCP: 5K</t>
+          <t>Car For Sale Simulator 2023</t>
         </is>
       </c>
       <c r="B46" s="4" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>6659</v>
+        <v>10675</v>
       </c>
       <c r="D46" s="6" t="n">
-        <v>19.5</v>
+        <v>17.49</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>0</v>
@@ -1335,17 +1335,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty: World at War</t>
+          <t>MechWarrior 5: Mercenaries</t>
         </is>
       </c>
       <c r="B47" s="4" t="n">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>39853</v>
+        <v>8312</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0.97</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>78514</v>
+        <v>78599</v>
       </c>
       <c r="D48" s="6" t="n">
         <v>19.5</v>
@@ -1373,17 +1373,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Insurgency: Sandstorm</t>
+          <t>Squad 44</t>
         </is>
       </c>
       <c r="B49" s="4" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>89575</v>
+        <v>15914</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>29.99</v>
+        <v>28</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0</v>
@@ -1392,17 +1392,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Human Fall Flat</t>
+          <t>Trailmakers</t>
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>150189</v>
+        <v>16493</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>19.99</v>
+        <v>24.99</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>0</v>
@@ -1411,17 +1411,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Viewfinder</t>
+          <t>Rain World</t>
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>4512</v>
+        <v>20229</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>24.99</v>
+        <v>24.5</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>0</v>
@@ -1430,14 +1430,14 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty® 4: Modern Warfare® (2007)</t>
+          <t>Call of Duty®: Modern Warfare® 2 (2009)</t>
         </is>
       </c>
       <c r="B52" s="4" t="n">
         <v>0.93</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>18133</v>
+        <v>30538</v>
       </c>
       <c r="D52" s="6" t="n">
         <v>19.99</v>
@@ -1456,7 +1456,7 @@
         <v>0.98</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>126748</v>
+        <v>126890</v>
       </c>
       <c r="D53" s="6" t="n">
         <v>9.75</v>
@@ -1475,7 +1475,7 @@
         <v>0.98</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>45794</v>
+        <v>45842</v>
       </c>
       <c r="D54" s="6" t="n">
         <v>19.5</v>
@@ -1487,17 +1487,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Little Nightmares II</t>
+          <t>TUNIC</t>
         </is>
       </c>
       <c r="B55" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>27153</v>
+        <v>9812</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>29.99</v>
+        <v>28.99</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>0</v>
@@ -1506,17 +1506,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Trailmakers</t>
+          <t>Ori and the Blind Forest</t>
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>16488</v>
+        <v>44934</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>24.99</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>0</v>
@@ -1525,17 +1525,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>The Exit 8</t>
+          <t>DOOM</t>
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>3895</v>
+        <v>124517</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>3.99</v>
+        <v>19.99</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -1544,14 +1544,14 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>DOOM</t>
+          <t>Little Nightmares</t>
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>124494</v>
+        <v>39686</v>
       </c>
       <c r="D58" s="6" t="n">
         <v>19.99</v>
@@ -1563,17 +1563,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Ori and the Blind Forest</t>
+          <t>Turing Complete</t>
         </is>
       </c>
       <c r="B59" s="4" t="n">
         <v>0.95</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>44933</v>
+        <v>2192</v>
       </c>
       <c r="D59" s="6" t="n">
-        <v>0</v>
+        <v>16.79</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -1582,17 +1582,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Killing Floor 2</t>
+          <t>Far Cry 3</t>
         </is>
       </c>
       <c r="B60" s="4" t="n">
         <v>0.89</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>76904</v>
+        <v>88085</v>
       </c>
       <c r="D60" s="6" t="n">
-        <v>27.99</v>
+        <v>19.99</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -1601,17 +1601,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Titanfall® 2</t>
+          <t>Call of Duty: World at War</t>
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>178751</v>
+        <v>39862</v>
       </c>
       <c r="D61" s="6" t="n">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -1620,17 +1620,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Astral Ascent</t>
+          <t>Titanfall® 2</t>
         </is>
       </c>
       <c r="B62" s="4" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>2460</v>
+        <v>178852</v>
       </c>
       <c r="D62" s="6" t="n">
-        <v>24.5</v>
+        <v>29.99</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0</v>
@@ -1639,17 +1639,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Keep Talking and Nobody Explodes</t>
+          <t>Ravenfield</t>
         </is>
       </c>
       <c r="B63" s="4" t="n">
         <v>0.97</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>10849</v>
+        <v>61742</v>
       </c>
       <c r="D63" s="6" t="n">
-        <v>14.79</v>
+        <v>17.49</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>0</v>
@@ -1658,17 +1658,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty®: Modern Warfare® 2 (2009)</t>
+          <t>Cruelty Squad</t>
         </is>
       </c>
       <c r="B64" s="4" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>30534</v>
+        <v>14019</v>
       </c>
       <c r="D64" s="6" t="n">
-        <v>19.99</v>
+        <v>16.79</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>0</v>
@@ -1677,17 +1677,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Half-Life 2</t>
+          <t>Baba Is You</t>
         </is>
       </c>
       <c r="B65" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>144553</v>
+        <v>16350</v>
       </c>
       <c r="D65" s="6" t="n">
-        <v>9.75</v>
+        <v>12.49</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -1696,17 +1696,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>The Case of the Golden Idol</t>
+          <t>Black Mesa</t>
         </is>
       </c>
       <c r="B66" s="4" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>4890</v>
+        <v>100223</v>
       </c>
       <c r="D66" s="6" t="n">
-        <v>17.99</v>
+        <v>14.99</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -1715,17 +1715,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Too</t>
+          <t>Half-Life 2</t>
         </is>
       </c>
       <c r="B67" s="4" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>6195</v>
+        <v>144654</v>
       </c>
       <c r="D67" s="6" t="n">
-        <v>9.99</v>
+        <v>9.75</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
@@ -1734,17 +1734,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Rogue Legacy 2</t>
+          <t>Sticky Business</t>
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>12700</v>
+        <v>2938</v>
       </c>
       <c r="D68" s="6" t="n">
-        <v>24.5</v>
+        <v>9.99</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
@@ -1753,17 +1753,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>KovaaK's</t>
+          <t>Little Nightmares II</t>
         </is>
       </c>
       <c r="B69" s="4" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>27846</v>
+        <v>27176</v>
       </c>
       <c r="D69" s="6" t="n">
-        <v>8.19</v>
+        <v>29.99</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>0</v>
@@ -1772,17 +1772,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>The Case of the Golden Idol</t>
         </is>
       </c>
       <c r="B70" s="4" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>30728</v>
+        <v>4898</v>
       </c>
       <c r="D70" s="6" t="n">
-        <v>29.99</v>
+        <v>17.99</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>0</v>
@@ -1791,17 +1791,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Car For Sale Simulator 2023</t>
+          <t>KovaaK's</t>
         </is>
       </c>
       <c r="B71" s="4" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>10659</v>
+        <v>27864</v>
       </c>
       <c r="D71" s="6" t="n">
-        <v>17.49</v>
+        <v>8.19</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>0</v>
@@ -1810,17 +1810,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Unravel Two</t>
+          <t>Viewfinder</t>
         </is>
       </c>
       <c r="B72" s="4" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>4365</v>
+        <v>4519</v>
       </c>
       <c r="D72" s="6" t="n">
-        <v>19.99</v>
+        <v>24.99</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>0</v>
@@ -1829,17 +1829,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Turing Complete</t>
+          <t>Strange Horticulture</t>
         </is>
       </c>
       <c r="B73" s="4" t="n">
         <v>0.95</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>2188</v>
+        <v>8669</v>
       </c>
       <c r="D73" s="6" t="n">
-        <v>16.79</v>
+        <v>14.79</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
@@ -1848,17 +1848,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Return of the Obra Dinn</t>
+          <t>Left 4 Dead</t>
         </is>
       </c>
       <c r="B74" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>21807</v>
+        <v>44540</v>
       </c>
       <c r="D74" s="6" t="n">
-        <v>19.5</v>
+        <v>9.75</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
@@ -1867,17 +1867,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Sticky Business</t>
+          <t>Left 4 Dead</t>
         </is>
       </c>
       <c r="B75" s="4" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>2926</v>
+        <v>44540</v>
       </c>
       <c r="D75" s="6" t="n">
-        <v>9.99</v>
+        <v>9.75</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
@@ -1886,17 +1886,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Rising Front</t>
+          <t>Astral Ascent</t>
         </is>
       </c>
       <c r="B76" s="4" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>1655</v>
+        <v>2467</v>
       </c>
       <c r="D76" s="6" t="n">
-        <v>14.79</v>
+        <v>24.5</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
@@ -1905,14 +1905,14 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Trine 5: A Clockwork Conspiracy</t>
+          <t>Crysis 3 Remastered</t>
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>1055</v>
+        <v>3049</v>
       </c>
       <c r="D77" s="6" t="n">
         <v>29.99</v>
@@ -1924,17 +1924,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Mini Motorways</t>
+          <t>Trine 5: A Clockwork Conspiracy</t>
         </is>
       </c>
       <c r="B78" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>17505</v>
+        <v>1057</v>
       </c>
       <c r="D78" s="6" t="n">
-        <v>8.19</v>
+        <v>29.99</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>0</v>
@@ -1943,17 +1943,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Counter-Strike: Source</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="B79" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>112640</v>
+        <v>30741</v>
       </c>
       <c r="D79" s="6" t="n">
-        <v>9.75</v>
+        <v>29.99</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>0</v>
@@ -1962,17 +1962,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Ravenfield</t>
+          <t>The Past Within</t>
         </is>
       </c>
       <c r="B80" s="4" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>61711</v>
+        <v>11147</v>
       </c>
       <c r="D80" s="6" t="n">
-        <v>17.49</v>
+        <v>5.99</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>0</v>
@@ -1981,14 +1981,14 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Little Nightmares</t>
+          <t>Human Fall Flat</t>
         </is>
       </c>
       <c r="B81" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>39678</v>
+        <v>150237</v>
       </c>
       <c r="D81" s="6" t="n">
         <v>19.99</v>
@@ -2000,17 +2000,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Superliminal</t>
+          <t>Counter-Strike: Source</t>
         </is>
       </c>
       <c r="B82" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>21253</v>
+        <v>112676</v>
       </c>
       <c r="D82" s="6" t="n">
-        <v>16.79</v>
+        <v>9.75</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
@@ -2019,17 +2019,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Labyrinthine</t>
+          <t>Killing Floor 2</t>
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>11292</v>
+        <v>76914</v>
       </c>
       <c r="D83" s="6" t="n">
-        <v>8.99</v>
+        <v>27.99</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
@@ -2038,17 +2038,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>The Past Within</t>
+          <t>Mini Motorways</t>
         </is>
       </c>
       <c r="B84" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>11133</v>
+        <v>17511</v>
       </c>
       <c r="D84" s="6" t="n">
-        <v>5.99</v>
+        <v>8.19</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -2057,19 +2057,57 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead</t>
+          <t>We Were Here Too</t>
         </is>
       </c>
       <c r="B85" s="4" t="n">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>44508</v>
+        <v>6200</v>
       </c>
       <c r="D85" s="6" t="n">
-        <v>9.75</v>
+        <v>9.99</v>
       </c>
       <c r="E85" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>Crysis 2 Remastered</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>3756</v>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E86" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>Blood West</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>2564</v>
+      </c>
+      <c r="D87" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E87" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2159,6 +2197,8 @@
     <hyperlink ref="A83" r:id="rId82"/>
     <hyperlink ref="A84" r:id="rId83"/>
     <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -487,7 +487,7 @@
         <v>0.8</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>135834</v>
+        <v>135866</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>8.99</v>
@@ -506,7 +506,7 @@
         <v>0.85</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>98992</v>
+        <v>99005</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>8.99</v>
@@ -525,7 +525,7 @@
         <v>0.83</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>46513</v>
+        <v>46522</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>5.99</v>
@@ -544,7 +544,7 @@
         <v>0.93</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>100670</v>
+        <v>100672</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>7.49</v>
@@ -563,7 +563,7 @@
         <v>0.86</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1031177</v>
+        <v>1031284</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>7.99</v>
@@ -601,7 +601,7 @@
         <v>0.96</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>29641</v>
+        <v>29648</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>5.84</v>
@@ -620,7 +620,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>20.09</v>
@@ -639,7 +639,7 @@
         <v>0.91</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>9752</v>
+        <v>9757</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>14.95</v>
@@ -658,7 +658,7 @@
         <v>0.95</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3190</v>
+        <v>3202</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>16.09</v>
@@ -677,7 +677,7 @@
         <v>0.95</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9413</v>
+        <v>9446</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>18.74</v>
@@ -696,7 +696,7 @@
         <v>0.84</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>15.21</v>
@@ -715,7 +715,7 @@
         <v>0.96</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4799</v>
+        <v>4805</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>7.99</v>
@@ -727,36 +727,36 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>BattleBit Remastered</t>
+          <t>Rising Front</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
         <v>0.9</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>106835</v>
+        <v>1661</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14.79</v>
+        <v>11.83</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Team Fortress 2</t>
+          <t>Deep Rock Galactic</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1022043</v>
+        <v>215399</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0</v>
+        <v>29.99</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>0</v>
@@ -765,17 +765,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>ULTRAKILL</t>
+          <t>BattleBit Remastered</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>83460</v>
+        <v>106850</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>24.5</v>
+        <v>14.79</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0</v>
@@ -784,17 +784,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Deep Rock Galactic</t>
+          <t>Team Fortress 2</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>215369</v>
+        <v>1022094</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>29.99</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
@@ -803,17 +803,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>The Talos Principle 2</t>
+          <t>ULTRAKILL</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>6509</v>
+        <v>83485</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28.99</v>
+        <v>24.5</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0.96</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10887</v>
+        <v>10890</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>29.99</v>
@@ -841,17 +841,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Hollow Knight</t>
+          <t>A Little to the Left</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>292854</v>
+        <v>6183</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>14.79</v>
+        <v>14.99</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -860,17 +860,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Gunfire Reborn</t>
+          <t>Escape Simulator</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>79106</v>
+        <v>11494</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>16.79</v>
+        <v>14.99</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -879,17 +879,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Inscryption</t>
+          <t>The Talos Principle 2</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>96741</v>
+        <v>6518</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19.99</v>
+        <v>28.99</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>A Little to the Left</t>
+          <t>Gunfire Reborn</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6179</v>
+        <v>79112</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>14.99</v>
+        <v>16.79</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -917,17 +917,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Escape Simulator</t>
+          <t>GROUND BRANCH</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>11493</v>
+        <v>15064</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>14.99</v>
+        <v>24.99</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -936,17 +936,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Portal 2</t>
+          <t>Inscryption</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>310357</v>
+        <v>96758</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9.75</v>
+        <v>19.99</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -955,17 +955,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>GROUND BRANCH</t>
+          <t>Hollow Knight</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>15060</v>
+        <v>292899</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>24.99</v>
+        <v>14.79</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
@@ -974,14 +974,14 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Chants of Sennaar</t>
+          <t>Cuphead</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>8453</v>
+        <v>135933</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>19.99</v>
@@ -993,14 +993,14 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead 2</t>
+          <t>Portal 2</t>
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>613841</v>
+        <v>310439</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>9.75</v>
@@ -1012,17 +1012,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Ori and the Will of the Wisps</t>
+          <t>We Were Here Forever</t>
         </is>
       </c>
       <c r="B30" s="4" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>112842</v>
+        <v>10566</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>29.99</v>
+        <v>17.99</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
@@ -1031,17 +1031,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Forever</t>
+          <t>Unpacking</t>
         </is>
       </c>
       <c r="B31" s="4" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>10562</v>
+        <v>23844</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>17.99</v>
+        <v>19.99</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
@@ -1050,17 +1050,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Cuphead</t>
+          <t>Left 4 Dead 2</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>135917</v>
+        <v>613935</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>19.99</v>
+        <v>9.75</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Metro Exodus</t>
+          <t>Borderlands 2</t>
         </is>
       </c>
       <c r="B33" s="4" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>86822</v>
+        <v>186444</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>29.99</v>
@@ -1088,17 +1088,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Insurgency: Sandstorm</t>
+          <t>Pizza Tower</t>
         </is>
       </c>
       <c r="B34" s="4" t="n">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>89600</v>
+        <v>45850</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>29.99</v>
+        <v>19.5</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
@@ -1107,17 +1107,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>SCP: 5K</t>
+          <t>Jusant</t>
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>6671</v>
+        <v>1334</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>19.5</v>
+        <v>24.99</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -1126,17 +1126,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>PAYDAY 2</t>
+          <t>Chants of Sennaar</t>
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>423581</v>
+        <v>8463</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -1145,17 +1145,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Starship Troopers: Extermination</t>
+          <t>Metro Exodus</t>
         </is>
       </c>
       <c r="B37" s="4" t="n">
         <v>0.89</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>23218</v>
+        <v>86837</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>28.99</v>
+        <v>29.99</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>0</v>
@@ -1164,17 +1164,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Unpacking</t>
+          <t>Titanfall® 2</t>
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>23842</v>
+        <v>178878</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>0</v>
@@ -1183,14 +1183,14 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Together</t>
+          <t>Dorfromantik</t>
         </is>
       </c>
       <c r="B39" s="4" t="n">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>10325</v>
+        <v>23007</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>12.99</v>
@@ -1202,17 +1202,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Dorfromantik</t>
+          <t>Starship Troopers: Extermination</t>
         </is>
       </c>
       <c r="B40" s="4" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>23005</v>
+        <v>23218</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>12.99</v>
+        <v>28.99</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>0</v>
@@ -1221,17 +1221,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Terra Nil</t>
+          <t>Ori and the Will of the Wisps</t>
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>4464</v>
+        <v>112855</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>24.99</v>
+        <v>29.99</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>0</v>
@@ -1240,17 +1240,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Borderlands 2</t>
+          <t>Keep Talking and Nobody Explodes</t>
         </is>
       </c>
       <c r="B42" s="4" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>186443</v>
+        <v>10855</v>
       </c>
       <c r="D42" s="6" t="n">
-        <v>29.99</v>
+        <v>14.79</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -1259,17 +1259,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Labyrinthine</t>
+          <t>We Were Here Together</t>
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>11303</v>
+        <v>10327</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>8.99</v>
+        <v>12.99</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>0</v>
@@ -1278,17 +1278,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Keep Talking and Nobody Explodes</t>
+          <t>Insurgency: Sandstorm</t>
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>10852</v>
+        <v>89603</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>14.79</v>
+        <v>29.99</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>0</v>
@@ -1297,17 +1297,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Jusant</t>
+          <t>PAYDAY 2</t>
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>1329</v>
+        <v>423587</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>0</v>
@@ -1316,17 +1316,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Car For Sale Simulator 2023</t>
+          <t>Squad 44</t>
         </is>
       </c>
       <c r="B46" s="4" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>10675</v>
+        <v>15914</v>
       </c>
       <c r="D46" s="6" t="n">
-        <v>17.49</v>
+        <v>28</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>0</v>
@@ -1354,17 +1354,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Celeste</t>
+          <t>Inside the Backrooms</t>
         </is>
       </c>
       <c r="B48" s="4" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>78599</v>
+        <v>33461</v>
       </c>
       <c r="D48" s="6" t="n">
-        <v>19.5</v>
+        <v>6.99</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -1373,17 +1373,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Squad 44</t>
+          <t>Sticky Business</t>
         </is>
       </c>
       <c r="B49" s="4" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>15914</v>
+        <v>2940</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>28</v>
+        <v>9.99</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0</v>
@@ -1392,17 +1392,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Trailmakers</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>16493</v>
+        <v>126917</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>24.99</v>
+        <v>9.75</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>0</v>
@@ -1411,17 +1411,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Rain World</t>
+          <t>Celeste</t>
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>20229</v>
+        <v>78609</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>24.5</v>
+        <v>19.5</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>0</v>
@@ -1430,17 +1430,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty®: Modern Warfare® 2 (2009)</t>
+          <t>Rain World</t>
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>30538</v>
+        <v>20237</v>
       </c>
       <c r="D52" s="6" t="n">
-        <v>19.99</v>
+        <v>24.5</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>0</v>
@@ -1449,17 +1449,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>Call of Duty®: Modern Warfare® 2 (2009)</t>
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>126890</v>
+        <v>30542</v>
       </c>
       <c r="D53" s="6" t="n">
-        <v>9.75</v>
+        <v>19.99</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>0</v>
@@ -1468,17 +1468,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Pizza Tower</t>
+          <t>TUNIC</t>
         </is>
       </c>
       <c r="B54" s="4" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>45842</v>
+        <v>9815</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>19.5</v>
+        <v>28.99</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>0</v>
@@ -1487,17 +1487,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>TUNIC</t>
+          <t>Labyrinthine</t>
         </is>
       </c>
       <c r="B55" s="4" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>9812</v>
+        <v>11304</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>28.99</v>
+        <v>8.99</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>0</v>
@@ -1506,17 +1506,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Ori and the Blind Forest</t>
+          <t>The Talos Principle</t>
         </is>
       </c>
       <c r="B56" s="4" t="n">
         <v>0.95</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>44934</v>
+        <v>25508</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0</v>
+        <v>28.99</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>0</v>
@@ -1525,17 +1525,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>DOOM</t>
+          <t>Black Mesa</t>
         </is>
       </c>
       <c r="B57" s="4" t="n">
         <v>0.95</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>124517</v>
+        <v>100233</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>19.99</v>
+        <v>14.99</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -1544,17 +1544,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Little Nightmares</t>
+          <t>Terra Nil</t>
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>39686</v>
+        <v>4466</v>
       </c>
       <c r="D58" s="6" t="n">
-        <v>19.99</v>
+        <v>24.99</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -1563,17 +1563,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Turing Complete</t>
+          <t>DOOM</t>
         </is>
       </c>
       <c r="B59" s="4" t="n">
         <v>0.95</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>2192</v>
+        <v>124523</v>
       </c>
       <c r="D59" s="6" t="n">
-        <v>16.79</v>
+        <v>19.99</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -1582,17 +1582,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Far Cry 3</t>
+          <t>SCP: 5K</t>
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>88085</v>
+        <v>6672</v>
       </c>
       <c r="D60" s="6" t="n">
-        <v>19.99</v>
+        <v>19.5</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -1601,17 +1601,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty: World at War</t>
+          <t>Half-Life 2</t>
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>39862</v>
+        <v>144667</v>
       </c>
       <c r="D61" s="6" t="n">
-        <v>19.99</v>
+        <v>9.75</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -1620,17 +1620,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Titanfall® 2</t>
+          <t>We Were Here Too</t>
         </is>
       </c>
       <c r="B62" s="4" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>178852</v>
+        <v>6201</v>
       </c>
       <c r="D62" s="6" t="n">
-        <v>29.99</v>
+        <v>9.99</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0</v>
@@ -1639,17 +1639,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Ravenfield</t>
+          <t>Turing Complete</t>
         </is>
       </c>
       <c r="B63" s="4" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>61742</v>
+        <v>2193</v>
       </c>
       <c r="D63" s="6" t="n">
-        <v>17.49</v>
+        <v>16.79</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>0</v>
@@ -1658,17 +1658,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Cruelty Squad</t>
+          <t>Strange Horticulture</t>
         </is>
       </c>
       <c r="B64" s="4" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>14019</v>
+        <v>8670</v>
       </c>
       <c r="D64" s="6" t="n">
-        <v>16.79</v>
+        <v>14.79</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>0</v>
@@ -1677,17 +1677,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Baba Is You</t>
+          <t>The Case of the Golden Idol</t>
         </is>
       </c>
       <c r="B65" s="4" t="n">
         <v>0.98</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>16350</v>
+        <v>4898</v>
       </c>
       <c r="D65" s="6" t="n">
-        <v>12.49</v>
+        <v>17.99</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -1696,17 +1696,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Black Mesa</t>
+          <t>Cruelty Squad</t>
         </is>
       </c>
       <c r="B66" s="4" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>100223</v>
+        <v>14022</v>
       </c>
       <c r="D66" s="6" t="n">
-        <v>14.99</v>
+        <v>16.79</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -1715,17 +1715,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Half-Life 2</t>
+          <t>The Outer Worlds</t>
         </is>
       </c>
       <c r="B67" s="4" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>144654</v>
+        <v>20892</v>
       </c>
       <c r="D67" s="6" t="n">
-        <v>9.75</v>
+        <v>29.99</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
@@ -1734,17 +1734,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Sticky Business</t>
+          <t>Little Nightmares</t>
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>2938</v>
+        <v>39691</v>
       </c>
       <c r="D68" s="6" t="n">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
@@ -1753,17 +1753,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Little Nightmares II</t>
+          <t>Call of Duty: World at War</t>
         </is>
       </c>
       <c r="B69" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>27176</v>
+        <v>39863</v>
       </c>
       <c r="D69" s="6" t="n">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>0</v>
@@ -1772,17 +1772,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>The Case of the Golden Idol</t>
+          <t>Car For Sale Simulator 2023</t>
         </is>
       </c>
       <c r="B70" s="4" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>4898</v>
+        <v>10679</v>
       </c>
       <c r="D70" s="6" t="n">
-        <v>17.99</v>
+        <v>17.49</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>0</v>
@@ -1791,17 +1791,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>KovaaK's</t>
+          <t>Ori and the Blind Forest</t>
         </is>
       </c>
       <c r="B71" s="4" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>27864</v>
+        <v>44938</v>
       </c>
       <c r="D71" s="6" t="n">
-        <v>8.19</v>
+        <v>0</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>0</v>
@@ -1810,14 +1810,14 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Viewfinder</t>
+          <t>Trailmakers</t>
         </is>
       </c>
       <c r="B72" s="4" t="n">
         <v>0.93</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>4519</v>
+        <v>16494</v>
       </c>
       <c r="D72" s="6" t="n">
         <v>24.99</v>
@@ -1829,17 +1829,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Strange Horticulture</t>
+          <t>Little Nightmares II</t>
         </is>
       </c>
       <c r="B73" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>8669</v>
+        <v>27181</v>
       </c>
       <c r="D73" s="6" t="n">
-        <v>14.79</v>
+        <v>29.99</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
@@ -1848,17 +1848,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead</t>
+          <t>Viewfinder</t>
         </is>
       </c>
       <c r="B74" s="4" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>44540</v>
+        <v>4520</v>
       </c>
       <c r="D74" s="6" t="n">
-        <v>9.75</v>
+        <v>24.99</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
@@ -1867,17 +1867,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead</t>
+          <t>Rogue Legacy 2</t>
         </is>
       </c>
       <c r="B75" s="4" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>44540</v>
+        <v>12705</v>
       </c>
       <c r="D75" s="6" t="n">
-        <v>9.75</v>
+        <v>24.5</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
@@ -1886,17 +1886,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Astral Ascent</t>
+          <t>Ravenfield</t>
         </is>
       </c>
       <c r="B76" s="4" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>2467</v>
+        <v>61749</v>
       </c>
       <c r="D76" s="6" t="n">
-        <v>24.5</v>
+        <v>17.49</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
@@ -1905,14 +1905,14 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Crysis 3 Remastered</t>
+          <t>Trine 5: A Clockwork Conspiracy</t>
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>3049</v>
+        <v>1058</v>
       </c>
       <c r="D77" s="6" t="n">
         <v>29.99</v>
@@ -1924,14 +1924,14 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Trine 5: A Clockwork Conspiracy</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="B78" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>1057</v>
+        <v>30744</v>
       </c>
       <c r="D78" s="6" t="n">
         <v>29.99</v>
@@ -1943,17 +1943,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>KovaaK's</t>
         </is>
       </c>
       <c r="B79" s="4" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>30741</v>
+        <v>27870</v>
       </c>
       <c r="D79" s="6" t="n">
-        <v>29.99</v>
+        <v>8.19</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>0</v>
@@ -1962,17 +1962,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>The Past Within</t>
+          <t>Astral Ascent</t>
         </is>
       </c>
       <c r="B80" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>11147</v>
+        <v>2469</v>
       </c>
       <c r="D80" s="6" t="n">
-        <v>5.99</v>
+        <v>24.5</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>0</v>
@@ -1981,17 +1981,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Human Fall Flat</t>
+          <t>The Past Within</t>
         </is>
       </c>
       <c r="B81" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>150237</v>
+        <v>11150</v>
       </c>
       <c r="D81" s="6" t="n">
-        <v>19.99</v>
+        <v>5.99</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
@@ -2000,17 +2000,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Counter-Strike: Source</t>
+          <t>Crysis 3 Remastered</t>
         </is>
       </c>
       <c r="B82" s="4" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>112676</v>
+        <v>3051</v>
       </c>
       <c r="D82" s="6" t="n">
-        <v>9.75</v>
+        <v>29.99</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
@@ -2019,17 +2019,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Killing Floor 2</t>
+          <t>Far Cry 3</t>
         </is>
       </c>
       <c r="B83" s="4" t="n">
         <v>0.89</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>76914</v>
+        <v>88094</v>
       </c>
       <c r="D83" s="6" t="n">
-        <v>27.99</v>
+        <v>19.99</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
@@ -2038,17 +2038,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Mini Motorways</t>
+          <t>Killing Floor 2</t>
         </is>
       </c>
       <c r="B84" s="4" t="n">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>17511</v>
+        <v>76919</v>
       </c>
       <c r="D84" s="6" t="n">
-        <v>8.19</v>
+        <v>27.99</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -2057,17 +2057,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Too</t>
+          <t>Human Fall Flat</t>
         </is>
       </c>
       <c r="B85" s="4" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>6200</v>
+        <v>150247</v>
       </c>
       <c r="D85" s="6" t="n">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
       <c r="E85" s="4" t="n">
         <v>0</v>
@@ -2076,17 +2076,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Crysis 2 Remastered</t>
+          <t>Call of Duty® 4: Modern Warfare® (2007)</t>
         </is>
       </c>
       <c r="B86" s="4" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>3756</v>
+        <v>18144</v>
       </c>
       <c r="D86" s="6" t="n">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="E86" s="4" t="n">
         <v>0</v>
@@ -2095,17 +2095,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Blood West</t>
+          <t>Crysis 2 Remastered</t>
         </is>
       </c>
       <c r="B87" s="4" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>2564</v>
+        <v>3758</v>
       </c>
       <c r="D87" s="6" t="n">
-        <v>24.99</v>
+        <v>29.99</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>0</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -480,261 +480,261 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Far Cry® 5</t>
+          <t>Airport CEO</t>
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>135866</v>
+        <v>6438</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>8.99</v>
+        <v>6.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Borderlands 3</t>
+          <t>F1® Manager 2023</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>99005</v>
+        <v>1326</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>8.99</v>
+        <v>16.49</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Far Cry® 4</t>
+          <t>Electrician Simulator</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>46522</v>
+        <v>1450</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>5.99</v>
+        <v>7.19</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BioShock Infinite</t>
+          <t>Lawn Mowing Simulator</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>100672</v>
+        <v>1581</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>7.49</v>
+        <v>11.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Tom Clancy's Rainbow Six® Siege</t>
+          <t>Pets Hotel</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1031284</v>
+        <v>135</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7.99</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>SUPERHOT VR</t>
+          <t>Farmer's Life</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>6733</v>
+        <v>1417</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8.99</v>
+        <v>16.39</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Ultimate Chicken Horse</t>
+          <t>Hotel Renovator</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>29648</v>
+        <v>1529</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>5.84</v>
+        <v>14.99</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Trepang2</t>
+          <t>Trade Bots: A Technical Analysis Simulation</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5402</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>20.09</v>
+        <v>7.07</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Warhammer 40,000: Boltgun</t>
+          <t>Alaskan Road Truckers</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>9757</v>
+        <v>1996</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14.95</v>
+        <v>21.14</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>COCOON</t>
+          <t>Music Store Simulator</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3202</v>
+        <v>97</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16.09</v>
+        <v>23.84</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Roboquest</t>
+          <t>Storage Hustle</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9446</v>
+        <v>379</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>18.74</v>
+        <v>8.25</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Gunsmith Simulator</t>
+          <t>Travellers Rest</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1412</v>
+        <v>7383</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>15.21</v>
+        <v>11.09</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Fireworks Mania - An Explosive Simulator</t>
+          <t>Software Inc.</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4805</v>
+        <v>6187</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7.99</v>
+        <v>16.9</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Rising Front</t>
+          <t>ACRES</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1661</v>
+        <v>111</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>11.83</v>
@@ -746,74 +746,74 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Deep Rock Galactic</t>
+          <t>My Supermarket</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>215399</v>
+        <v>91</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>29.99</v>
+        <v>11.83</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>BattleBit Remastered</t>
+          <t>Tribe: Primitive Builder</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>106850</v>
+        <v>408</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>14.79</v>
+        <v>18.52</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Team Fortress 2</t>
+          <t>Computer Repair Shop</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1022094</v>
+        <v>63</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>ULTRAKILL</t>
+          <t>Mind Over Magic</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>83485</v>
+        <v>887</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24.5</v>
+        <v>22.99</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -822,14 +822,14 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Metal: Hellsinger</t>
+          <t>Police Simulator: Patrol Officers</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10890</v>
+        <v>11899</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>29.99</v>
@@ -841,17 +841,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>A Little to the Left</t>
+          <t>Shadows of Doubt</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6183</v>
+        <v>7338</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>14.99</v>
+        <v>19.99</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -860,17 +860,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Escape Simulator</t>
+          <t>Stormworks: Build and Rescue</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>11494</v>
+        <v>39739</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14.99</v>
+        <v>24.5</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -879,14 +879,14 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>The Talos Principle 2</t>
+          <t>Eco</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6518</v>
+        <v>9523</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>28.99</v>
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Gunfire Reborn</t>
+          <t>The Exit 8</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>79112</v>
+        <v>3939</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>16.79</v>
+        <v>3.99</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -917,17 +917,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>GROUND BRANCH</t>
+          <t>Barony</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>15064</v>
+        <v>4493</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>24.99</v>
+        <v>19.5</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -936,14 +936,14 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Inscryption</t>
+          <t>Flyout</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>96758</v>
+        <v>710</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>19.99</v>
@@ -955,17 +955,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Hollow Knight</t>
+          <t>Cruelty Squad</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
         <v>0.97</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>292899</v>
+        <v>14022</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14.79</v>
+        <v>16.79</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
@@ -974,17 +974,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Cuphead</t>
+          <t>Car For Sale Simulator 2023</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>135933</v>
+        <v>10679</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>19.99</v>
+        <v>17.49</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
@@ -993,17 +993,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Portal 2</t>
+          <t>Gym Simulator 24</t>
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>310439</v>
+        <v>894</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>9.75</v>
+        <v>10.79</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
@@ -1012,17 +1012,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Forever</t>
+          <t>PC Building Simulator</t>
         </is>
       </c>
       <c r="B30" s="4" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10566</v>
+        <v>39405</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>17.99</v>
+        <v>19.99</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
@@ -1031,14 +1031,14 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Unpacking</t>
+          <t>Tram Simulator Urban Transit</t>
         </is>
       </c>
       <c r="B31" s="4" t="n">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>23844</v>
+        <v>109</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>19.99</v>
@@ -1050,17 +1050,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead 2</t>
+          <t>Gunner, HEAT, PC!</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>613935</v>
+        <v>3131</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>9.75</v>
+        <v>24.99</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
@@ -1069,17 +1069,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Borderlands 2</t>
+          <t>SimCity™ 4 Deluxe Edition</t>
         </is>
       </c>
       <c r="B33" s="4" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>186444</v>
+        <v>7073</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
@@ -1088,17 +1088,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Pizza Tower</t>
+          <t>Placid Plastic Duck Simulator</t>
         </is>
       </c>
       <c r="B34" s="4" t="n">
         <v>0.98</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>45850</v>
+        <v>10472</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>19.5</v>
+        <v>1.99</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
@@ -1107,17 +1107,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Jusant</t>
+          <t>Gloomwood</t>
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1334</v>
+        <v>4213</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>24.99</v>
+        <v>19.5</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -1126,17 +1126,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Chants of Sennaar</t>
+          <t>Mosa Lina</t>
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8463</v>
+        <v>751</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>19.99</v>
+        <v>4.99</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -1145,14 +1145,14 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Metro Exodus</t>
+          <t>Chef Life: A Restaurant Simulator</t>
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>86837</v>
+        <v>927</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>29.99</v>
@@ -1164,17 +1164,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Titanfall® 2</t>
+          <t>NASCAR Heat 5</t>
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>178878</v>
+        <v>2241</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>29.99</v>
+        <v>14.79</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>0</v>
@@ -1183,17 +1183,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Dorfromantik</t>
+          <t>Void Bastards</t>
         </is>
       </c>
       <c r="B39" s="4" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>23007</v>
+        <v>3573</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>12.99</v>
+        <v>29.99</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>0</v>
@@ -1202,17 +1202,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Starship Troopers: Extermination</t>
+          <t>Fish Game</t>
         </is>
       </c>
       <c r="B40" s="4" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>23218</v>
+        <v>233</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>28.99</v>
+        <v>24.5</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>0</v>
@@ -1221,17 +1221,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Ori and the Will of the Wisps</t>
+          <t>Ostranauts</t>
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>112855</v>
+        <v>838</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>29.99</v>
+        <v>16.79</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>0</v>
@@ -1240,17 +1240,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Keep Talking and Nobody Explodes</t>
+          <t>KartKraft™</t>
         </is>
       </c>
       <c r="B42" s="4" t="n">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10855</v>
+        <v>2330</v>
       </c>
       <c r="D42" s="6" t="n">
-        <v>14.79</v>
+        <v>24.5</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -1259,17 +1259,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Together</t>
+          <t>Rising Storm 2: Vietnam</t>
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>10327</v>
+        <v>37328</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>12.99</v>
+        <v>22.99</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>0</v>
@@ -1278,17 +1278,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Insurgency: Sandstorm</t>
+          <t>Flight Of Nova</t>
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>89603</v>
+        <v>288</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>0</v>
@@ -1297,17 +1297,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>PAYDAY 2</t>
+          <t>Destroyer: The U-Boat Hunter</t>
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>423587</v>
+        <v>515</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>9.99</v>
+        <v>29.99</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>0</v>
@@ -1316,17 +1316,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Squad 44</t>
+          <t>The Magical Mixture Mill</t>
         </is>
       </c>
       <c r="B46" s="4" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>15914</v>
+        <v>174</v>
       </c>
       <c r="D46" s="6" t="n">
-        <v>28</v>
+        <v>19.99</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>0</v>
@@ -1335,17 +1335,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>MechWarrior 5: Mercenaries</t>
+          <t>Weed Shop 3</t>
         </is>
       </c>
       <c r="B47" s="4" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>8312</v>
+        <v>3304</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>29.99</v>
+        <v>19.5</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>0</v>
@@ -1354,17 +1354,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Inside the Backrooms</t>
+          <t>Wrench</t>
         </is>
       </c>
       <c r="B48" s="4" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>33461</v>
+        <v>1024</v>
       </c>
       <c r="D48" s="6" t="n">
-        <v>6.99</v>
+        <v>24.99</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -1373,17 +1373,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Sticky Business</t>
+          <t>Hometopia</t>
         </is>
       </c>
       <c r="B49" s="4" t="n">
-        <v>0.97</v>
+        <v>0.64</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>2940</v>
+        <v>425</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>9.99</v>
+        <v>16.79</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0</v>
@@ -1392,722 +1392,19 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>Pool Cleaning Simulator</t>
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>0.98</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>126917</v>
+        <v>173</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>9.75</v>
+        <v>11.79</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>Celeste</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C51" s="5" t="n">
-        <v>78609</v>
-      </c>
-      <c r="D51" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E51" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>Rain World</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C52" s="5" t="n">
-        <v>20237</v>
-      </c>
-      <c r="D52" s="6" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E52" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>Call of Duty®: Modern Warfare® 2 (2009)</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C53" s="5" t="n">
-        <v>30542</v>
-      </c>
-      <c r="D53" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E53" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>TUNIC</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C54" s="5" t="n">
-        <v>9815</v>
-      </c>
-      <c r="D54" s="6" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E54" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>Labyrinthine</t>
-        </is>
-      </c>
-      <c r="B55" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C55" s="5" t="n">
-        <v>11304</v>
-      </c>
-      <c r="D55" s="6" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E55" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>The Talos Principle</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C56" s="5" t="n">
-        <v>25508</v>
-      </c>
-      <c r="D56" s="6" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E56" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>Black Mesa</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C57" s="5" t="n">
-        <v>100233</v>
-      </c>
-      <c r="D57" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E57" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>Terra Nil</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C58" s="5" t="n">
-        <v>4466</v>
-      </c>
-      <c r="D58" s="6" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>DOOM</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C59" s="5" t="n">
-        <v>124523</v>
-      </c>
-      <c r="D59" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E59" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>SCP: 5K</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C60" s="5" t="n">
-        <v>6672</v>
-      </c>
-      <c r="D60" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>Half-Life 2</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C61" s="5" t="n">
-        <v>144667</v>
-      </c>
-      <c r="D61" s="6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E61" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>We Were Here Too</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C62" s="5" t="n">
-        <v>6201</v>
-      </c>
-      <c r="D62" s="6" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E62" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>Turing Complete</t>
-        </is>
-      </c>
-      <c r="B63" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C63" s="5" t="n">
-        <v>2193</v>
-      </c>
-      <c r="D63" s="6" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="E63" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>Strange Horticulture</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C64" s="5" t="n">
-        <v>8670</v>
-      </c>
-      <c r="D64" s="6" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="E64" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>The Case of the Golden Idol</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C65" s="5" t="n">
-        <v>4898</v>
-      </c>
-      <c r="D65" s="6" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="E65" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>Cruelty Squad</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C66" s="5" t="n">
-        <v>14022</v>
-      </c>
-      <c r="D66" s="6" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="E66" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>The Outer Worlds</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="C67" s="5" t="n">
-        <v>20892</v>
-      </c>
-      <c r="D67" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E67" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>Little Nightmares</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C68" s="5" t="n">
-        <v>39691</v>
-      </c>
-      <c r="D68" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E68" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>Call of Duty: World at War</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C69" s="5" t="n">
-        <v>39863</v>
-      </c>
-      <c r="D69" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E69" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>Car For Sale Simulator 2023</t>
-        </is>
-      </c>
-      <c r="B70" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C70" s="5" t="n">
-        <v>10679</v>
-      </c>
-      <c r="D70" s="6" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="E70" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>Ori and the Blind Forest</t>
-        </is>
-      </c>
-      <c r="B71" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C71" s="5" t="n">
-        <v>44938</v>
-      </c>
-      <c r="D71" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr">
-        <is>
-          <t>Trailmakers</t>
-        </is>
-      </c>
-      <c r="B72" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C72" s="5" t="n">
-        <v>16494</v>
-      </c>
-      <c r="D72" s="6" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="E72" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>Little Nightmares II</t>
-        </is>
-      </c>
-      <c r="B73" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C73" s="5" t="n">
-        <v>27181</v>
-      </c>
-      <c r="D73" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E73" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>Viewfinder</t>
-        </is>
-      </c>
-      <c r="B74" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C74" s="5" t="n">
-        <v>4520</v>
-      </c>
-      <c r="D74" s="6" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="E74" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>Rogue Legacy 2</t>
-        </is>
-      </c>
-      <c r="B75" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C75" s="5" t="n">
-        <v>12705</v>
-      </c>
-      <c r="D75" s="6" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>Ravenfield</t>
-        </is>
-      </c>
-      <c r="B76" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C76" s="5" t="n">
-        <v>61749</v>
-      </c>
-      <c r="D76" s="6" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="E76" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>Trine 5: A Clockwork Conspiracy</t>
-        </is>
-      </c>
-      <c r="B77" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C77" s="5" t="n">
-        <v>1058</v>
-      </c>
-      <c r="D77" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E77" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>Prey</t>
-        </is>
-      </c>
-      <c r="B78" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C78" s="5" t="n">
-        <v>30744</v>
-      </c>
-      <c r="D78" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E78" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>KovaaK's</t>
-        </is>
-      </c>
-      <c r="B79" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C79" s="5" t="n">
-        <v>27870</v>
-      </c>
-      <c r="D79" s="6" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E79" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="inlineStr">
-        <is>
-          <t>Astral Ascent</t>
-        </is>
-      </c>
-      <c r="B80" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C80" s="5" t="n">
-        <v>2469</v>
-      </c>
-      <c r="D80" s="6" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E80" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="inlineStr">
-        <is>
-          <t>The Past Within</t>
-        </is>
-      </c>
-      <c r="B81" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C81" s="5" t="n">
-        <v>11150</v>
-      </c>
-      <c r="D81" s="6" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E81" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="inlineStr">
-        <is>
-          <t>Crysis 3 Remastered</t>
-        </is>
-      </c>
-      <c r="B82" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C82" s="5" t="n">
-        <v>3051</v>
-      </c>
-      <c r="D82" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E82" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>Far Cry 3</t>
-        </is>
-      </c>
-      <c r="B83" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C83" s="5" t="n">
-        <v>88094</v>
-      </c>
-      <c r="D83" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E83" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>Killing Floor 2</t>
-        </is>
-      </c>
-      <c r="B84" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C84" s="5" t="n">
-        <v>76919</v>
-      </c>
-      <c r="D84" s="6" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="E84" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>Human Fall Flat</t>
-        </is>
-      </c>
-      <c r="B85" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C85" s="5" t="n">
-        <v>150247</v>
-      </c>
-      <c r="D85" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E85" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="inlineStr">
-        <is>
-          <t>Call of Duty® 4: Modern Warfare® (2007)</t>
-        </is>
-      </c>
-      <c r="B86" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C86" s="5" t="n">
-        <v>18144</v>
-      </c>
-      <c r="D86" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E86" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>Crysis 2 Remastered</t>
-        </is>
-      </c>
-      <c r="B87" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C87" s="5" t="n">
-        <v>3758</v>
-      </c>
-      <c r="D87" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E87" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,43 +1459,6 @@
     <hyperlink ref="A48" r:id="rId47"/>
     <hyperlink ref="A49" r:id="rId48"/>
     <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="A51" r:id="rId50"/>
-    <hyperlink ref="A52" r:id="rId51"/>
-    <hyperlink ref="A53" r:id="rId52"/>
-    <hyperlink ref="A54" r:id="rId53"/>
-    <hyperlink ref="A55" r:id="rId54"/>
-    <hyperlink ref="A56" r:id="rId55"/>
-    <hyperlink ref="A57" r:id="rId56"/>
-    <hyperlink ref="A58" r:id="rId57"/>
-    <hyperlink ref="A59" r:id="rId58"/>
-    <hyperlink ref="A60" r:id="rId59"/>
-    <hyperlink ref="A61" r:id="rId60"/>
-    <hyperlink ref="A62" r:id="rId61"/>
-    <hyperlink ref="A63" r:id="rId62"/>
-    <hyperlink ref="A64" r:id="rId63"/>
-    <hyperlink ref="A65" r:id="rId64"/>
-    <hyperlink ref="A66" r:id="rId65"/>
-    <hyperlink ref="A67" r:id="rId66"/>
-    <hyperlink ref="A68" r:id="rId67"/>
-    <hyperlink ref="A69" r:id="rId68"/>
-    <hyperlink ref="A70" r:id="rId69"/>
-    <hyperlink ref="A71" r:id="rId70"/>
-    <hyperlink ref="A72" r:id="rId71"/>
-    <hyperlink ref="A73" r:id="rId72"/>
-    <hyperlink ref="A74" r:id="rId73"/>
-    <hyperlink ref="A75" r:id="rId74"/>
-    <hyperlink ref="A76" r:id="rId75"/>
-    <hyperlink ref="A77" r:id="rId76"/>
-    <hyperlink ref="A78" r:id="rId77"/>
-    <hyperlink ref="A79" r:id="rId78"/>
-    <hyperlink ref="A80" r:id="rId79"/>
-    <hyperlink ref="A81" r:id="rId80"/>
-    <hyperlink ref="A82" r:id="rId81"/>
-    <hyperlink ref="A83" r:id="rId82"/>
-    <hyperlink ref="A84" r:id="rId83"/>
-    <hyperlink ref="A85" r:id="rId84"/>
-    <hyperlink ref="A86" r:id="rId85"/>
-    <hyperlink ref="A87" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -480,340 +480,340 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Airport CEO</t>
+          <t>Borderlands 3</t>
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>6438</v>
+        <v>99074</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>6.12</v>
+        <v>8.99</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>F1® Manager 2023</t>
+          <t>BioShock Infinite</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>1326</v>
+        <v>100694</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>16.49</v>
+        <v>7.49</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Electrician Simulator</t>
+          <t>Hell Let Loose</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1450</v>
+        <v>73081</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>7.19</v>
+        <v>29.24</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Lawn Mowing Simulator</t>
+          <t>Trepang2</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1581</v>
+        <v>5445</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>11.99</v>
+        <v>20.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Pets Hotel</t>
+          <t>Warhammer 40,000: Boltgun</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>135</v>
+        <v>9774</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8.390000000000001</v>
+        <v>14.95</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Farmer's Life</t>
+          <t>COCOON</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1417</v>
+        <v>3262</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16.39</v>
+        <v>16.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Hotel Renovator</t>
+          <t>Roboquest</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1529</v>
+        <v>9633</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>14.99</v>
+        <v>18.74</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Trade Bots: A Technical Analysis Simulation</t>
+          <t>Fireworks Mania - An Explosive Simulator</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>31</v>
+        <v>4813</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>7.07</v>
+        <v>7.99</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Alaskan Road Truckers</t>
+          <t>Tom Clancy's Rainbow Six® Siege</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1996</v>
+        <v>1032092</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21.14</v>
+        <v>19.99</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Music Store Simulator</t>
+          <t>Team Fortress 2</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>97</v>
+        <v>1022451</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23.84</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Storage Hustle</t>
+          <t>BattleBit Remastered</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>379</v>
+        <v>107017</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>8.25</v>
+        <v>14.79</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Travellers Rest</t>
+          <t>Deep Rock Galactic</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7383</v>
+        <v>215574</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>11.09</v>
+        <v>29.99</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Software Inc.</t>
+          <t>ULTRAKILL</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6187</v>
+        <v>83731</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16.9</v>
+        <v>24.5</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>ACRES</t>
+          <t>Inscryption</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>111</v>
+        <v>96881</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11.83</v>
+        <v>19.99</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>My Supermarket</t>
+          <t>Gunfire Reborn</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>91</v>
+        <v>79152</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>11.83</v>
+        <v>16.79</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Tribe: Primitive Builder</t>
+          <t>A Little to the Left</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>408</v>
+        <v>6209</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>18.52</v>
+        <v>14.99</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Computer Repair Shop</t>
+          <t>Metal: Hellsinger</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>0.63</v>
+        <v>0.96</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>63</v>
+        <v>10895</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8.279999999999999</v>
+        <v>29.99</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Mind Over Magic</t>
+          <t>Left 4 Dead 2</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>887</v>
+        <v>614416</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22.99</v>
+        <v>9.75</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -822,17 +822,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Police Simulator: Patrol Officers</t>
+          <t>The Talos Principle 2</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>11899</v>
+        <v>6562</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>29.99</v>
+        <v>28.99</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
@@ -841,17 +841,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Shadows of Doubt</t>
+          <t>Escape Simulator</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7338</v>
+        <v>11499</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>19.99</v>
+        <v>14.99</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -860,17 +860,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Stormworks: Build and Rescue</t>
+          <t>Portal 2</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>39739</v>
+        <v>310744</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24.5</v>
+        <v>9.75</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -879,17 +879,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Eco</t>
+          <t>We Were Here Forever</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9523</v>
+        <v>10575</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28.99</v>
+        <v>17.99</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>The Exit 8</t>
+          <t>Chants of Sennaar</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3939</v>
+        <v>8513</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>3.99</v>
+        <v>19.99</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -917,17 +917,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Barony</t>
+          <t>GROUND BRANCH</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>4493</v>
+        <v>15076</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>19.5</v>
+        <v>24.99</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -936,17 +936,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Flyout</t>
+          <t>PAYDAY 2</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
         <v>0.89</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>710</v>
+        <v>423660</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>19.99</v>
+        <v>9.99</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -955,17 +955,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Cruelty Squad</t>
+          <t>Far Cry® 4</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14022</v>
+        <v>46590</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16.79</v>
+        <v>29.99</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
@@ -974,17 +974,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Car For Sale Simulator 2023</t>
+          <t>Jusant</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>10679</v>
+        <v>1347</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>17.49</v>
+        <v>24.99</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
@@ -993,17 +993,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Gym Simulator 24</t>
+          <t>SCP: 5K</t>
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>894</v>
+        <v>6685</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>10.79</v>
+        <v>19.5</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
@@ -1012,17 +1012,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>PC Building Simulator</t>
+          <t>Metro Exodus</t>
         </is>
       </c>
       <c r="B30" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>39405</v>
+        <v>86868</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
@@ -1031,17 +1031,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Tram Simulator Urban Transit</t>
+          <t>We Were Here Together</t>
         </is>
       </c>
       <c r="B31" s="4" t="n">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>109</v>
+        <v>10331</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19.99</v>
+        <v>12.99</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
@@ -1050,17 +1050,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Gunner, HEAT, PC!</t>
+          <t>MechWarrior 5: Mercenaries</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>3131</v>
+        <v>8316</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>24.99</v>
+        <v>29.99</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>SimCity™ 4 Deluxe Edition</t>
+          <t>Call of Duty: World at War</t>
         </is>
       </c>
       <c r="B33" s="4" t="n">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>7073</v>
+        <v>39879</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>19.99</v>
@@ -1088,17 +1088,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Placid Plastic Duck Simulator</t>
+          <t>Dorfromantik</t>
         </is>
       </c>
       <c r="B34" s="4" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>10472</v>
+        <v>23024</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1.99</v>
+        <v>12.99</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
@@ -1107,17 +1107,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Gloomwood</t>
+          <t>Squad 44</t>
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>4213</v>
+        <v>15920</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -1126,17 +1126,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Mosa Lina</t>
+          <t>TUNIC</t>
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>751</v>
+        <v>9826</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>4.99</v>
+        <v>28.99</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -1145,266 +1145,19 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Chef Life: A Restaurant Simulator</t>
+          <t>Starship Troopers: Extermination</t>
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>927</v>
+        <v>23242</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>29.99</v>
+        <v>28.99</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>NASCAR Heat 5</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>2241</v>
-      </c>
-      <c r="D38" s="6" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>Void Bastards</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>3573</v>
-      </c>
-      <c r="D39" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>Fish Game</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <v>233</v>
-      </c>
-      <c r="D40" s="6" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>Ostranauts</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C41" s="5" t="n">
-        <v>838</v>
-      </c>
-      <c r="D41" s="6" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>KartKraft™</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="C42" s="5" t="n">
-        <v>2330</v>
-      </c>
-      <c r="D42" s="6" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>Rising Storm 2: Vietnam</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C43" s="5" t="n">
-        <v>37328</v>
-      </c>
-      <c r="D43" s="6" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="E43" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>Flight Of Nova</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C44" s="5" t="n">
-        <v>288</v>
-      </c>
-      <c r="D44" s="6" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="E44" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>Destroyer: The U-Boat Hunter</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="C45" s="5" t="n">
-        <v>515</v>
-      </c>
-      <c r="D45" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E45" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>The Magical Mixture Mill</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="C46" s="5" t="n">
-        <v>174</v>
-      </c>
-      <c r="D46" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>Weed Shop 3</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C47" s="5" t="n">
-        <v>3304</v>
-      </c>
-      <c r="D47" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>Wrench</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C48" s="5" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D48" s="6" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="E48" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>Hometopia</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C49" s="5" t="n">
-        <v>425</v>
-      </c>
-      <c r="D49" s="6" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>Pool Cleaning Simulator</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C50" s="5" t="n">
-        <v>173</v>
-      </c>
-      <c r="D50" s="6" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E50" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1446,19 +1199,6 @@
     <hyperlink ref="A35" r:id="rId34"/>
     <hyperlink ref="A36" r:id="rId35"/>
     <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="A45" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="A47" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="A49" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -487,7 +487,7 @@
         <v>0.85</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>99074</v>
+        <v>99090</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>8.99</v>
@@ -518,131 +518,131 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Hell Let Loose</t>
+          <t>SUPERHOT</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>73081</v>
+        <v>24024</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>29.24</v>
+        <v>6.74</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Trepang2</t>
+          <t>SUPERHOT VR</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5445</v>
+        <v>6736</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>20.09</v>
+        <v>8.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Warhammer 40,000: Boltgun</t>
+          <t>Fireworks Mania - An Explosive Simulator</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9774</v>
+        <v>4814</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14.95</v>
+        <v>7.99</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>COCOON</t>
+          <t>Left 4 Dead 2</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>3262</v>
+        <v>614528</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16.09</v>
+        <v>9.75</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Roboquest</t>
+          <t>PAYDAY 2</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9633</v>
+        <v>423679</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>18.74</v>
+        <v>9.99</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Fireworks Mania - An Explosive Simulator</t>
+          <t>KovaaK's</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4813</v>
+        <v>27883</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>7.99</v>
+        <v>8.19</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Tom Clancy's Rainbow Six® Siege</t>
+          <t>Half-Life 2</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1032092</v>
+        <v>144804</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19.99</v>
+        <v>9.75</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
@@ -651,17 +651,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Team Fortress 2</t>
+          <t>Counter-Strike</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1022451</v>
+        <v>146009</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0</v>
+        <v>8.19</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
@@ -670,17 +670,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>BattleBit Remastered</t>
+          <t>Easy Red 2</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
         <v>0.9</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>107017</v>
+        <v>3421</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>14.79</v>
+        <v>8.99</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>0</v>
@@ -689,17 +689,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Deep Rock Galactic</t>
+          <t>Counter-Strike: Source</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>215574</v>
+        <v>112739</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>29.99</v>
+        <v>9.75</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>0</v>
@@ -708,17 +708,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>ULTRAKILL</t>
+          <t>Left 4 Dead</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>83731</v>
+        <v>44594</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24.5</v>
+        <v>9.75</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>0</v>
@@ -727,17 +727,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Inscryption</t>
+          <t>Half-Life</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>96881</v>
+        <v>88089</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19.99</v>
+        <v>8.19</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>0</v>
@@ -746,418 +746,19 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Gunfire Reborn</t>
+          <t>Team Fortress Classic</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>79152</v>
+        <v>5868</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>16.79</v>
+        <v>4.99</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>A Little to the Left</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>6209</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Metal: Hellsinger</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>10895</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Left 4 Dead 2</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>614416</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>The Talos Principle 2</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>6562</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Escape Simulator</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>11499</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Portal 2</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>310744</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>We Were Here Forever</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>10575</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Chants of Sennaar</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>8513</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>GROUND BRANCH</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>15076</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>PAYDAY 2</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>423660</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>Far Cry® 4</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>46590</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>Jusant</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>1347</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>SCP: 5K</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>6685</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>Metro Exodus</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>86868</v>
-      </c>
-      <c r="D30" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>We Were Here Together</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>10331</v>
-      </c>
-      <c r="D31" s="6" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>MechWarrior 5: Mercenaries</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>8316</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E32" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>Call of Duty: World at War</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>39879</v>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>Dorfromantik</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>23024</v>
-      </c>
-      <c r="D34" s="6" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="E34" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>Squad 44</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>15920</v>
-      </c>
-      <c r="D35" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="E35" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>TUNIC</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>9826</v>
-      </c>
-      <c r="D36" s="6" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>Starship Troopers: Extermination</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>23242</v>
-      </c>
-      <c r="D37" s="6" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E37" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1178,27 +779,6 @@
     <hyperlink ref="A14" r:id="rId13"/>
     <hyperlink ref="A15" r:id="rId14"/>
     <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-    <hyperlink ref="A30" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="A37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -480,285 +480,7163 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Borderlands 3</t>
+          <t>Bridge Constructor Portal</t>
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>99090</v>
+        <v>4925</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>8.99</v>
+        <v>0.99</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BioShock Infinite</t>
+          <t>Agent A: A puzzle in disguise</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>100694</v>
+        <v>4208</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>7.49</v>
+        <v>1.67</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>SUPERHOT</t>
+          <t>In Sound Mind</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>24024</v>
+        <v>2973</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>6.74</v>
+        <v>3.29</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>SUPERHOT VR</t>
+          <t>In Sound Mind</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6736</v>
+        <v>2973</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>8.99</v>
+        <v>3.29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Fireworks Mania - An Explosive Simulator</t>
+          <t>Borderlands 3</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4814</v>
+        <v>99090</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7.99</v>
+        <v>8.99</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead 2</t>
+          <t>Call of Juarez: Gunslinger</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>614528</v>
+        <v>15786</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9.75</v>
+        <v>2.49</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>PAYDAY 2</t>
+          <t>Shady Part of Me</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>423679</v>
+        <v>1287</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>9.99</v>
+        <v>2.99</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>KovaaK's</t>
+          <t>Call of Juarez: Bound in Blood</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>27883</v>
+        <v>3331</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>8.19</v>
+        <v>1.99</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Half-Life 2</t>
+          <t>Call of Juarez</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>144804</v>
+        <v>2500</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9.75</v>
+        <v>1.99</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Counter-Strike</t>
+          <t>Yoku's Island Express</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>146009</v>
+        <v>2544</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8.19</v>
+        <v>3.99</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Easy Red 2</t>
+          <t>Jenny LeClue - Detectivu</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3421</v>
+        <v>1047</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>8.99</v>
+        <v>3.79</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Counter-Strike: Source</t>
+          <t>BioShock Infinite</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>112739</v>
+        <v>100694</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>9.75</v>
+        <v>7.49</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead</t>
+          <t>Super Meat Boy</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>44594</v>
+        <v>24745</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9.75</v>
+        <v>3.49</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Half-Life</t>
+          <t>DuckTales: Remastered</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>88089</v>
+        <v>5618</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8.19</v>
+        <v>3.49</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Team Fortress Classic</t>
+          <t>SUPERHOT</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>24024</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>SteamWorld Dig 2</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>3484</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>SteamWorld Dig</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4747</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Blue Fire</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1397</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Insurgency</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>86260</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>SUPERHOT VR</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>6736</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Manifold Garden</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>5104</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>SUPERHOT: MIND CONTROL DELETE</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
         <v>0.85</v>
       </c>
-      <c r="C16" s="5" t="n">
-        <v>5868</v>
-      </c>
-      <c r="D16" s="6" t="n">
+      <c r="C23" s="5" t="n">
+        <v>7879</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>FAR: Changing Tides</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3177</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Ultimate Chicken Horse</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>29689</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Lost in Play</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>4021</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>LUNA The Shadow Dust</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Hidden Through Time</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>2266</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Kao the Kangaroo: Round 2 (2003 re-release)</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>2371</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Hell Let Loose</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>73098</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Amnesia: The Bunker</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>5012</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Trepang2</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>5448</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Warhammer 40,000: Boltgun</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>9776</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>COCOON</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>3280</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Railbound</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>1143</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Deadlink</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>2476</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Roboquest</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>9661</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Gravity Circuit</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>1456</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Gunsmith Simulator</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Fireworks Mania - An Explosive Simulator</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>4814</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Rising Front</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>1668</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Turbo Overkill</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>4369</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>A Building Full of Cats</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>2919</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Post Void</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>8040</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Post Void</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>8040</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>Tom Clancy's Rainbow Six® Siege</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>1032192</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>Deep Rock Galactic</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>215607</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>BattleBit Remastered</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>107045</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Team Fortress 2</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>1022499</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>A Little to the Left</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>6212</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>MechWarrior 5: Mercenaries</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>8316</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>ULTRAKILL</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>83763</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Inscryption</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>96902</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>Hollow Knight</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>293192</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>Gunfire Reborn</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>79161</v>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>Portal 2</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>310809</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>Rain World</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>20300</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>Cuphead</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>136036</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>GROUND BRANCH</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>15076</v>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>PAYDAY 2</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>423679</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Left 4 Dead 2</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>614528</v>
+      </c>
+      <c r="D61" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>Escape Simulator</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>11502</v>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>The Talos Principle 2</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>6569</v>
+      </c>
+      <c r="D63" s="6" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Squad 44</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>15924</v>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>SCP: 5K</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>6686</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Chants of Sennaar</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>8522</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>We Were Here Forever</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>10576</v>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>Metro Exodus</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>86881</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>Metal: Hellsinger</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>10898</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>Jusant</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Ori and the Will of the Wisps</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>112906</v>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Terra Nil</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>4471</v>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>We Were Here Together</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>10331</v>
+      </c>
+      <c r="D73" s="6" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>Keep Talking and Nobody Explodes</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>10862</v>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>Borderlands 2</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C75" s="5" t="n">
+        <v>186474</v>
+      </c>
+      <c r="D75" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>Far Cry® 4</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C76" s="5" t="n">
+        <v>46606</v>
+      </c>
+      <c r="D76" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Trailmakers</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>16511</v>
+      </c>
+      <c r="D77" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Starship Troopers: Extermination</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>23249</v>
+      </c>
+      <c r="D78" s="6" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Call of Duty: World at War</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>39882</v>
+      </c>
+      <c r="D79" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>Celeste</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <v>78719</v>
+      </c>
+      <c r="D80" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>TUNIC</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>9827</v>
+      </c>
+      <c r="D81" s="6" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E81" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>Portal</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>127104</v>
+      </c>
+      <c r="D82" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E82" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>DOOM</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C83" s="5" t="n">
+        <v>124560</v>
+      </c>
+      <c r="D83" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>Pizza Tower</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>45935</v>
+      </c>
+      <c r="D84" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E84" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>Insurgency: Sandstorm</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>89638</v>
+      </c>
+      <c r="D85" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>Unpacking</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>23879</v>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E86" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>Wolfenstein: The New Order</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>37197</v>
+      </c>
+      <c r="D87" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E87" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>Turing Complete</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>2201</v>
+      </c>
+      <c r="D88" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E88" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>S.T.A.L.K.E.R.: Shadow of Chernobyl</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>29834</v>
+      </c>
+      <c r="D89" s="6" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E89" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>Inside the Backrooms</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>33484</v>
+      </c>
+      <c r="D90" s="6" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E90" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>Rayman® Legends</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>6985</v>
+      </c>
+      <c r="D91" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>Dorfromantik</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>23026</v>
+      </c>
+      <c r="D92" s="6" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="E92" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>Human Fall Flat</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>150284</v>
+      </c>
+      <c r="D93" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>Labyrinthine</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C94" s="5" t="n">
+        <v>11315</v>
+      </c>
+      <c r="D94" s="6" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E94" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>Titanfall® 2</t>
+        </is>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>178982</v>
+      </c>
+      <c r="D95" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E95" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>Black Mesa</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>100310</v>
+      </c>
+      <c r="D96" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E96" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>Little Nightmares II</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>27207</v>
+      </c>
+      <c r="D97" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E97" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>The Outer Worlds</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>20898</v>
+      </c>
+      <c r="D98" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E98" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>Call of Duty: United Offensive</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>1679</v>
+      </c>
+      <c r="D99" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>Car For Sale Simulator 2023</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>10692</v>
+      </c>
+      <c r="D100" s="6" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>Viewfinder</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>4536</v>
+      </c>
+      <c r="D101" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>The Talos Principle</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <v>25527</v>
+      </c>
+      <c r="D102" s="6" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E102" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>Superliminal</t>
+        </is>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <v>21273</v>
+      </c>
+      <c r="D103" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E103" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>KovaaK's</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>27883</v>
+      </c>
+      <c r="D104" s="6" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E104" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>Crysis 2 Remastered</t>
+        </is>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>3770</v>
+      </c>
+      <c r="D105" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E105" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>Little Nightmares</t>
+        </is>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>39713</v>
+      </c>
+      <c r="D106" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E106" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>Mini Motorways</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>17531</v>
+      </c>
+      <c r="D107" s="6" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E107" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>Trine 5: A Clockwork Conspiracy</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="D108" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>Ori and the Blind Forest</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>44954</v>
+      </c>
+      <c r="D109" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>Unravel Two</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C110" s="5" t="n">
+        <v>4375</v>
+      </c>
+      <c r="D110" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E110" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>Strange Horticulture</t>
+        </is>
+      </c>
+      <c r="B111" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C111" s="5" t="n">
+        <v>8687</v>
+      </c>
+      <c r="D111" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E111" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>Half-Life 2</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>144804</v>
+      </c>
+      <c r="D112" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E112" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>We Were Here Too</t>
+        </is>
+      </c>
+      <c r="B113" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>6207</v>
+      </c>
+      <c r="D113" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E113" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>Prey</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C114" s="5" t="n">
+        <v>30768</v>
+      </c>
+      <c r="D114" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E114" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>Call of Duty®: Modern Warfare® 2 (2009)</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C115" s="5" t="n">
+        <v>30561</v>
+      </c>
+      <c r="D115" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E115" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Pseudoregalia</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C116" s="5" t="n">
+        <v>5550</v>
+      </c>
+      <c r="D116" s="6" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>The Case of the Golden Idol</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C117" s="5" t="n">
+        <v>4917</v>
+      </c>
+      <c r="D117" s="6" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>The Past Within</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C118" s="5" t="n">
+        <v>11167</v>
+      </c>
+      <c r="D118" s="6" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E118" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>Counter-Strike</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C119" s="5" t="n">
+        <v>146009</v>
+      </c>
+      <c r="D119" s="6" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E119" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>Easy Red 2</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C120" s="5" t="n">
+        <v>3421</v>
+      </c>
+      <c r="D120" s="6" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E120" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>Sticky Business</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C121" s="5" t="n">
+        <v>2952</v>
+      </c>
+      <c r="D121" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E121" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>Shadows Over Loathing</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>2409</v>
+      </c>
+      <c r="D122" s="6" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E122" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>Ravenfield</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C123" s="5" t="n">
+        <v>61793</v>
+      </c>
+      <c r="D123" s="6" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>Return of the Obra Dinn</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C124" s="5" t="n">
+        <v>21843</v>
+      </c>
+      <c r="D124" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>Counter-Strike: Source</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C125" s="5" t="n">
+        <v>112739</v>
+      </c>
+      <c r="D125" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E125" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>Killing Floor 2</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C126" s="5" t="n">
+        <v>76933</v>
+      </c>
+      <c r="D126" s="6" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="E126" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>Left 4 Dead</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C127" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D127" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E127" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>Blood West</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C128" s="5" t="n">
+        <v>2580</v>
+      </c>
+      <c r="D128" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E128" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>Blood West</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>2580</v>
+      </c>
+      <c r="D129" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E129" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>BlazBlue Entropy Effect</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C130" s="5" t="n">
+        <v>5569</v>
+      </c>
+      <c r="D130" s="6" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="E130" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>Bendy and the Ink Machine</t>
+        </is>
+      </c>
+      <c r="B131" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C131" s="5" t="n">
+        <v>14417</v>
+      </c>
+      <c r="D131" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E131" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>Half-Life</t>
+        </is>
+      </c>
+      <c r="B132" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <v>88089</v>
+      </c>
+      <c r="D132" s="6" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E132" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>Astral Ascent</t>
+        </is>
+      </c>
+      <c r="B133" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C133" s="5" t="n">
+        <v>2480</v>
+      </c>
+      <c r="D133" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E133" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>Ghost Watchers</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C134" s="5" t="n">
+        <v>10684</v>
+      </c>
+      <c r="D134" s="6" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E134" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>Call of Duty® 2</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C135" s="5" t="n">
+        <v>7127</v>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E135" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>Far Cry 3</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C136" s="5" t="n">
+        <v>88148</v>
+      </c>
+      <c r="D136" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E136" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>Cruelty Squad</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C137" s="5" t="n">
+        <v>14048</v>
+      </c>
+      <c r="D137" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E137" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>Verdun</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C138" s="5" t="n">
+        <v>28037</v>
+      </c>
+      <c r="D138" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E138" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>Killer Frequency</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C139" s="5" t="n">
+        <v>1767</v>
+      </c>
+      <c r="D139" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E139" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>Katana ZERO</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C140" s="5" t="n">
+        <v>55250</v>
+      </c>
+      <c r="D140" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E140" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>SHENZHEN I/O</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C141" s="5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="D141" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E141" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>Total Conflict: Resistance</t>
+        </is>
+      </c>
+      <c r="B142" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C142" s="5" t="n">
+        <v>2068</v>
+      </c>
+      <c r="D142" s="6" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E142" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>Alice: Madness Returns</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C143" s="5" t="n">
+        <v>13270</v>
+      </c>
+      <c r="D143" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E143" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>Metro 2033 Redux</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C144" s="5" t="n">
+        <v>69165</v>
+      </c>
+      <c r="D144" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E144" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>Rogue Legacy 2</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C145" s="5" t="n">
+        <v>12706</v>
+      </c>
+      <c r="D145" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E145" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t>Crysis 3 Remastered</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C146" s="5" t="n">
+        <v>3055</v>
+      </c>
+      <c r="D146" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E146" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>The Last Campfire</t>
+        </is>
+      </c>
+      <c r="B147" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C147" s="5" t="n">
+        <v>6222</v>
+      </c>
+      <c r="D147" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E147" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>Half-Life 2: Episode One</t>
+        </is>
+      </c>
+      <c r="B148" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C148" s="5" t="n">
+        <v>23076</v>
+      </c>
+      <c r="D148" s="6" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E148" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>Zero Hour</t>
+        </is>
+      </c>
+      <c r="B149" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C149" s="5" t="n">
+        <v>23658</v>
+      </c>
+      <c r="D149" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E149" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>Call of Duty® 4: Modern Warfare® (2007)</t>
+        </is>
+      </c>
+      <c r="B150" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C150" s="5" t="n">
+        <v>18152</v>
+      </c>
+      <c r="D150" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E150" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>Call of Duty® (2003)</t>
+        </is>
+      </c>
+      <c r="B151" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C151" s="5" t="n">
+        <v>5371</v>
+      </c>
+      <c r="D151" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E151" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="inlineStr">
+        <is>
+          <t>Myst</t>
+        </is>
+      </c>
+      <c r="B152" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C152" s="5" t="n">
+        <v>1122</v>
+      </c>
+      <c r="D152" s="6" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E152" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>Half-Life 2: Episode Two</t>
+        </is>
+      </c>
+      <c r="B153" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C153" s="5" t="n">
+        <v>30616</v>
+      </c>
+      <c r="D153" s="6" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="E153" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="inlineStr">
+        <is>
+          <t>Slipways</t>
+        </is>
+      </c>
+      <c r="B154" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>1868</v>
+      </c>
+      <c r="D154" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E154" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>DOOM 3</t>
+        </is>
+      </c>
+      <c r="B155" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <v>6924</v>
+      </c>
+      <c r="D155" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E155" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="inlineStr">
+        <is>
+          <t>Metro: Last Light Redux</t>
+        </is>
+      </c>
+      <c r="B156" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <v>53041</v>
+      </c>
+      <c r="D156" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E156" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>There Is No Game: Wrong Dimension</t>
+        </is>
+      </c>
+      <c r="B157" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>19137</v>
+      </c>
+      <c r="D157" s="6" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="E157" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="inlineStr">
+        <is>
+          <t>DUSK</t>
+        </is>
+      </c>
+      <c r="B158" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <v>18138</v>
+      </c>
+      <c r="D158" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E158" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>Peggle Deluxe</t>
+        </is>
+      </c>
+      <c r="B159" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C159" s="5" t="n">
+        <v>6010</v>
+      </c>
+      <c r="D159" s="6" t="n">
         <v>4.99</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E159" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="inlineStr">
+        <is>
+          <t>Spelunky 2</t>
+        </is>
+      </c>
+      <c r="B160" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>16387</v>
+      </c>
+      <c r="D160" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E160" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>Underground Blossom</t>
+        </is>
+      </c>
+      <c r="B161" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>4431</v>
+      </c>
+      <c r="D161" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E161" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="inlineStr">
+        <is>
+          <t>Gloomwood</t>
+        </is>
+      </c>
+      <c r="B162" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <v>4223</v>
+      </c>
+      <c r="D162" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E162" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>GoreBox</t>
+        </is>
+      </c>
+      <c r="B163" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C163" s="5" t="n">
+        <v>4586</v>
+      </c>
+      <c r="D163" s="6" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E163" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="inlineStr">
+        <is>
+          <t>Opus Magnum</t>
+        </is>
+      </c>
+      <c r="B164" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <v>4359</v>
+      </c>
+      <c r="D164" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E164" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>Half-Life: Opposing Force</t>
+        </is>
+      </c>
+      <c r="B165" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C165" s="5" t="n">
+        <v>17799</v>
+      </c>
+      <c r="D165" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E165" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="inlineStr">
+        <is>
+          <t>Broforce</t>
+        </is>
+      </c>
+      <c r="B166" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D166" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E166" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>Pony Island</t>
+        </is>
+      </c>
+      <c r="B167" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C167" s="5" t="n">
+        <v>12052</v>
+      </c>
+      <c r="D167" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E167" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="inlineStr">
+        <is>
+          <t>Operation: Tango</t>
+        </is>
+      </c>
+      <c r="B168" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>5436</v>
+      </c>
+      <c r="D168" s="6" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="E168" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>Half-Life: Blue Shift</t>
+        </is>
+      </c>
+      <c r="B169" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>13100</v>
+      </c>
+      <c r="D169" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E169" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="inlineStr">
+        <is>
+          <t>The Room Three</t>
+        </is>
+      </c>
+      <c r="B170" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>10055</v>
+      </c>
+      <c r="D170" s="6" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E170" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>The Room 4: Old Sins</t>
+        </is>
+      </c>
+      <c r="B171" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C171" s="5" t="n">
+        <v>13157</v>
+      </c>
+      <c r="D171" s="6" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="E171" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="inlineStr">
+        <is>
+          <t>DOOM II</t>
+        </is>
+      </c>
+      <c r="B172" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>6990</v>
+      </c>
+      <c r="D172" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E172" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>Tick Tock: A Tale for Two</t>
+        </is>
+      </c>
+      <c r="B173" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C173" s="5" t="n">
+        <v>8169</v>
+      </c>
+      <c r="D173" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E173" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="inlineStr">
+        <is>
+          <t>Besiege</t>
+        </is>
+      </c>
+      <c r="B174" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <v>41805</v>
+      </c>
+      <c r="D174" s="6" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="E174" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>Little Inferno</t>
+        </is>
+      </c>
+      <c r="B175" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C175" s="5" t="n">
+        <v>7432</v>
+      </c>
+      <c r="D175" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E175" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="inlineStr">
+        <is>
+          <t>Mini Metro</t>
+        </is>
+      </c>
+      <c r="B176" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <v>10712</v>
+      </c>
+      <c r="D176" s="6" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E176" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>A Castle Full of Cats</t>
+        </is>
+      </c>
+      <c r="B177" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C177" s="5" t="n">
+        <v>2459</v>
+      </c>
+      <c r="D177" s="6" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E177" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="inlineStr">
+        <is>
+          <t>Tom Clancy's Rainbow Six® Vegas 2</t>
+        </is>
+      </c>
+      <c r="B178" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <v>4516</v>
+      </c>
+      <c r="D178" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E178" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>HYPER DEMON</t>
+        </is>
+      </c>
+      <c r="B179" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C179" s="5" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D179" s="6" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E179" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="inlineStr">
+        <is>
+          <t>My Friendly Neighborhood</t>
+        </is>
+      </c>
+      <c r="B180" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <v>1708</v>
+      </c>
+      <c r="D180" s="6" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E180" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>Tricky Towers</t>
+        </is>
+      </c>
+      <c r="B181" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D181" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E181" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="inlineStr">
+        <is>
+          <t>FAR: Lone Sails</t>
+        </is>
+      </c>
+      <c r="B182" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>15807</v>
+      </c>
+      <c r="D182" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E182" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>Rayman® Origins</t>
+        </is>
+      </c>
+      <c r="B183" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C183" s="5" t="n">
+        <v>3757</v>
+      </c>
+      <c r="D183" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E183" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="inlineStr">
+        <is>
+          <t>Spirit of the North</t>
+        </is>
+      </c>
+      <c r="B184" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C184" s="5" t="n">
+        <v>3186</v>
+      </c>
+      <c r="D184" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E184" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>Bright Memory: Infinite</t>
+        </is>
+      </c>
+      <c r="B185" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C185" s="5" t="n">
+        <v>33096</v>
+      </c>
+      <c r="D185" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E185" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="inlineStr">
+        <is>
+          <t>Day of Defeat</t>
+        </is>
+      </c>
+      <c r="B186" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C186" s="5" t="n">
+        <v>3927</v>
+      </c>
+      <c r="D186" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E186" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>BattleBlock Theater®</t>
+        </is>
+      </c>
+      <c r="B187" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C187" s="5" t="n">
+        <v>52844</v>
+      </c>
+      <c r="D187" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E187" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="inlineStr">
+        <is>
+          <t>Wolfenstein: The Old Blood</t>
+        </is>
+      </c>
+      <c r="B188" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C188" s="5" t="n">
+        <v>13342</v>
+      </c>
+      <c r="D188" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E188" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t>The Entropy Centre</t>
+        </is>
+      </c>
+      <c r="B189" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C189" s="5" t="n">
+        <v>1929</v>
+      </c>
+      <c r="D189" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E189" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="inlineStr">
+        <is>
+          <t>Rising Storm 2: Vietnam</t>
+        </is>
+      </c>
+      <c r="B190" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <v>37332</v>
+      </c>
+      <c r="D190" s="6" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="E190" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>Ion Fury</t>
+        </is>
+      </c>
+      <c r="B191" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <v>5031</v>
+      </c>
+      <c r="D191" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E191" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="inlineStr">
+        <is>
+          <t>Fran Bow</t>
+        </is>
+      </c>
+      <c r="B192" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <v>13617</v>
+      </c>
+      <c r="D192" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E192" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="inlineStr">
+        <is>
+          <t>Prodeus</t>
+        </is>
+      </c>
+      <c r="B193" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>4680</v>
+      </c>
+      <c r="D193" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E193" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="inlineStr">
+        <is>
+          <t>Return to Castle Wolfenstein</t>
+        </is>
+      </c>
+      <c r="B194" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>6468</v>
+      </c>
+      <c r="D194" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E194" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>HYPERCHARGE: Unboxed</t>
+        </is>
+      </c>
+      <c r="B195" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C195" s="5" t="n">
+        <v>3232</v>
+      </c>
+      <c r="D195" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E195" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="inlineStr">
+        <is>
+          <t>Far Cry 3 - Blood Dragon</t>
+        </is>
+      </c>
+      <c r="B196" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>14671</v>
+      </c>
+      <c r="D196" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E196" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>Primal Carnage: Extinction</t>
+        </is>
+      </c>
+      <c r="B197" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C197" s="5" t="n">
+        <v>7148</v>
+      </c>
+      <c r="D197" s="6" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="E197" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="inlineStr">
+        <is>
+          <t>Rusty Lake: Roots</t>
+        </is>
+      </c>
+      <c r="B198" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <v>5788</v>
+      </c>
+      <c r="D198" s="6" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E198" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>F.E.A.R. 2: Project Origin</t>
+        </is>
+      </c>
+      <c r="B199" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C199" s="5" t="n">
+        <v>4065</v>
+      </c>
+      <c r="D199" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E199" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>The Messenger</t>
+        </is>
+      </c>
+      <c r="B200" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <v>7852</v>
+      </c>
+      <c r="D200" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E200" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>Zuma Deluxe</t>
+        </is>
+      </c>
+      <c r="B201" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C201" s="5" t="n">
+        <v>3584</v>
+      </c>
+      <c r="D201" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E201" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="inlineStr">
+        <is>
+          <t>30XX</t>
+        </is>
+      </c>
+      <c r="B202" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C202" s="5" t="n">
+        <v>1802</v>
+      </c>
+      <c r="D202" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E202" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>Sherlock Holmes: Crimes and Punishments</t>
+        </is>
+      </c>
+      <c r="B203" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C203" s="5" t="n">
+        <v>5576</v>
+      </c>
+      <c r="D203" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E203" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="inlineStr">
+        <is>
+          <t>Sonic Adventure 2</t>
+        </is>
+      </c>
+      <c r="B204" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C204" s="5" t="n">
+        <v>15573</v>
+      </c>
+      <c r="D204" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E204" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="inlineStr">
+        <is>
+          <t>S.T.A.L.K.E.R.: Call of Pripyat</t>
+        </is>
+      </c>
+      <c r="B205" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C205" s="5" t="n">
+        <v>20615</v>
+      </c>
+      <c r="D205" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E205" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="inlineStr">
+        <is>
+          <t>Neon Abyss</t>
+        </is>
+      </c>
+      <c r="B206" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C206" s="5" t="n">
+        <v>18097</v>
+      </c>
+      <c r="D206" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E206" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>LIMBO</t>
+        </is>
+      </c>
+      <c r="B207" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C207" s="5" t="n">
+        <v>29815</v>
+      </c>
+      <c r="D207" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E207" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="inlineStr">
+        <is>
+          <t>DOOM 64</t>
+        </is>
+      </c>
+      <c r="B208" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C208" s="5" t="n">
+        <v>5910</v>
+      </c>
+      <c r="D208" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E208" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="inlineStr">
+        <is>
+          <t>Quake II</t>
+        </is>
+      </c>
+      <c r="B209" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C209" s="5" t="n">
+        <v>6331</v>
+      </c>
+      <c r="D209" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E209" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="inlineStr">
+        <is>
+          <t>Prince of Persia®: The Sands of Time</t>
+        </is>
+      </c>
+      <c r="B210" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C210" s="5" t="n">
+        <v>3316</v>
+      </c>
+      <c r="D210" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E210" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>Sonic Mania</t>
+        </is>
+      </c>
+      <c r="B211" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C211" s="5" t="n">
+        <v>19703</v>
+      </c>
+      <c r="D211" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E211" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="inlineStr">
+        <is>
+          <t>CULTIC</t>
+        </is>
+      </c>
+      <c r="B212" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C212" s="5" t="n">
+        <v>4861</v>
+      </c>
+      <c r="D212" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E212" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="inlineStr">
+        <is>
+          <t>Pikuniku</t>
+        </is>
+      </c>
+      <c r="B213" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C213" s="5" t="n">
+        <v>6768</v>
+      </c>
+      <c r="D213" s="6" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="E213" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="inlineStr">
+        <is>
+          <t>Carto</t>
+        </is>
+      </c>
+      <c r="B214" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C214" s="5" t="n">
+        <v>5377</v>
+      </c>
+      <c r="D214" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E214" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="inlineStr">
+        <is>
+          <t>Unravel</t>
+        </is>
+      </c>
+      <c r="B215" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C215" s="5" t="n">
+        <v>3281</v>
+      </c>
+      <c r="D215" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E215" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="inlineStr">
+        <is>
+          <t>Cube Escape Collection</t>
+        </is>
+      </c>
+      <c r="B216" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <v>5261</v>
+      </c>
+      <c r="D216" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E216" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="inlineStr">
+        <is>
+          <t>Unravel</t>
+        </is>
+      </c>
+      <c r="B217" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C217" s="5" t="n">
+        <v>3281</v>
+      </c>
+      <c r="D217" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E217" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="inlineStr">
+        <is>
+          <t>Cube Escape Collection</t>
+        </is>
+      </c>
+      <c r="B218" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C218" s="5" t="n">
+        <v>5261</v>
+      </c>
+      <c r="D218" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E218" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="inlineStr">
+        <is>
+          <t>Poly Bridge 2</t>
+        </is>
+      </c>
+      <c r="B219" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C219" s="5" t="n">
+        <v>6767</v>
+      </c>
+      <c r="D219" s="6" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E219" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="inlineStr">
+        <is>
+          <t>Call of the Sea</t>
+        </is>
+      </c>
+      <c r="B220" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C220" s="5" t="n">
+        <v>2892</v>
+      </c>
+      <c r="D220" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E220" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="inlineStr">
+        <is>
+          <t>Quake Live</t>
+        </is>
+      </c>
+      <c r="B221" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C221" s="5" t="n">
+        <v>3575</v>
+      </c>
+      <c r="D221" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E221" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="inlineStr">
+        <is>
+          <t>Far Cry®</t>
+        </is>
+      </c>
+      <c r="B222" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C222" s="5" t="n">
+        <v>7865</v>
+      </c>
+      <c r="D222" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E222" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="inlineStr">
+        <is>
+          <t>Patrick's Parabox</t>
+        </is>
+      </c>
+      <c r="B223" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C223" s="5" t="n">
+        <v>2810</v>
+      </c>
+      <c r="D223" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E223" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="inlineStr">
+        <is>
+          <t>Weed Shop 3</t>
+        </is>
+      </c>
+      <c r="B224" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C224" s="5" t="n">
+        <v>3307</v>
+      </c>
+      <c r="D224" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E224" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="inlineStr">
+        <is>
+          <t>Sam &amp; Max Save the World</t>
+        </is>
+      </c>
+      <c r="B225" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C225" s="5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D225" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E225" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="inlineStr">
+        <is>
+          <t>Wolfenstein 3D</t>
+        </is>
+      </c>
+      <c r="B226" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C226" s="5" t="n">
+        <v>2971</v>
+      </c>
+      <c r="D226" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E226" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="inlineStr">
+        <is>
+          <t>ISLANDERS</t>
+        </is>
+      </c>
+      <c r="B227" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C227" s="5" t="n">
+        <v>14671</v>
+      </c>
+      <c r="D227" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E227" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="inlineStr">
+        <is>
+          <t>Röki</t>
+        </is>
+      </c>
+      <c r="B228" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C228" s="5" t="n">
+        <v>1858</v>
+      </c>
+      <c r="D228" s="6" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E228" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="inlineStr">
+        <is>
+          <t>Amanda the Adventurer</t>
+        </is>
+      </c>
+      <c r="B229" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C229" s="5" t="n">
+        <v>4095</v>
+      </c>
+      <c r="D229" s="6" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="E229" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="inlineStr">
+        <is>
+          <t>Gorogoa</t>
+        </is>
+      </c>
+      <c r="B230" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C230" s="5" t="n">
+        <v>14469</v>
+      </c>
+      <c r="D230" s="6" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="E230" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="inlineStr">
+        <is>
+          <t>The House of Da Vinci 2</t>
+        </is>
+      </c>
+      <c r="B231" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C231" s="5" t="n">
+        <v>1448</v>
+      </c>
+      <c r="D231" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E231" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="inlineStr">
+        <is>
+          <t>AMID EVIL</t>
+        </is>
+      </c>
+      <c r="B232" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C232" s="5" t="n">
+        <v>5616</v>
+      </c>
+      <c r="D232" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E232" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t>The House of Da Vinci</t>
+        </is>
+      </c>
+      <c r="B233" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C233" s="5" t="n">
+        <v>4796</v>
+      </c>
+      <c r="D233" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E233" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="inlineStr">
+        <is>
+          <t>Blazing Sails</t>
+        </is>
+      </c>
+      <c r="B234" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C234" s="5" t="n">
+        <v>6439</v>
+      </c>
+      <c r="D234" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E234" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="inlineStr">
+        <is>
+          <t>Sonic Generations Collection</t>
+        </is>
+      </c>
+      <c r="B235" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C235" s="5" t="n">
+        <v>17952</v>
+      </c>
+      <c r="D235" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E235" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="inlineStr">
+        <is>
+          <t>Peggle™ Nights</t>
+        </is>
+      </c>
+      <c r="B236" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C236" s="5" t="n">
+        <v>1602</v>
+      </c>
+      <c r="D236" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E236" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="inlineStr">
+        <is>
+          <t>Rusty Lake Paradise</t>
+        </is>
+      </c>
+      <c r="B237" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C237" s="5" t="n">
+        <v>4141</v>
+      </c>
+      <c r="D237" s="6" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E237" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="inlineStr">
+        <is>
+          <t>LEGO® Builder's Journey</t>
+        </is>
+      </c>
+      <c r="B238" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C238" s="5" t="n">
+        <v>3087</v>
+      </c>
+      <c r="D238" s="6" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="E238" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="inlineStr">
+        <is>
+          <t>Machinarium</t>
+        </is>
+      </c>
+      <c r="B239" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C239" s="5" t="n">
+        <v>11155</v>
+      </c>
+      <c r="D239" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E239" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="inlineStr">
+        <is>
+          <t>Death and Taxes</t>
+        </is>
+      </c>
+      <c r="B240" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <v>4534</v>
+      </c>
+      <c r="D240" s="6" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E240" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="inlineStr">
+        <is>
+          <t>Cats Hidden in Italy</t>
+        </is>
+      </c>
+      <c r="B241" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <v>1171</v>
+      </c>
+      <c r="D241" s="6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E241" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="inlineStr">
+        <is>
+          <t>Prison Simulator</t>
+        </is>
+      </c>
+      <c r="B242" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D242" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E242" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="inlineStr">
+        <is>
+          <t>Dude, Stop</t>
+        </is>
+      </c>
+      <c r="B243" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <v>1916</v>
+      </c>
+      <c r="D243" s="6" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="E243" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="inlineStr">
+        <is>
+          <t>Duke Nukem 3D: 20th Anniversary World Tour</t>
+        </is>
+      </c>
+      <c r="B244" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>3783</v>
+      </c>
+      <c r="D244" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E244" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="inlineStr">
+        <is>
+          <t>Bejeweled® 3</t>
+        </is>
+      </c>
+      <c r="B245" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C245" s="5" t="n">
+        <v>4296</v>
+      </c>
+      <c r="D245" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E245" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="inlineStr">
+        <is>
+          <t>Medal of Honor™</t>
+        </is>
+      </c>
+      <c r="B246" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>5037</v>
+      </c>
+      <c r="D246" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E246" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="inlineStr">
+        <is>
+          <t>Spark the Electric Jester 3</t>
+        </is>
+      </c>
+      <c r="B247" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <v>1367</v>
+      </c>
+      <c r="D247" s="6" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="E247" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="inlineStr">
+        <is>
+          <t>Little Witch in the Woods</t>
+        </is>
+      </c>
+      <c r="B248" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>5909</v>
+      </c>
+      <c r="D248" s="6" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="E248" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="inlineStr">
+        <is>
+          <t>Tinykin</t>
+        </is>
+      </c>
+      <c r="B249" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D249" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E249" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="inlineStr">
+        <is>
+          <t>Severed Steel</t>
+        </is>
+      </c>
+      <c r="B250" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>3077</v>
+      </c>
+      <c r="D250" s="6" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="E250" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>Birth</t>
+        </is>
+      </c>
+      <c r="B251" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C251" s="5" t="n">
+        <v>1679</v>
+      </c>
+      <c r="D251" s="6" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E251" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="inlineStr">
+        <is>
+          <t>Trine Enchanted Edition</t>
+        </is>
+      </c>
+      <c r="B252" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>11646</v>
+      </c>
+      <c r="D252" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E252" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="inlineStr">
+        <is>
+          <t>Quake</t>
+        </is>
+      </c>
+      <c r="B253" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>10967</v>
+      </c>
+      <c r="D253" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E253" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="inlineStr">
+        <is>
+          <t>I'm on Observation Duty</t>
+        </is>
+      </c>
+      <c r="B254" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D254" s="6" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E254" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="inlineStr">
+        <is>
+          <t>ATOM RPG: Post-apocalyptic indie game</t>
+        </is>
+      </c>
+      <c r="B255" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C255" s="5" t="n">
+        <v>8576</v>
+      </c>
+      <c r="D255" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E255" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="inlineStr">
+        <is>
+          <t>Rusty Lake Hotel</t>
+        </is>
+      </c>
+      <c r="B256" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>4786</v>
+      </c>
+      <c r="D256" s="6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E256" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="inlineStr">
+        <is>
+          <t>Trine 2: Complete Story</t>
+        </is>
+      </c>
+      <c r="B257" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <v>14558</v>
+      </c>
+      <c r="D257" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E257" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="inlineStr">
+        <is>
+          <t>Lunistice</t>
+        </is>
+      </c>
+      <c r="B258" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>1184</v>
+      </c>
+      <c r="D258" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E258" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="inlineStr">
+        <is>
+          <t>Smile For Me</t>
+        </is>
+      </c>
+      <c r="B259" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <v>1681</v>
+      </c>
+      <c r="D259" s="6" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="E259" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3" t="inlineStr">
+        <is>
+          <t>The White Door</t>
+        </is>
+      </c>
+      <c r="B260" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>5025</v>
+      </c>
+      <c r="D260" s="6" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E260" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="inlineStr">
+        <is>
+          <t>STAR WARS™ Battlefront (Classic, 2004)</t>
+        </is>
+      </c>
+      <c r="B261" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <v>3463</v>
+      </c>
+      <c r="D261" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E261" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="inlineStr">
+        <is>
+          <t>BPM: BULLETS PER MINUTE</t>
+        </is>
+      </c>
+      <c r="B262" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>8765</v>
+      </c>
+      <c r="D262" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E262" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="inlineStr">
+        <is>
+          <t>GRIME</t>
+        </is>
+      </c>
+      <c r="B263" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <v>3317</v>
+      </c>
+      <c r="D263" s="6" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="E263" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="inlineStr">
+        <is>
+          <t>The Pedestrian</t>
+        </is>
+      </c>
+      <c r="B264" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>3593</v>
+      </c>
+      <c r="D264" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E264" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="inlineStr">
+        <is>
+          <t>Void Bastards</t>
+        </is>
+      </c>
+      <c r="B265" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <v>3573</v>
+      </c>
+      <c r="D265" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E265" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3" t="inlineStr">
+        <is>
+          <t>Train Valley 2</t>
+        </is>
+      </c>
+      <c r="B266" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D266" s="6" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E266" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="inlineStr">
+        <is>
+          <t>Antichamber</t>
+        </is>
+      </c>
+      <c r="B267" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <v>12371</v>
+      </c>
+      <c r="D267" s="6" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="E267" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3" t="inlineStr">
+        <is>
+          <t>Monkey Island™ 2 Special Edition: LeChuck’s Revenge™</t>
+        </is>
+      </c>
+      <c r="B268" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>2229</v>
+      </c>
+      <c r="D268" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E268" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="inlineStr">
+        <is>
+          <t>The Room</t>
+        </is>
+      </c>
+      <c r="B269" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <v>24515</v>
+      </c>
+      <c r="D269" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E269" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="inlineStr">
+        <is>
+          <t>Amnesia: The Dark Descent</t>
+        </is>
+      </c>
+      <c r="B270" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <v>17477</v>
+      </c>
+      <c r="D270" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E270" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="inlineStr">
+        <is>
+          <t>The Room</t>
+        </is>
+      </c>
+      <c r="B271" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <v>24515</v>
+      </c>
+      <c r="D271" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E271" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="3" t="inlineStr">
+        <is>
+          <t>Amnesia: The Dark Descent</t>
+        </is>
+      </c>
+      <c r="B272" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>17477</v>
+      </c>
+      <c r="D272" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E272" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="inlineStr">
+        <is>
+          <t>Scribblenauts Unlimited</t>
+        </is>
+      </c>
+      <c r="B273" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <v>7058</v>
+      </c>
+      <c r="D273" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E273" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="inlineStr">
+        <is>
+          <t>Kindergarten 2</t>
+        </is>
+      </c>
+      <c r="B274" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>3764</v>
+      </c>
+      <c r="D274" s="6" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E274" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="inlineStr">
+        <is>
+          <t>Monument Valley: Panoramic Edition</t>
+        </is>
+      </c>
+      <c r="B275" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C275" s="5" t="n">
+        <v>2526</v>
+      </c>
+      <c r="D275" s="6" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E275" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="inlineStr">
+        <is>
+          <t>Sundered®: Eldritch Edition</t>
+        </is>
+      </c>
+      <c r="B276" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>3583</v>
+      </c>
+      <c r="D276" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E276" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="inlineStr">
+        <is>
+          <t>Hidden Folks</t>
+        </is>
+      </c>
+      <c r="B277" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <v>7065</v>
+      </c>
+      <c r="D277" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E277" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="3" t="inlineStr">
+        <is>
+          <t>Shadow Warrior 2</t>
+        </is>
+      </c>
+      <c r="B278" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>21766</v>
+      </c>
+      <c r="D278" s="6" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E278" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="inlineStr">
+        <is>
+          <t>Forgive Me Father</t>
+        </is>
+      </c>
+      <c r="B279" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <v>1911</v>
+      </c>
+      <c r="D279" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E279" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="inlineStr">
+        <is>
+          <t>Creaks</t>
+        </is>
+      </c>
+      <c r="B280" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>3175</v>
+      </c>
+      <c r="D280" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E280" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="3" t="inlineStr">
+        <is>
+          <t>Aliens vs. Predator™</t>
+        </is>
+      </c>
+      <c r="B281" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <v>13053</v>
+      </c>
+      <c r="D281" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E281" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3" t="inlineStr">
+        <is>
+          <t>EXAPUNKS</t>
+        </is>
+      </c>
+      <c r="B282" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <v>1164</v>
+      </c>
+      <c r="D282" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E282" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="inlineStr">
+        <is>
+          <t>Orb of Creation</t>
+        </is>
+      </c>
+      <c r="B283" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C283" s="5" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D283" s="6" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E283" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3" t="inlineStr">
+        <is>
+          <t>HROT</t>
+        </is>
+      </c>
+      <c r="B284" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C284" s="5" t="n">
+        <v>3652</v>
+      </c>
+      <c r="D284" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E284" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="inlineStr">
+        <is>
+          <t>Killing Floor</t>
+        </is>
+      </c>
+      <c r="B285" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C285" s="5" t="n">
+        <v>36712</v>
+      </c>
+      <c r="D285" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E285" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="inlineStr">
+        <is>
+          <t>STAR WARS™ Republic Commando™</t>
+        </is>
+      </c>
+      <c r="B286" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C286" s="5" t="n">
+        <v>12524</v>
+      </c>
+      <c r="D286" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E286" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="inlineStr">
+        <is>
+          <t>Sherlock Holmes: The Devil's Daughter</t>
+        </is>
+      </c>
+      <c r="B287" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C287" s="5" t="n">
+        <v>10694</v>
+      </c>
+      <c r="D287" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E287" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="inlineStr">
+        <is>
+          <t>FEZ</t>
+        </is>
+      </c>
+      <c r="B288" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C288" s="5" t="n">
+        <v>9968</v>
+      </c>
+      <c r="D288" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E288" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3" t="inlineStr">
+        <is>
+          <t>Deus Ex: Human Revolution - Director's Cut</t>
+        </is>
+      </c>
+      <c r="B289" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C289" s="5" t="n">
+        <v>22345</v>
+      </c>
+      <c r="D289" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E289" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3" t="inlineStr">
+        <is>
+          <t>The Painscreek Killings</t>
+        </is>
+      </c>
+      <c r="B290" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C290" s="5" t="n">
+        <v>3454</v>
+      </c>
+      <c r="D290" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E290" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3" t="inlineStr">
+        <is>
+          <t>The Room Two</t>
+        </is>
+      </c>
+      <c r="B291" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C291" s="5" t="n">
+        <v>16991</v>
+      </c>
+      <c r="D291" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E291" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3" t="inlineStr">
+        <is>
+          <t>Changed</t>
+        </is>
+      </c>
+      <c r="B292" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C292" s="5" t="n">
+        <v>12559</v>
+      </c>
+      <c r="D292" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E292" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3" t="inlineStr">
+        <is>
+          <t>Quake 4</t>
+        </is>
+      </c>
+      <c r="B293" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C293" s="5" t="n">
+        <v>2295</v>
+      </c>
+      <c r="D293" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E293" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3" t="inlineStr">
+        <is>
+          <t>Day of Defeat: Source</t>
+        </is>
+      </c>
+      <c r="B294" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C294" s="5" t="n">
+        <v>14049</v>
+      </c>
+      <c r="D294" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E294" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="inlineStr">
+        <is>
+          <t>Environmental Station Alpha</t>
+        </is>
+      </c>
+      <c r="B295" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C295" s="5" t="n">
+        <v>1101</v>
+      </c>
+      <c r="D295" s="6" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E295" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3" t="inlineStr">
+        <is>
+          <t>Mark of the Ninja: Remastered</t>
+        </is>
+      </c>
+      <c r="B296" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C296" s="5" t="n">
+        <v>5050</v>
+      </c>
+      <c r="D296" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E296" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="inlineStr">
+        <is>
+          <t>Glass Masquerade</t>
+        </is>
+      </c>
+      <c r="B297" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C297" s="5" t="n">
+        <v>4802</v>
+      </c>
+      <c r="D297" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E297" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3" t="inlineStr">
+        <is>
+          <t>Mark of the Ninja: Remastered</t>
+        </is>
+      </c>
+      <c r="B298" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C298" s="5" t="n">
+        <v>5050</v>
+      </c>
+      <c r="D298" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E298" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="inlineStr">
+        <is>
+          <t>Glass Masquerade</t>
+        </is>
+      </c>
+      <c r="B299" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C299" s="5" t="n">
+        <v>4802</v>
+      </c>
+      <c r="D299" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E299" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3" t="inlineStr">
+        <is>
+          <t>Pictopix</t>
+        </is>
+      </c>
+      <c r="B300" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C300" s="5" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D300" s="6" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E300" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="inlineStr">
+        <is>
+          <t>Hexcells Infinite</t>
+        </is>
+      </c>
+      <c r="B301" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C301" s="5" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D301" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E301" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3" t="inlineStr">
+        <is>
+          <t>Zup! S</t>
+        </is>
+      </c>
+      <c r="B302" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C302" s="5" t="n">
+        <v>12415</v>
+      </c>
+      <c r="D302" s="6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E302" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="inlineStr">
+        <is>
+          <t>Monument Valley 2: Panoramic Edition</t>
+        </is>
+      </c>
+      <c r="B303" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C303" s="5" t="n">
+        <v>1125</v>
+      </c>
+      <c r="D303" s="6" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E303" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="inlineStr">
+        <is>
+          <t>Pogostuck: Rage With Your Friends</t>
+        </is>
+      </c>
+      <c r="B304" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C304" s="5" t="n">
+        <v>4881</v>
+      </c>
+      <c r="D304" s="6" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E304" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="inlineStr">
+        <is>
+          <t>Donut County</t>
+        </is>
+      </c>
+      <c r="B305" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C305" s="5" t="n">
+        <v>7822</v>
+      </c>
+      <c r="D305" s="6" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E305" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3" t="inlineStr">
+        <is>
+          <t>Midnight Ghost Hunt</t>
+        </is>
+      </c>
+      <c r="B306" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C306" s="5" t="n">
+        <v>4657</v>
+      </c>
+      <c r="D306" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E306" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3" t="inlineStr">
+        <is>
+          <t>Axiom Verge</t>
+        </is>
+      </c>
+      <c r="B307" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C307" s="5" t="n">
+        <v>4843</v>
+      </c>
+      <c r="D307" s="6" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="E307" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="inlineStr">
+        <is>
+          <t>Unheard - Voices of Crime</t>
+        </is>
+      </c>
+      <c r="B308" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C308" s="5" t="n">
+        <v>26548</v>
+      </c>
+      <c r="D308" s="6" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E308" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3" t="inlineStr">
+        <is>
+          <t>Psychonauts</t>
+        </is>
+      </c>
+      <c r="B309" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C309" s="5" t="n">
+        <v>10055</v>
+      </c>
+      <c r="D309" s="6" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E309" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="inlineStr">
+        <is>
+          <t>Borderlands Game of the Year Enhanced</t>
+        </is>
+      </c>
+      <c r="B310" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C310" s="5" t="n">
+        <v>11597</v>
+      </c>
+      <c r="D310" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E310" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="inlineStr">
+        <is>
+          <t>Northern Journey</t>
+        </is>
+      </c>
+      <c r="B311" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C311" s="5" t="n">
+        <v>2072</v>
+      </c>
+      <c r="D311" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E311" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="inlineStr">
+        <is>
+          <t>Supraland Six Inches Under</t>
+        </is>
+      </c>
+      <c r="B312" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C312" s="5" t="n">
+        <v>2472</v>
+      </c>
+      <c r="D312" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E312" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="inlineStr">
+        <is>
+          <t>Intruder</t>
+        </is>
+      </c>
+      <c r="B313" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C313" s="5" t="n">
+        <v>4622</v>
+      </c>
+      <c r="D313" s="6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="E313" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="inlineStr">
+        <is>
+          <t>SuchArt: Genius Artist Simulator</t>
+        </is>
+      </c>
+      <c r="B314" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C314" s="5" t="n">
+        <v>3269</v>
+      </c>
+      <c r="D314" s="6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E314" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="inlineStr">
+        <is>
+          <t>Prince of Persia: Warrior Within™</t>
+        </is>
+      </c>
+      <c r="B315" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C315" s="5" t="n">
+        <v>2605</v>
+      </c>
+      <c r="D315" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E315" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="inlineStr">
+        <is>
+          <t>Just Go</t>
+        </is>
+      </c>
+      <c r="B316" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C316" s="5" t="n">
+        <v>2191</v>
+      </c>
+      <c r="D316" s="6" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E316" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="inlineStr">
+        <is>
+          <t>realMyst: Masterpiece Edition</t>
+        </is>
+      </c>
+      <c r="B317" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C317" s="5" t="n">
+        <v>1247</v>
+      </c>
+      <c r="D317" s="6" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="E317" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="inlineStr">
+        <is>
+          <t>Welcome to the Game</t>
+        </is>
+      </c>
+      <c r="B318" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C318" s="5" t="n">
+        <v>2110</v>
+      </c>
+      <c r="D318" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E318" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="inlineStr">
+        <is>
+          <t>Infinifactory</t>
+        </is>
+      </c>
+      <c r="B319" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C319" s="5" t="n">
+        <v>1678</v>
+      </c>
+      <c r="D319" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E319" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="inlineStr">
+        <is>
+          <t>The Excavation of Hob's Barrow</t>
+        </is>
+      </c>
+      <c r="B320" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C320" s="5" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D320" s="6" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E320" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="inlineStr">
+        <is>
+          <t>Cyber Manhunt</t>
+        </is>
+      </c>
+      <c r="B321" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C321" s="5" t="n">
+        <v>12218</v>
+      </c>
+      <c r="D321" s="6" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E321" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="inlineStr">
+        <is>
+          <t>7 Billion Humans</t>
+        </is>
+      </c>
+      <c r="B322" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C322" s="5" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D322" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E322" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="inlineStr">
+        <is>
+          <t>F.I.S.T.: Forged In Shadow Torch</t>
+        </is>
+      </c>
+      <c r="B323" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C323" s="5" t="n">
+        <v>5355</v>
+      </c>
+      <c r="D323" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E323" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="inlineStr">
+        <is>
+          <t>Human Resource Machine</t>
+        </is>
+      </c>
+      <c r="B324" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C324" s="5" t="n">
+        <v>2755</v>
+      </c>
+      <c r="D324" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E324" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="inlineStr">
+        <is>
+          <t>Thimbleweed Park™</t>
+        </is>
+      </c>
+      <c r="B325" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C325" s="5" t="n">
+        <v>3121</v>
+      </c>
+      <c r="D325" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E325" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="inlineStr">
+        <is>
+          <t>Tomb Raider I (1996)</t>
+        </is>
+      </c>
+      <c r="B326" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C326" s="5" t="n">
+        <v>3805</v>
+      </c>
+      <c r="D326" s="6" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E326" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="inlineStr">
+        <is>
+          <t>Sonic Adventure DX</t>
+        </is>
+      </c>
+      <c r="B327" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C327" s="5" t="n">
+        <v>11241</v>
+      </c>
+      <c r="D327" s="6" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E327" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="3" t="inlineStr">
+        <is>
+          <t>Kindergarten</t>
+        </is>
+      </c>
+      <c r="B328" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C328" s="5" t="n">
+        <v>6863</v>
+      </c>
+      <c r="D328" s="6" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E328" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="3" t="inlineStr">
+        <is>
+          <t>Call of Duty Warchest</t>
+        </is>
+      </c>
+      <c r="B329" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C329" s="5" t="n">
+        <v>14177</v>
+      </c>
+      <c r="D329" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E329" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="3" t="inlineStr">
+        <is>
+          <t>Legend of Grimrock 2</t>
+        </is>
+      </c>
+      <c r="B330" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C330" s="5" t="n">
+        <v>2613</v>
+      </c>
+      <c r="D330" s="6" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="E330" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="inlineStr">
+        <is>
+          <t>Sanctum 2</t>
+        </is>
+      </c>
+      <c r="B331" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C331" s="5" t="n">
+        <v>7208</v>
+      </c>
+      <c r="D331" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E331" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="B332" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C332" s="5" t="n">
+        <v>2476</v>
+      </c>
+      <c r="D332" s="6" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="E332" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="3" t="inlineStr">
+        <is>
+          <t>Shift Happens</t>
+        </is>
+      </c>
+      <c r="B333" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C333" s="5" t="n">
+        <v>2410</v>
+      </c>
+      <c r="D333" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E333" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="3" t="inlineStr">
+        <is>
+          <t>Braid</t>
+        </is>
+      </c>
+      <c r="B334" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C334" s="5" t="n">
+        <v>6405</v>
+      </c>
+      <c r="D334" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E334" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="3" t="inlineStr">
+        <is>
+          <t>Hyperbolica</t>
+        </is>
+      </c>
+      <c r="B335" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C335" s="5" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D335" s="6" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="E335" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="3" t="inlineStr">
+        <is>
+          <t>Turok</t>
+        </is>
+      </c>
+      <c r="B336" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C336" s="5" t="n">
+        <v>2636</v>
+      </c>
+      <c r="D336" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E336" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="3" t="inlineStr">
+        <is>
+          <t>S.T.A.L.K.E.R.: Clear Sky</t>
+        </is>
+      </c>
+      <c r="B337" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C337" s="5" t="n">
+        <v>14149</v>
+      </c>
+      <c r="D337" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E337" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="3" t="inlineStr">
+        <is>
+          <t>ibb &amp; obb</t>
+        </is>
+      </c>
+      <c r="B338" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C338" s="5" t="n">
+        <v>3632</v>
+      </c>
+      <c r="D338" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E338" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="3" t="inlineStr">
+        <is>
+          <t>Serious Sam 3: BFE</t>
+        </is>
+      </c>
+      <c r="B339" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C339" s="5" t="n">
+        <v>19955</v>
+      </c>
+      <c r="D339" s="6" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E339" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="3" t="inlineStr">
+        <is>
+          <t>Cats Organized Neatly</t>
+        </is>
+      </c>
+      <c r="B340" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C340" s="5" t="n">
+        <v>3223</v>
+      </c>
+      <c r="D340" s="6" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E340" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="3" t="inlineStr">
+        <is>
+          <t>Tomb Raider II (1997)</t>
+        </is>
+      </c>
+      <c r="B341" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C341" s="5" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D341" s="6" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E341" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3" t="inlineStr">
+        <is>
+          <t>Quern - Undying Thoughts</t>
+        </is>
+      </c>
+      <c r="B342" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C342" s="5" t="n">
+        <v>2982</v>
+      </c>
+      <c r="D342" s="6" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="E342" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3" t="inlineStr">
+        <is>
+          <t>Blood™ Fresh Supply</t>
+        </is>
+      </c>
+      <c r="B343" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C343" s="5" t="n">
+        <v>5130</v>
+      </c>
+      <c r="D343" s="6" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E343" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="inlineStr">
+        <is>
+          <t>Ziggurat 2</t>
+        </is>
+      </c>
+      <c r="B344" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C344" s="5" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D344" s="6" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E344" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3" t="inlineStr">
+        <is>
+          <t>while True: learn()</t>
+        </is>
+      </c>
+      <c r="B345" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C345" s="5" t="n">
+        <v>5888</v>
+      </c>
+      <c r="D345" s="6" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E345" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3" t="inlineStr">
+        <is>
+          <t>Spelunky</t>
+        </is>
+      </c>
+      <c r="B346" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C346" s="5" t="n">
+        <v>13832</v>
+      </c>
+      <c r="D346" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E346" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3" t="inlineStr">
+        <is>
+          <t>TOEM</t>
+        </is>
+      </c>
+      <c r="B347" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C347" s="5" t="n">
+        <v>3447</v>
+      </c>
+      <c r="D347" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E347" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3" t="inlineStr">
+        <is>
+          <t>STAR WARS™ Jedi Knight II - Jedi Outcast™</t>
+        </is>
+      </c>
+      <c r="B348" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C348" s="5" t="n">
+        <v>3574</v>
+      </c>
+      <c r="D348" s="6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E348" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3" t="inlineStr">
+        <is>
+          <t>It Steals</t>
+        </is>
+      </c>
+      <c r="B349" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C349" s="5" t="n">
+        <v>1296</v>
+      </c>
+      <c r="D349" s="6" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E349" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3" t="inlineStr">
+        <is>
+          <t>Timespinner</t>
+        </is>
+      </c>
+      <c r="B350" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C350" s="5" t="n">
+        <v>2244</v>
+      </c>
+      <c r="D350" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E350" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3" t="inlineStr">
+        <is>
+          <t>Zompiercer</t>
+        </is>
+      </c>
+      <c r="B351" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C351" s="5" t="n">
+        <v>1394</v>
+      </c>
+      <c r="D351" s="6" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="E351" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3" t="inlineStr">
+        <is>
+          <t>Never Alone (Kisima Ingitchuna)</t>
+        </is>
+      </c>
+      <c r="B352" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C352" s="5" t="n">
+        <v>5422</v>
+      </c>
+      <c r="D352" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E352" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="inlineStr">
+        <is>
+          <t>Blood and Bacon</t>
+        </is>
+      </c>
+      <c r="B353" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C353" s="5" t="n">
+        <v>24722</v>
+      </c>
+      <c r="D353" s="6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E353" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="inlineStr">
+        <is>
+          <t>The Sexy Brutale</t>
+        </is>
+      </c>
+      <c r="B354" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C354" s="5" t="n">
+        <v>2312</v>
+      </c>
+      <c r="D354" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E354" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="3" t="inlineStr">
+        <is>
+          <t>Tom Clancy's Ghost Recon®</t>
+        </is>
+      </c>
+      <c r="B355" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C355" s="5" t="n">
+        <v>1206</v>
+      </c>
+      <c r="D355" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E355" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="inlineStr">
+        <is>
+          <t>Syberia</t>
+        </is>
+      </c>
+      <c r="B356" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C356" s="5" t="n">
+        <v>3231</v>
+      </c>
+      <c r="D356" s="6" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="E356" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="3" t="inlineStr">
+        <is>
+          <t>Hob</t>
+        </is>
+      </c>
+      <c r="B357" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C357" s="5" t="n">
+        <v>4077</v>
+      </c>
+      <c r="D357" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E357" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="3" t="inlineStr">
+        <is>
+          <t>Receiver 2</t>
+        </is>
+      </c>
+      <c r="B358" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C358" s="5" t="n">
+        <v>2264</v>
+      </c>
+      <c r="D358" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E358" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="inlineStr">
+        <is>
+          <t>World of Goo</t>
+        </is>
+      </c>
+      <c r="B359" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C359" s="5" t="n">
+        <v>4016</v>
+      </c>
+      <c r="D359" s="6" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E359" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="3" t="inlineStr">
+        <is>
+          <t>Brothers in Arms: Hell's Highway™</t>
+        </is>
+      </c>
+      <c r="B360" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C360" s="5" t="n">
+        <v>1755</v>
+      </c>
+      <c r="D360" s="6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E360" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="3" t="inlineStr">
+        <is>
+          <t>TIS-100</t>
+        </is>
+      </c>
+      <c r="B361" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C361" s="5" t="n">
+        <v>3012</v>
+      </c>
+      <c r="D361" s="6" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E361" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="3" t="inlineStr">
+        <is>
+          <t>Haydee 2</t>
+        </is>
+      </c>
+      <c r="B362" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C362" s="5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D362" s="6" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="E362" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="3" t="inlineStr">
+        <is>
+          <t>Dustforce DX</t>
+        </is>
+      </c>
+      <c r="B363" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C363" s="5" t="n">
+        <v>1127</v>
+      </c>
+      <c r="D363" s="6" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E363" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="inlineStr">
+        <is>
+          <t>Turok 2: Seeds of Evil</t>
+        </is>
+      </c>
+      <c r="B364" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C364" s="5" t="n">
+        <v>1897</v>
+      </c>
+      <c r="D364" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E364" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="inlineStr">
+        <is>
+          <t>Owlboy</t>
+        </is>
+      </c>
+      <c r="B365" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C365" s="5" t="n">
+        <v>3289</v>
+      </c>
+      <c r="D365" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E365" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="3" t="inlineStr">
+        <is>
+          <t>Tormented Souls</t>
+        </is>
+      </c>
+      <c r="B366" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C366" s="5" t="n">
+        <v>3379</v>
+      </c>
+      <c r="D366" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E366" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="3" t="inlineStr">
+        <is>
+          <t>Brothers - A Tale of Two Sons</t>
+        </is>
+      </c>
+      <c r="B367" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C367" s="5" t="n">
+        <v>33188</v>
+      </c>
+      <c r="D367" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E367" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="3" t="inlineStr">
+        <is>
+          <t>GTTOD: Get To The Orange Door</t>
+        </is>
+      </c>
+      <c r="B368" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C368" s="5" t="n">
+        <v>2796</v>
+      </c>
+      <c r="D368" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E368" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="3" t="inlineStr">
+        <is>
+          <t>The Unfinished Swan</t>
+        </is>
+      </c>
+      <c r="B369" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C369" s="5" t="n">
+        <v>1289</v>
+      </c>
+      <c r="D369" s="6" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="E369" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="3" t="inlineStr">
+        <is>
+          <t>Wolfenstein: The Two Pack</t>
+        </is>
+      </c>
+      <c r="B370" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C370" s="5" t="n">
+        <v>50539</v>
+      </c>
+      <c r="D370" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E370" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="3" t="inlineStr">
+        <is>
+          <t>Nightmare Reaper</t>
+        </is>
+      </c>
+      <c r="B371" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C371" s="5" t="n">
+        <v>2934</v>
+      </c>
+      <c r="D371" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E371" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="3" t="inlineStr">
+        <is>
+          <t>Wolfenstein: The Two Pack</t>
+        </is>
+      </c>
+      <c r="B372" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C372" s="5" t="n">
+        <v>50539</v>
+      </c>
+      <c r="D372" s="6" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="E372" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="3" t="inlineStr">
+        <is>
+          <t>Nightmare Reaper</t>
+        </is>
+      </c>
+      <c r="B373" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C373" s="5" t="n">
+        <v>2934</v>
+      </c>
+      <c r="D373" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E373" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="3" t="inlineStr">
+        <is>
+          <t>TowerFall Ascension</t>
+        </is>
+      </c>
+      <c r="B374" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C374" s="5" t="n">
+        <v>2604</v>
+      </c>
+      <c r="D374" s="6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="E374" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="3" t="inlineStr">
+        <is>
+          <t>Chaos on Deponia</t>
+        </is>
+      </c>
+      <c r="B375" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C375" s="5" t="n">
+        <v>2043</v>
+      </c>
+      <c r="D375" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E375" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="3" t="inlineStr">
+        <is>
+          <t>Aimbeast</t>
+        </is>
+      </c>
+      <c r="B376" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C376" s="5" t="n">
+        <v>1599</v>
+      </c>
+      <c r="D376" s="6" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E376" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="3" t="inlineStr">
+        <is>
+          <t>Zuma's Revenge!</t>
+        </is>
+      </c>
+      <c r="B377" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C377" s="5" t="n">
+        <v>1849</v>
+      </c>
+      <c r="D377" s="6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E377" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="3" t="inlineStr">
+        <is>
+          <t>Serious Sam Fusion 2017 (beta)</t>
+        </is>
+      </c>
+      <c r="B378" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C378" s="5" t="n">
+        <v>3584</v>
+      </c>
+      <c r="D378" s="6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E378" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -779,6 +7657,368 @@
     <hyperlink ref="A14" r:id="rId13"/>
     <hyperlink ref="A15" r:id="rId14"/>
     <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
+    <hyperlink ref="A132" r:id="rId131"/>
+    <hyperlink ref="A133" r:id="rId132"/>
+    <hyperlink ref="A134" r:id="rId133"/>
+    <hyperlink ref="A135" r:id="rId134"/>
+    <hyperlink ref="A136" r:id="rId135"/>
+    <hyperlink ref="A137" r:id="rId136"/>
+    <hyperlink ref="A138" r:id="rId137"/>
+    <hyperlink ref="A139" r:id="rId138"/>
+    <hyperlink ref="A140" r:id="rId139"/>
+    <hyperlink ref="A141" r:id="rId140"/>
+    <hyperlink ref="A142" r:id="rId141"/>
+    <hyperlink ref="A143" r:id="rId142"/>
+    <hyperlink ref="A144" r:id="rId143"/>
+    <hyperlink ref="A145" r:id="rId144"/>
+    <hyperlink ref="A146" r:id="rId145"/>
+    <hyperlink ref="A147" r:id="rId146"/>
+    <hyperlink ref="A148" r:id="rId147"/>
+    <hyperlink ref="A149" r:id="rId148"/>
+    <hyperlink ref="A150" r:id="rId149"/>
+    <hyperlink ref="A151" r:id="rId150"/>
+    <hyperlink ref="A152" r:id="rId151"/>
+    <hyperlink ref="A153" r:id="rId152"/>
+    <hyperlink ref="A154" r:id="rId153"/>
+    <hyperlink ref="A155" r:id="rId154"/>
+    <hyperlink ref="A156" r:id="rId155"/>
+    <hyperlink ref="A157" r:id="rId156"/>
+    <hyperlink ref="A158" r:id="rId157"/>
+    <hyperlink ref="A159" r:id="rId158"/>
+    <hyperlink ref="A160" r:id="rId159"/>
+    <hyperlink ref="A161" r:id="rId160"/>
+    <hyperlink ref="A162" r:id="rId161"/>
+    <hyperlink ref="A163" r:id="rId162"/>
+    <hyperlink ref="A164" r:id="rId163"/>
+    <hyperlink ref="A165" r:id="rId164"/>
+    <hyperlink ref="A166" r:id="rId165"/>
+    <hyperlink ref="A167" r:id="rId166"/>
+    <hyperlink ref="A168" r:id="rId167"/>
+    <hyperlink ref="A169" r:id="rId168"/>
+    <hyperlink ref="A170" r:id="rId169"/>
+    <hyperlink ref="A171" r:id="rId170"/>
+    <hyperlink ref="A172" r:id="rId171"/>
+    <hyperlink ref="A173" r:id="rId172"/>
+    <hyperlink ref="A174" r:id="rId173"/>
+    <hyperlink ref="A175" r:id="rId174"/>
+    <hyperlink ref="A176" r:id="rId175"/>
+    <hyperlink ref="A177" r:id="rId176"/>
+    <hyperlink ref="A178" r:id="rId177"/>
+    <hyperlink ref="A179" r:id="rId178"/>
+    <hyperlink ref="A180" r:id="rId179"/>
+    <hyperlink ref="A181" r:id="rId180"/>
+    <hyperlink ref="A182" r:id="rId181"/>
+    <hyperlink ref="A183" r:id="rId182"/>
+    <hyperlink ref="A184" r:id="rId183"/>
+    <hyperlink ref="A185" r:id="rId184"/>
+    <hyperlink ref="A186" r:id="rId185"/>
+    <hyperlink ref="A187" r:id="rId186"/>
+    <hyperlink ref="A188" r:id="rId187"/>
+    <hyperlink ref="A189" r:id="rId188"/>
+    <hyperlink ref="A190" r:id="rId189"/>
+    <hyperlink ref="A191" r:id="rId190"/>
+    <hyperlink ref="A192" r:id="rId191"/>
+    <hyperlink ref="A193" r:id="rId192"/>
+    <hyperlink ref="A194" r:id="rId193"/>
+    <hyperlink ref="A195" r:id="rId194"/>
+    <hyperlink ref="A196" r:id="rId195"/>
+    <hyperlink ref="A197" r:id="rId196"/>
+    <hyperlink ref="A198" r:id="rId197"/>
+    <hyperlink ref="A199" r:id="rId198"/>
+    <hyperlink ref="A200" r:id="rId199"/>
+    <hyperlink ref="A201" r:id="rId200"/>
+    <hyperlink ref="A202" r:id="rId201"/>
+    <hyperlink ref="A203" r:id="rId202"/>
+    <hyperlink ref="A204" r:id="rId203"/>
+    <hyperlink ref="A205" r:id="rId204"/>
+    <hyperlink ref="A206" r:id="rId205"/>
+    <hyperlink ref="A207" r:id="rId206"/>
+    <hyperlink ref="A208" r:id="rId207"/>
+    <hyperlink ref="A209" r:id="rId208"/>
+    <hyperlink ref="A210" r:id="rId209"/>
+    <hyperlink ref="A211" r:id="rId210"/>
+    <hyperlink ref="A212" r:id="rId211"/>
+    <hyperlink ref="A213" r:id="rId212"/>
+    <hyperlink ref="A214" r:id="rId213"/>
+    <hyperlink ref="A215" r:id="rId214"/>
+    <hyperlink ref="A216" r:id="rId215"/>
+    <hyperlink ref="A217" r:id="rId216"/>
+    <hyperlink ref="A218" r:id="rId217"/>
+    <hyperlink ref="A219" r:id="rId218"/>
+    <hyperlink ref="A220" r:id="rId219"/>
+    <hyperlink ref="A221" r:id="rId220"/>
+    <hyperlink ref="A222" r:id="rId221"/>
+    <hyperlink ref="A223" r:id="rId222"/>
+    <hyperlink ref="A224" r:id="rId223"/>
+    <hyperlink ref="A225" r:id="rId224"/>
+    <hyperlink ref="A226" r:id="rId225"/>
+    <hyperlink ref="A227" r:id="rId226"/>
+    <hyperlink ref="A228" r:id="rId227"/>
+    <hyperlink ref="A229" r:id="rId228"/>
+    <hyperlink ref="A230" r:id="rId229"/>
+    <hyperlink ref="A231" r:id="rId230"/>
+    <hyperlink ref="A232" r:id="rId231"/>
+    <hyperlink ref="A233" r:id="rId232"/>
+    <hyperlink ref="A234" r:id="rId233"/>
+    <hyperlink ref="A235" r:id="rId234"/>
+    <hyperlink ref="A236" r:id="rId235"/>
+    <hyperlink ref="A237" r:id="rId236"/>
+    <hyperlink ref="A238" r:id="rId237"/>
+    <hyperlink ref="A239" r:id="rId238"/>
+    <hyperlink ref="A240" r:id="rId239"/>
+    <hyperlink ref="A241" r:id="rId240"/>
+    <hyperlink ref="A242" r:id="rId241"/>
+    <hyperlink ref="A243" r:id="rId242"/>
+    <hyperlink ref="A244" r:id="rId243"/>
+    <hyperlink ref="A245" r:id="rId244"/>
+    <hyperlink ref="A246" r:id="rId245"/>
+    <hyperlink ref="A247" r:id="rId246"/>
+    <hyperlink ref="A248" r:id="rId247"/>
+    <hyperlink ref="A249" r:id="rId248"/>
+    <hyperlink ref="A250" r:id="rId249"/>
+    <hyperlink ref="A251" r:id="rId250"/>
+    <hyperlink ref="A252" r:id="rId251"/>
+    <hyperlink ref="A253" r:id="rId252"/>
+    <hyperlink ref="A254" r:id="rId253"/>
+    <hyperlink ref="A255" r:id="rId254"/>
+    <hyperlink ref="A256" r:id="rId255"/>
+    <hyperlink ref="A257" r:id="rId256"/>
+    <hyperlink ref="A258" r:id="rId257"/>
+    <hyperlink ref="A259" r:id="rId258"/>
+    <hyperlink ref="A260" r:id="rId259"/>
+    <hyperlink ref="A261" r:id="rId260"/>
+    <hyperlink ref="A262" r:id="rId261"/>
+    <hyperlink ref="A263" r:id="rId262"/>
+    <hyperlink ref="A264" r:id="rId263"/>
+    <hyperlink ref="A265" r:id="rId264"/>
+    <hyperlink ref="A266" r:id="rId265"/>
+    <hyperlink ref="A267" r:id="rId266"/>
+    <hyperlink ref="A268" r:id="rId267"/>
+    <hyperlink ref="A269" r:id="rId268"/>
+    <hyperlink ref="A270" r:id="rId269"/>
+    <hyperlink ref="A271" r:id="rId270"/>
+    <hyperlink ref="A272" r:id="rId271"/>
+    <hyperlink ref="A273" r:id="rId272"/>
+    <hyperlink ref="A274" r:id="rId273"/>
+    <hyperlink ref="A275" r:id="rId274"/>
+    <hyperlink ref="A276" r:id="rId275"/>
+    <hyperlink ref="A277" r:id="rId276"/>
+    <hyperlink ref="A278" r:id="rId277"/>
+    <hyperlink ref="A279" r:id="rId278"/>
+    <hyperlink ref="A280" r:id="rId279"/>
+    <hyperlink ref="A281" r:id="rId280"/>
+    <hyperlink ref="A282" r:id="rId281"/>
+    <hyperlink ref="A283" r:id="rId282"/>
+    <hyperlink ref="A284" r:id="rId283"/>
+    <hyperlink ref="A285" r:id="rId284"/>
+    <hyperlink ref="A286" r:id="rId285"/>
+    <hyperlink ref="A287" r:id="rId286"/>
+    <hyperlink ref="A288" r:id="rId287"/>
+    <hyperlink ref="A289" r:id="rId288"/>
+    <hyperlink ref="A290" r:id="rId289"/>
+    <hyperlink ref="A291" r:id="rId290"/>
+    <hyperlink ref="A292" r:id="rId291"/>
+    <hyperlink ref="A293" r:id="rId292"/>
+    <hyperlink ref="A294" r:id="rId293"/>
+    <hyperlink ref="A295" r:id="rId294"/>
+    <hyperlink ref="A296" r:id="rId295"/>
+    <hyperlink ref="A297" r:id="rId296"/>
+    <hyperlink ref="A298" r:id="rId297"/>
+    <hyperlink ref="A299" r:id="rId298"/>
+    <hyperlink ref="A300" r:id="rId299"/>
+    <hyperlink ref="A301" r:id="rId300"/>
+    <hyperlink ref="A302" r:id="rId301"/>
+    <hyperlink ref="A303" r:id="rId302"/>
+    <hyperlink ref="A304" r:id="rId303"/>
+    <hyperlink ref="A305" r:id="rId304"/>
+    <hyperlink ref="A306" r:id="rId305"/>
+    <hyperlink ref="A307" r:id="rId306"/>
+    <hyperlink ref="A308" r:id="rId307"/>
+    <hyperlink ref="A309" r:id="rId308"/>
+    <hyperlink ref="A310" r:id="rId309"/>
+    <hyperlink ref="A311" r:id="rId310"/>
+    <hyperlink ref="A312" r:id="rId311"/>
+    <hyperlink ref="A313" r:id="rId312"/>
+    <hyperlink ref="A314" r:id="rId313"/>
+    <hyperlink ref="A315" r:id="rId314"/>
+    <hyperlink ref="A316" r:id="rId315"/>
+    <hyperlink ref="A317" r:id="rId316"/>
+    <hyperlink ref="A318" r:id="rId317"/>
+    <hyperlink ref="A319" r:id="rId318"/>
+    <hyperlink ref="A320" r:id="rId319"/>
+    <hyperlink ref="A321" r:id="rId320"/>
+    <hyperlink ref="A322" r:id="rId321"/>
+    <hyperlink ref="A323" r:id="rId322"/>
+    <hyperlink ref="A324" r:id="rId323"/>
+    <hyperlink ref="A325" r:id="rId324"/>
+    <hyperlink ref="A326" r:id="rId325"/>
+    <hyperlink ref="A327" r:id="rId326"/>
+    <hyperlink ref="A328" r:id="rId327"/>
+    <hyperlink ref="A329" r:id="rId328"/>
+    <hyperlink ref="A330" r:id="rId329"/>
+    <hyperlink ref="A331" r:id="rId330"/>
+    <hyperlink ref="A332" r:id="rId331"/>
+    <hyperlink ref="A333" r:id="rId332"/>
+    <hyperlink ref="A334" r:id="rId333"/>
+    <hyperlink ref="A335" r:id="rId334"/>
+    <hyperlink ref="A336" r:id="rId335"/>
+    <hyperlink ref="A337" r:id="rId336"/>
+    <hyperlink ref="A338" r:id="rId337"/>
+    <hyperlink ref="A339" r:id="rId338"/>
+    <hyperlink ref="A340" r:id="rId339"/>
+    <hyperlink ref="A341" r:id="rId340"/>
+    <hyperlink ref="A342" r:id="rId341"/>
+    <hyperlink ref="A343" r:id="rId342"/>
+    <hyperlink ref="A344" r:id="rId343"/>
+    <hyperlink ref="A345" r:id="rId344"/>
+    <hyperlink ref="A346" r:id="rId345"/>
+    <hyperlink ref="A347" r:id="rId346"/>
+    <hyperlink ref="A348" r:id="rId347"/>
+    <hyperlink ref="A349" r:id="rId348"/>
+    <hyperlink ref="A350" r:id="rId349"/>
+    <hyperlink ref="A351" r:id="rId350"/>
+    <hyperlink ref="A352" r:id="rId351"/>
+    <hyperlink ref="A353" r:id="rId352"/>
+    <hyperlink ref="A354" r:id="rId353"/>
+    <hyperlink ref="A355" r:id="rId354"/>
+    <hyperlink ref="A356" r:id="rId355"/>
+    <hyperlink ref="A357" r:id="rId356"/>
+    <hyperlink ref="A358" r:id="rId357"/>
+    <hyperlink ref="A359" r:id="rId358"/>
+    <hyperlink ref="A360" r:id="rId359"/>
+    <hyperlink ref="A361" r:id="rId360"/>
+    <hyperlink ref="A362" r:id="rId361"/>
+    <hyperlink ref="A363" r:id="rId362"/>
+    <hyperlink ref="A364" r:id="rId363"/>
+    <hyperlink ref="A365" r:id="rId364"/>
+    <hyperlink ref="A366" r:id="rId365"/>
+    <hyperlink ref="A367" r:id="rId366"/>
+    <hyperlink ref="A368" r:id="rId367"/>
+    <hyperlink ref="A369" r:id="rId368"/>
+    <hyperlink ref="A370" r:id="rId369"/>
+    <hyperlink ref="A371" r:id="rId370"/>
+    <hyperlink ref="A372" r:id="rId371"/>
+    <hyperlink ref="A373" r:id="rId372"/>
+    <hyperlink ref="A374" r:id="rId373"/>
+    <hyperlink ref="A375" r:id="rId374"/>
+    <hyperlink ref="A376" r:id="rId375"/>
+    <hyperlink ref="A377" r:id="rId376"/>
+    <hyperlink ref="A378" r:id="rId377"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E378"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -487,7 +487,7 @@
         <v>0.91</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>4925</v>
+        <v>4931</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>0.99</v>
@@ -506,7 +506,7 @@
         <v>0.95</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>4208</v>
+        <v>4211</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>1.67</v>
@@ -525,7 +525,7 @@
         <v>0.95</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2973</v>
+        <v>2980</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>3.29</v>
@@ -537,55 +537,55 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>In Sound Mind</t>
+          <t>Borderlands 3</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2973</v>
+        <v>99127</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>3.29</v>
+        <v>8.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Borderlands 3</t>
+          <t>Call of Juarez: Gunslinger</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>99090</v>
+        <v>15791</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8.99</v>
+        <v>2.49</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Call of Juarez: Gunslinger</t>
+          <t>Shady Part of Me</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>15786</v>
+        <v>1289</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2.49</v>
+        <v>2.99</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0.8</v>
@@ -594,17 +594,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Shady Part of Me</t>
+          <t>Call of Juarez: Bound in Blood</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1287</v>
+        <v>3333</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>2.99</v>
+        <v>1.99</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0.8</v>
@@ -613,14 +613,14 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Call of Juarez: Bound in Blood</t>
+          <t>Call of Juarez</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3331</v>
+        <v>2500</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>1.99</v>
@@ -632,701 +632,701 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Call of Juarez</t>
+          <t>BioShock Infinite</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2500</v>
+        <v>100700</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1.99</v>
+        <v>7.49</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Yoku's Island Express</t>
+          <t>SUPERHOT</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2544</v>
+        <v>24033</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>3.99</v>
+        <v>6.74</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Jenny LeClue - Detectivu</t>
+          <t>Trailmakers</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1047</v>
+        <v>16517</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>3.79</v>
+        <v>9.99</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>BioShock Infinite</t>
+          <t>SUPERHOT VR</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>100694</v>
+        <v>6740</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>7.49</v>
+        <v>8.99</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Super Meat Boy</t>
+          <t>Manifold Garden</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>24745</v>
+        <v>5108</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3.49</v>
+        <v>7.8</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>DuckTales: Remastered</t>
+          <t>SUPERHOT: MIND CONTROL DELETE</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5618</v>
+        <v>7881</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.49</v>
+        <v>8.99</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>SUPERHOT</t>
+          <t>Lost in Play</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>24024</v>
+        <v>4029</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>6.74</v>
+        <v>8.99</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>SteamWorld Dig 2</t>
+          <t>Friends vs Friends</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3484</v>
+        <v>6703</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>5.99</v>
+        <v>4.99</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>SteamWorld Dig</t>
+          <t>Hidden Through Time</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4747</v>
+        <v>2267</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2.99</v>
+        <v>3.99</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Blue Fire</t>
+          <t>Fresh Start Cleaning Simulator</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>1397</v>
+        <v>1002</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5.7</v>
+        <v>4.09</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Insurgency</t>
+          <t>Hell Let Loose</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>86260</v>
+        <v>73157</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>4.24</v>
+        <v>29.24</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0.66</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>SUPERHOT VR</t>
+          <t>Amnesia: The Bunker</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6736</v>
+        <v>5022</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>8.99</v>
+        <v>15.92</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Manifold Garden</t>
+          <t>Trepang2</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>5104</v>
+        <v>5462</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7.8</v>
+        <v>20.09</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>SUPERHOT: MIND CONTROL DELETE</t>
+          <t>Warhammer 40,000: Boltgun</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7879</v>
+        <v>9783</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8.99</v>
+        <v>14.95</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>FAR: Changing Tides</t>
+          <t>COCOON</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3177</v>
+        <v>3308</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>7.99</v>
+        <v>16.09</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Ultimate Chicken Horse</t>
+          <t>Railbound</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>29689</v>
+        <v>1143</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>5.84</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Lost in Play</t>
+          <t>Deadlink</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4021</v>
+        <v>2477</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8.99</v>
+        <v>17.15</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>LUNA The Shadow Dust</t>
+          <t>Roboquest</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1172</v>
+        <v>9738</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>17.42</v>
+        <v>18.74</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Hidden Through Time</t>
+          <t>Gunsmith Simulator</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>2266</v>
+        <v>1430</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>3.99</v>
+        <v>15.21</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Kao the Kangaroo: Round 2 (2003 re-release)</t>
+          <t>Fireworks Mania - An Explosive Simulator</t>
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2371</v>
+        <v>4823</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0.99</v>
+        <v>7.99</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Hell Let Loose</t>
+          <t>Turbo Overkill</t>
         </is>
       </c>
       <c r="B30" s="4" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>73098</v>
+        <v>4375</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>29.24</v>
+        <v>21.19</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Amnesia: The Bunker</t>
+          <t>Rising Front</t>
         </is>
       </c>
       <c r="B31" s="4" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>5012</v>
+        <v>1673</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>15.92</v>
+        <v>11.83</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Trepang2</t>
+          <t>A Castle Full of Cats</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>5448</v>
+        <v>2465</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>20.09</v>
+        <v>2.38</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Warhammer 40,000: Boltgun</t>
+          <t>A Building Full of Cats</t>
         </is>
       </c>
       <c r="B33" s="4" t="n">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>9776</v>
+        <v>2924</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>14.95</v>
+        <v>1.56</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>COCOON</t>
+          <t>Tom Clancy's Rainbow Six® Siege</t>
         </is>
       </c>
       <c r="B34" s="4" t="n">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>3280</v>
+        <v>1032516</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>16.09</v>
+        <v>19.99</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Railbound</t>
+          <t>BattleBit Remastered</t>
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1143</v>
+        <v>107115</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>8.949999999999999</v>
+        <v>14.79</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Deadlink</t>
+          <t>Team Fortress 2</t>
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2476</v>
+        <v>1022641</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>17.15</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Roboquest</t>
+          <t>A Little to the Left</t>
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>9661</v>
+        <v>6217</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>18.74</v>
+        <v>14.99</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Gravity Circuit</t>
+          <t>Deep Rock Galactic</t>
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>1456</v>
+        <v>215680</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>12.74</v>
+        <v>29.99</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Gunsmith Simulator</t>
+          <t>Inscryption</t>
         </is>
       </c>
       <c r="B39" s="4" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>1424</v>
+        <v>96952</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>15.21</v>
+        <v>19.99</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Fireworks Mania - An Explosive Simulator</t>
+          <t>Gunfire Reborn</t>
         </is>
       </c>
       <c r="B40" s="4" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>4814</v>
+        <v>79186</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>7.99</v>
+        <v>16.79</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Rising Front</t>
+          <t>Portal 2</t>
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1668</v>
+        <v>310937</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>11.83</v>
+        <v>9.75</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Turbo Overkill</t>
+          <t>MechWarrior 5: Mercenaries</t>
         </is>
       </c>
       <c r="B42" s="4" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4369</v>
+        <v>8320</v>
       </c>
       <c r="D42" s="6" t="n">
-        <v>21.19</v>
+        <v>29.99</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>A Building Full of Cats</t>
+          <t>GROUND BRANCH</t>
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>2919</v>
+        <v>15085</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>1.56</v>
+        <v>24.99</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Post Void</t>
+          <t>Left 4 Dead 2</t>
         </is>
       </c>
       <c r="B44" s="4" t="n">
         <v>0.97</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>8040</v>
+        <v>614745</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>2.69</v>
+        <v>9.75</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Post Void</t>
+          <t>Chants of Sennaar</t>
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>8040</v>
+        <v>8538</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.69</v>
+        <v>19.99</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Tom Clancy's Rainbow Six® Siege</t>
+          <t>Escape Simulator</t>
         </is>
       </c>
       <c r="B46" s="4" t="n">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>1032192</v>
+        <v>11505</v>
       </c>
       <c r="D46" s="6" t="n">
-        <v>19.99</v>
+        <v>14.99</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>0</v>
@@ -1335,17 +1335,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Deep Rock Galactic</t>
+          <t>ULTRAKILL</t>
         </is>
       </c>
       <c r="B47" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>215607</v>
+        <v>83884</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>29.99</v>
+        <v>24.5</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>0</v>
@@ -1354,17 +1354,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>BattleBit Remastered</t>
+          <t>The Talos Principle 2</t>
         </is>
       </c>
       <c r="B48" s="4" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>107045</v>
+        <v>6585</v>
       </c>
       <c r="D48" s="6" t="n">
-        <v>14.79</v>
+        <v>28.99</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -1373,17 +1373,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Team Fortress 2</t>
+          <t>Far Cry® 4</t>
         </is>
       </c>
       <c r="B49" s="4" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>1022499</v>
+        <v>46626</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0</v>
+        <v>29.99</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0</v>
@@ -1392,17 +1392,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>A Little to the Left</t>
+          <t>Squad 44</t>
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>6212</v>
+        <v>15923</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>14.99</v>
+        <v>28</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>0</v>
@@ -1411,17 +1411,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>MechWarrior 5: Mercenaries</t>
+          <t>We Were Here Forever</t>
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>8316</v>
+        <v>10586</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>29.99</v>
+        <v>17.99</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>0</v>
@@ -1430,17 +1430,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>ULTRAKILL</t>
+          <t>SCP: 5K</t>
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>83763</v>
+        <v>6688</v>
       </c>
       <c r="D52" s="6" t="n">
-        <v>24.5</v>
+        <v>19.5</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>0</v>
@@ -1449,14 +1449,14 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Inscryption</t>
+          <t>Call of Duty: World at War</t>
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>96902</v>
+        <v>39881</v>
       </c>
       <c r="D53" s="6" t="n">
         <v>19.99</v>
@@ -1468,17 +1468,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Hollow Knight</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B54" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>293192</v>
+        <v>127167</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>14.79</v>
+        <v>9.75</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>0</v>
@@ -1487,17 +1487,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Gunfire Reborn</t>
+          <t>We Were Here Together</t>
         </is>
       </c>
       <c r="B55" s="4" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>79161</v>
+        <v>10335</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>16.79</v>
+        <v>12.99</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>0</v>
@@ -1506,17 +1506,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Portal 2</t>
+          <t>Unpacking</t>
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>310809</v>
+        <v>23892</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>9.75</v>
+        <v>19.99</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>0</v>
@@ -1525,17 +1525,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Rain World</t>
+          <t>Dorfromantik</t>
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>20300</v>
+        <v>23031</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>24.5</v>
+        <v>12.99</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -1544,17 +1544,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Cuphead</t>
+          <t>PAYDAY 2</t>
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>136036</v>
+        <v>423713</v>
       </c>
       <c r="D58" s="6" t="n">
-        <v>19.99</v>
+        <v>9.99</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -1563,17 +1563,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>GROUND BRANCH</t>
+          <t>Metal: Hellsinger</t>
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>15076</v>
+        <v>10905</v>
       </c>
       <c r="D59" s="6" t="n">
-        <v>24.99</v>
+        <v>29.99</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -1582,17 +1582,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>PAYDAY 2</t>
+          <t>Borderlands 2</t>
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>423679</v>
+        <v>186488</v>
       </c>
       <c r="D60" s="6" t="n">
-        <v>9.99</v>
+        <v>29.99</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -1601,17 +1601,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead 2</t>
+          <t>Terra Nil</t>
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>614528</v>
+        <v>4470</v>
       </c>
       <c r="D61" s="6" t="n">
-        <v>9.75</v>
+        <v>24.99</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -1620,17 +1620,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Escape Simulator</t>
+          <t>Metro Exodus</t>
         </is>
       </c>
       <c r="B62" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>11502</v>
+        <v>86907</v>
       </c>
       <c r="D62" s="6" t="n">
-        <v>14.99</v>
+        <v>29.99</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0</v>
@@ -1639,17 +1639,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>The Talos Principle 2</t>
+          <t>Keep Talking and Nobody Explodes</t>
         </is>
       </c>
       <c r="B63" s="4" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>6569</v>
+        <v>10864</v>
       </c>
       <c r="D63" s="6" t="n">
-        <v>28.99</v>
+        <v>14.79</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>0</v>
@@ -1658,17 +1658,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Squad 44</t>
+          <t>Insurgency: Sandstorm</t>
         </is>
       </c>
       <c r="B64" s="4" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>15924</v>
+        <v>89655</v>
       </c>
       <c r="D64" s="6" t="n">
-        <v>28</v>
+        <v>29.99</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>0</v>
@@ -1677,17 +1677,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>SCP: 5K</t>
+          <t>Turing Complete</t>
         </is>
       </c>
       <c r="B65" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>6686</v>
+        <v>2204</v>
       </c>
       <c r="D65" s="6" t="n">
-        <v>19.5</v>
+        <v>16.79</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -1696,14 +1696,14 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Chants of Sennaar</t>
+          <t>Call of Duty®: Modern Warfare® 2 (2009)</t>
         </is>
       </c>
       <c r="B66" s="4" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>8522</v>
+        <v>30560</v>
       </c>
       <c r="D66" s="6" t="n">
         <v>19.99</v>
@@ -1715,17 +1715,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Forever</t>
+          <t>Human Fall Flat</t>
         </is>
       </c>
       <c r="B67" s="4" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>10576</v>
+        <v>150299</v>
       </c>
       <c r="D67" s="6" t="n">
-        <v>17.99</v>
+        <v>19.99</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
@@ -1734,17 +1734,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Metro Exodus</t>
+          <t>Jusant</t>
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>86881</v>
+        <v>1355</v>
       </c>
       <c r="D68" s="6" t="n">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
@@ -1753,17 +1753,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Metal: Hellsinger</t>
+          <t>Car For Sale Simulator 2023</t>
         </is>
       </c>
       <c r="B69" s="4" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>10898</v>
+        <v>10698</v>
       </c>
       <c r="D69" s="6" t="n">
-        <v>29.99</v>
+        <v>17.49</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>0</v>
@@ -1772,17 +1772,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Jusant</t>
+          <t>TUNIC</t>
         </is>
       </c>
       <c r="B70" s="4" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>1351</v>
+        <v>9831</v>
       </c>
       <c r="D70" s="6" t="n">
-        <v>24.99</v>
+        <v>28.99</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>0</v>
@@ -1791,17 +1791,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Ori and the Will of the Wisps</t>
+          <t>Superliminal</t>
         </is>
       </c>
       <c r="B71" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>112906</v>
+        <v>21277</v>
       </c>
       <c r="D71" s="6" t="n">
-        <v>29.99</v>
+        <v>16.79</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>0</v>
@@ -1810,17 +1810,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Terra Nil</t>
+          <t>Titanfall® 2</t>
         </is>
       </c>
       <c r="B72" s="4" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>4471</v>
+        <v>179030</v>
       </c>
       <c r="D72" s="6" t="n">
-        <v>24.99</v>
+        <v>29.99</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>0</v>
@@ -1829,17 +1829,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Together</t>
+          <t>Labyrinthine</t>
         </is>
       </c>
       <c r="B73" s="4" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>10331</v>
+        <v>11320</v>
       </c>
       <c r="D73" s="6" t="n">
-        <v>12.99</v>
+        <v>8.99</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
@@ -1848,17 +1848,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Keep Talking and Nobody Explodes</t>
+          <t>Far Cry 3</t>
         </is>
       </c>
       <c r="B74" s="4" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>10862</v>
+        <v>88163</v>
       </c>
       <c r="D74" s="6" t="n">
-        <v>14.79</v>
+        <v>19.99</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
@@ -1867,14 +1867,14 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Borderlands 2</t>
+          <t>Little Nightmares II</t>
         </is>
       </c>
       <c r="B75" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>186474</v>
+        <v>27225</v>
       </c>
       <c r="D75" s="6" t="n">
         <v>29.99</v>
@@ -1886,17 +1886,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Far Cry® 4</t>
+          <t>Mini Motorways</t>
         </is>
       </c>
       <c r="B76" s="4" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>46606</v>
+        <v>17534</v>
       </c>
       <c r="D76" s="6" t="n">
-        <v>29.99</v>
+        <v>8.19</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
@@ -1905,17 +1905,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Trailmakers</t>
+          <t>Starship Troopers: Extermination</t>
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>16511</v>
+        <v>23273</v>
       </c>
       <c r="D77" s="6" t="n">
-        <v>24.99</v>
+        <v>28.99</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>0</v>
@@ -1924,17 +1924,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Starship Troopers: Extermination</t>
+          <t>Viewfinder</t>
         </is>
       </c>
       <c r="B78" s="4" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>23249</v>
+        <v>4541</v>
       </c>
       <c r="D78" s="6" t="n">
-        <v>28.99</v>
+        <v>24.99</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>0</v>
@@ -1943,14 +1943,14 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty: World at War</t>
+          <t>DOOM</t>
         </is>
       </c>
       <c r="B79" s="4" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>39882</v>
+        <v>124572</v>
       </c>
       <c r="D79" s="6" t="n">
         <v>19.99</v>
@@ -1962,17 +1962,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Celeste</t>
+          <t>S.T.A.L.K.E.R.: Shadow of Chernobyl</t>
         </is>
       </c>
       <c r="B80" s="4" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>78719</v>
+        <v>29848</v>
       </c>
       <c r="D80" s="6" t="n">
-        <v>19.5</v>
+        <v>15.99</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>0</v>
@@ -1981,17 +1981,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>TUNIC</t>
+          <t>We Were Here Too</t>
         </is>
       </c>
       <c r="B81" s="4" t="n">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>9827</v>
+        <v>6210</v>
       </c>
       <c r="D81" s="6" t="n">
-        <v>28.99</v>
+        <v>9.99</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
@@ -2000,17 +2000,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>Inside the Backrooms</t>
         </is>
       </c>
       <c r="B82" s="4" t="n">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>127104</v>
+        <v>33490</v>
       </c>
       <c r="D82" s="6" t="n">
-        <v>9.75</v>
+        <v>6.99</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
@@ -2019,14 +2019,14 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>DOOM</t>
+          <t>Wolfenstein: The New Order</t>
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>124560</v>
+        <v>37201</v>
       </c>
       <c r="D83" s="6" t="n">
         <v>19.99</v>
@@ -2038,17 +2038,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Pizza Tower</t>
+          <t>Little Nightmares</t>
         </is>
       </c>
       <c r="B84" s="4" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>45935</v>
+        <v>39722</v>
       </c>
       <c r="D84" s="6" t="n">
-        <v>19.5</v>
+        <v>19.99</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -2057,17 +2057,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Insurgency: Sandstorm</t>
+          <t>Left 4 Dead</t>
         </is>
       </c>
       <c r="B85" s="4" t="n">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>89638</v>
+        <v>44619</v>
       </c>
       <c r="D85" s="6" t="n">
-        <v>29.99</v>
+        <v>9.75</v>
       </c>
       <c r="E85" s="4" t="n">
         <v>0</v>
@@ -2076,17 +2076,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Unpacking</t>
+          <t>Black Mesa</t>
         </is>
       </c>
       <c r="B86" s="4" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>23879</v>
+        <v>100340</v>
       </c>
       <c r="D86" s="6" t="n">
-        <v>19.99</v>
+        <v>14.99</v>
       </c>
       <c r="E86" s="4" t="n">
         <v>0</v>
@@ -2095,17 +2095,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Wolfenstein: The New Order</t>
+          <t>The Case of the Golden Idol</t>
         </is>
       </c>
       <c r="B87" s="4" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>37197</v>
+        <v>4920</v>
       </c>
       <c r="D87" s="6" t="n">
-        <v>19.99</v>
+        <v>17.99</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>0</v>
@@ -2114,17 +2114,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Turing Complete</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="B88" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>2201</v>
+        <v>30772</v>
       </c>
       <c r="D88" s="6" t="n">
-        <v>16.79</v>
+        <v>29.99</v>
       </c>
       <c r="E88" s="4" t="n">
         <v>0</v>
@@ -2133,17 +2133,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>S.T.A.L.K.E.R.: Shadow of Chernobyl</t>
+          <t>Baba Is You</t>
         </is>
       </c>
       <c r="B89" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>29834</v>
+        <v>16364</v>
       </c>
       <c r="D89" s="6" t="n">
-        <v>15.99</v>
+        <v>12.49</v>
       </c>
       <c r="E89" s="4" t="n">
         <v>0</v>
@@ -2152,17 +2152,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Inside the Backrooms</t>
+          <t>Half-Life 2</t>
         </is>
       </c>
       <c r="B90" s="4" t="n">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>33484</v>
+        <v>144876</v>
       </c>
       <c r="D90" s="6" t="n">
-        <v>6.99</v>
+        <v>9.75</v>
       </c>
       <c r="E90" s="4" t="n">
         <v>0</v>
@@ -2171,17 +2171,17 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Rayman® Legends</t>
+          <t>Ravenfield</t>
         </is>
       </c>
       <c r="B91" s="4" t="n">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>6985</v>
+        <v>61805</v>
       </c>
       <c r="D91" s="6" t="n">
-        <v>19.99</v>
+        <v>17.49</v>
       </c>
       <c r="E91" s="4" t="n">
         <v>0</v>
@@ -2190,17 +2190,17 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Dorfromantik</t>
+          <t>Sticky Business</t>
         </is>
       </c>
       <c r="B92" s="4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>23026</v>
+        <v>2961</v>
       </c>
       <c r="D92" s="6" t="n">
-        <v>12.99</v>
+        <v>9.99</v>
       </c>
       <c r="E92" s="4" t="n">
         <v>0</v>
@@ -2209,17 +2209,17 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Human Fall Flat</t>
+          <t>The Past Within</t>
         </is>
       </c>
       <c r="B93" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>150284</v>
+        <v>11168</v>
       </c>
       <c r="D93" s="6" t="n">
-        <v>19.99</v>
+        <v>5.99</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>0</v>
@@ -2228,17 +2228,17 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Labyrinthine</t>
+          <t>The Talos Principle</t>
         </is>
       </c>
       <c r="B94" s="4" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>11315</v>
+        <v>25532</v>
       </c>
       <c r="D94" s="6" t="n">
-        <v>8.99</v>
+        <v>28.99</v>
       </c>
       <c r="E94" s="4" t="n">
         <v>0</v>
@@ -2247,17 +2247,17 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Titanfall® 2</t>
+          <t>KovaaK's</t>
         </is>
       </c>
       <c r="B95" s="4" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>178982</v>
+        <v>27888</v>
       </c>
       <c r="D95" s="6" t="n">
-        <v>29.99</v>
+        <v>8.19</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>0</v>
@@ -2266,17 +2266,17 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Black Mesa</t>
+          <t>Call of Duty® 4: Modern Warfare® (2007)</t>
         </is>
       </c>
       <c r="B96" s="4" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>100310</v>
+        <v>18157</v>
       </c>
       <c r="D96" s="6" t="n">
-        <v>14.99</v>
+        <v>19.99</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>0</v>
@@ -2285,17 +2285,17 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Little Nightmares II</t>
+          <t>Return of the Obra Dinn</t>
         </is>
       </c>
       <c r="B97" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>27207</v>
+        <v>21857</v>
       </c>
       <c r="D97" s="6" t="n">
-        <v>29.99</v>
+        <v>19.5</v>
       </c>
       <c r="E97" s="4" t="n">
         <v>0</v>
@@ -2304,17 +2304,17 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>The Outer Worlds</t>
+          <t>Killing Floor 2</t>
         </is>
       </c>
       <c r="B98" s="4" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>20898</v>
+        <v>76933</v>
       </c>
       <c r="D98" s="6" t="n">
-        <v>29.99</v>
+        <v>27.99</v>
       </c>
       <c r="E98" s="4" t="n">
         <v>0</v>
@@ -2323,17 +2323,17 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty: United Offensive</t>
+          <t>Half-Life</t>
         </is>
       </c>
       <c r="B99" s="4" t="n">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>1679</v>
+        <v>88125</v>
       </c>
       <c r="D99" s="6" t="n">
-        <v>19.99</v>
+        <v>8.19</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>0</v>
@@ -2342,17 +2342,17 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Car For Sale Simulator 2023</t>
+          <t>Metro 2033 Redux</t>
         </is>
       </c>
       <c r="B100" s="4" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>10692</v>
+        <v>69189</v>
       </c>
       <c r="D100" s="6" t="n">
-        <v>17.49</v>
+        <v>19.99</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>0</v>
@@ -2361,17 +2361,17 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Viewfinder</t>
+          <t>INFRA</t>
         </is>
       </c>
       <c r="B101" s="4" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>4536</v>
+        <v>2479</v>
       </c>
       <c r="D101" s="6" t="n">
-        <v>24.99</v>
+        <v>27.99</v>
       </c>
       <c r="E101" s="4" t="n">
         <v>0</v>
@@ -2380,17 +2380,17 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>The Talos Principle</t>
+          <t>Easy Red 2</t>
         </is>
       </c>
       <c r="B102" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>25527</v>
+        <v>3425</v>
       </c>
       <c r="D102" s="6" t="n">
-        <v>28.99</v>
+        <v>8.99</v>
       </c>
       <c r="E102" s="4" t="n">
         <v>0</v>
@@ -2399,17 +2399,17 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Superliminal</t>
+          <t>The Outer Worlds</t>
         </is>
       </c>
       <c r="B103" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>21273</v>
+        <v>20902</v>
       </c>
       <c r="D103" s="6" t="n">
-        <v>16.79</v>
+        <v>29.99</v>
       </c>
       <c r="E103" s="4" t="n">
         <v>0</v>
@@ -2418,17 +2418,17 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>KovaaK's</t>
+          <t>Strange Horticulture</t>
         </is>
       </c>
       <c r="B104" s="4" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>27883</v>
+        <v>8691</v>
       </c>
       <c r="D104" s="6" t="n">
-        <v>8.19</v>
+        <v>14.79</v>
       </c>
       <c r="E104" s="4" t="n">
         <v>0</v>
@@ -2437,17 +2437,17 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Crysis 2 Remastered</t>
+          <t>Blood West</t>
         </is>
       </c>
       <c r="B105" s="4" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>3770</v>
+        <v>2589</v>
       </c>
       <c r="D105" s="6" t="n">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
       <c r="E105" s="4" t="n">
         <v>0</v>
@@ -2456,14 +2456,14 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Little Nightmares</t>
+          <t>Metro: Last Light Redux</t>
         </is>
       </c>
       <c r="B106" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>39713</v>
+        <v>53049</v>
       </c>
       <c r="D106" s="6" t="n">
         <v>19.99</v>
@@ -2475,17 +2475,17 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Mini Motorways</t>
+          <t>SuchArt: Genius Artist Simulator</t>
         </is>
       </c>
       <c r="B107" s="4" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>17531</v>
+        <v>3270</v>
       </c>
       <c r="D107" s="6" t="n">
-        <v>8.19</v>
+        <v>24.99</v>
       </c>
       <c r="E107" s="4" t="n">
         <v>0</v>
@@ -2494,17 +2494,17 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Trine 5: A Clockwork Conspiracy</t>
+          <t>Unravel Two</t>
         </is>
       </c>
       <c r="B108" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>1062</v>
+        <v>4376</v>
       </c>
       <c r="D108" s="6" t="n">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="E108" s="4" t="n">
         <v>0</v>
@@ -2513,17 +2513,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Ori and the Blind Forest</t>
+          <t>Counter-Strike</t>
         </is>
       </c>
       <c r="B109" s="4" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>44954</v>
+        <v>146028</v>
       </c>
       <c r="D109" s="6" t="n">
-        <v>0</v>
+        <v>8.19</v>
       </c>
       <c r="E109" s="4" t="n">
         <v>0</v>
@@ -2532,17 +2532,17 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Unravel Two</t>
+          <t>Cruelty Squad</t>
         </is>
       </c>
       <c r="B110" s="4" t="n">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>4375</v>
+        <v>14055</v>
       </c>
       <c r="D110" s="6" t="n">
-        <v>19.99</v>
+        <v>16.79</v>
       </c>
       <c r="E110" s="4" t="n">
         <v>0</v>
@@ -2551,17 +2551,17 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Strange Horticulture</t>
+          <t>Operation: Tango</t>
         </is>
       </c>
       <c r="B111" s="4" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>8687</v>
+        <v>5441</v>
       </c>
       <c r="D111" s="6" t="n">
-        <v>14.79</v>
+        <v>16.99</v>
       </c>
       <c r="E111" s="4" t="n">
         <v>0</v>
@@ -2570,17 +2570,17 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Half-Life 2</t>
+          <t>Underground Blossom</t>
         </is>
       </c>
       <c r="B112" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>144804</v>
+        <v>4430</v>
       </c>
       <c r="D112" s="6" t="n">
-        <v>9.75</v>
+        <v>4.99</v>
       </c>
       <c r="E112" s="4" t="n">
         <v>0</v>
@@ -2589,17 +2589,17 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>We Were Here Too</t>
+          <t>Killer Frequency</t>
         </is>
       </c>
       <c r="B113" s="4" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>6207</v>
+        <v>1770</v>
       </c>
       <c r="D113" s="6" t="n">
-        <v>9.99</v>
+        <v>24.99</v>
       </c>
       <c r="E113" s="4" t="n">
         <v>0</v>
@@ -2608,17 +2608,17 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Total Conflict: Resistance</t>
         </is>
       </c>
       <c r="B114" s="4" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>30768</v>
+        <v>2072</v>
       </c>
       <c r="D114" s="6" t="n">
-        <v>29.99</v>
+        <v>28.99</v>
       </c>
       <c r="E114" s="4" t="n">
         <v>0</v>
@@ -2627,17 +2627,17 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty®: Modern Warfare® 2 (2009)</t>
+          <t>Shadows Over Loathing</t>
         </is>
       </c>
       <c r="B115" s="4" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>30561</v>
+        <v>2412</v>
       </c>
       <c r="D115" s="6" t="n">
-        <v>19.99</v>
+        <v>21.99</v>
       </c>
       <c r="E115" s="4" t="n">
         <v>0</v>
@@ -2646,17 +2646,17 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Pseudoregalia</t>
+          <t>Crysis 3 Remastered</t>
         </is>
       </c>
       <c r="B116" s="4" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="C116" s="5" t="n">
-        <v>5550</v>
+        <v>3063</v>
       </c>
       <c r="D116" s="6" t="n">
-        <v>5.89</v>
+        <v>29.99</v>
       </c>
       <c r="E116" s="4" t="n">
         <v>0</v>
@@ -2665,17 +2665,17 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>The Case of the Golden Idol</t>
+          <t>Team Fortress Classic</t>
         </is>
       </c>
       <c r="B117" s="4" t="n">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>4917</v>
+        <v>5868</v>
       </c>
       <c r="D117" s="6" t="n">
-        <v>17.99</v>
+        <v>4.99</v>
       </c>
       <c r="E117" s="4" t="n">
         <v>0</v>
@@ -2684,17 +2684,17 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>The Past Within</t>
+          <t>Mini Metro</t>
         </is>
       </c>
       <c r="B118" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>11167</v>
+        <v>10715</v>
       </c>
       <c r="D118" s="6" t="n">
-        <v>5.99</v>
+        <v>8.19</v>
       </c>
       <c r="E118" s="4" t="n">
         <v>0</v>
@@ -2703,17 +2703,17 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Counter-Strike</t>
+          <t>Call of Duty® (2003)</t>
         </is>
       </c>
       <c r="B119" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>146009</v>
+        <v>5372</v>
       </c>
       <c r="D119" s="6" t="n">
-        <v>8.19</v>
+        <v>19.99</v>
       </c>
       <c r="E119" s="4" t="n">
         <v>0</v>
@@ -2722,17 +2722,17 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Easy Red 2</t>
+          <t>Counter-Strike: Source</t>
         </is>
       </c>
       <c r="B120" s="4" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>3421</v>
+        <v>112755</v>
       </c>
       <c r="D120" s="6" t="n">
-        <v>8.99</v>
+        <v>9.75</v>
       </c>
       <c r="E120" s="4" t="n">
         <v>0</v>
@@ -2741,17 +2741,17 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Sticky Business</t>
+          <t>Crysis 2 Remastered</t>
         </is>
       </c>
       <c r="B121" s="4" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>2952</v>
+        <v>3770</v>
       </c>
       <c r="D121" s="6" t="n">
-        <v>9.99</v>
+        <v>29.99</v>
       </c>
       <c r="E121" s="4" t="n">
         <v>0</v>
@@ -2760,17 +2760,17 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Shadows Over Loathing</t>
+          <t>The Room 4: Old Sins</t>
         </is>
       </c>
       <c r="B122" s="4" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>2409</v>
+        <v>13163</v>
       </c>
       <c r="D122" s="6" t="n">
-        <v>21.99</v>
+        <v>8.49</v>
       </c>
       <c r="E122" s="4" t="n">
         <v>0</v>
@@ -2779,17 +2779,17 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Ravenfield</t>
+          <t>Call of Duty: United Offensive</t>
         </is>
       </c>
       <c r="B123" s="4" t="n">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>61793</v>
+        <v>1678</v>
       </c>
       <c r="D123" s="6" t="n">
-        <v>17.49</v>
+        <v>19.99</v>
       </c>
       <c r="E123" s="4" t="n">
         <v>0</v>
@@ -2798,17 +2798,17 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Return of the Obra Dinn</t>
+          <t>SHENZHEN I/O</t>
         </is>
       </c>
       <c r="B124" s="4" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>21843</v>
+        <v>3138</v>
       </c>
       <c r="D124" s="6" t="n">
-        <v>19.5</v>
+        <v>14.79</v>
       </c>
       <c r="E124" s="4" t="n">
         <v>0</v>
@@ -2817,17 +2817,17 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Counter-Strike: Source</t>
+          <t>There Is No Game: Wrong Dimension</t>
         </is>
       </c>
       <c r="B125" s="4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>112739</v>
+        <v>19142</v>
       </c>
       <c r="D125" s="6" t="n">
-        <v>9.75</v>
+        <v>12.99</v>
       </c>
       <c r="E125" s="4" t="n">
         <v>0</v>
@@ -2836,17 +2836,17 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Killing Floor 2</t>
+          <t>S.T.A.L.K.E.R.: Call of Pripyat</t>
         </is>
       </c>
       <c r="B126" s="4" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>76933</v>
+        <v>20621</v>
       </c>
       <c r="D126" s="6" t="n">
-        <v>27.99</v>
+        <v>19.99</v>
       </c>
       <c r="E126" s="4" t="n">
         <v>0</v>
@@ -2855,17 +2855,17 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Left 4 Dead</t>
+          <t>Myst</t>
         </is>
       </c>
       <c r="B127" s="4" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="C127" s="5" t="n">
-        <v>44594</v>
+        <v>1123</v>
       </c>
       <c r="D127" s="6" t="n">
-        <v>9.75</v>
+        <v>28.99</v>
       </c>
       <c r="E127" s="4" t="n">
         <v>0</v>
@@ -2874,17 +2874,17 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Blood West</t>
+          <t>Peggle Deluxe</t>
         </is>
       </c>
       <c r="B128" s="4" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>2580</v>
+        <v>6017</v>
       </c>
       <c r="D128" s="6" t="n">
-        <v>24.99</v>
+        <v>4.99</v>
       </c>
       <c r="E128" s="4" t="n">
         <v>0</v>
@@ -2893,17 +2893,17 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Blood West</t>
+          <t>Half-Life 2: Episode One</t>
         </is>
       </c>
       <c r="B129" s="4" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>2580</v>
+        <v>23083</v>
       </c>
       <c r="D129" s="6" t="n">
-        <v>24.99</v>
+        <v>7.79</v>
       </c>
       <c r="E129" s="4" t="n">
         <v>0</v>
@@ -2912,17 +2912,17 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>BlazBlue Entropy Effect</t>
+          <t>DUSK</t>
         </is>
       </c>
       <c r="B130" s="4" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>5569</v>
+        <v>18145</v>
       </c>
       <c r="D130" s="6" t="n">
-        <v>21.56</v>
+        <v>19.5</v>
       </c>
       <c r="E130" s="4" t="n">
         <v>0</v>
@@ -2931,17 +2931,17 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Bendy and the Ink Machine</t>
+          <t>Donut County</t>
         </is>
       </c>
       <c r="B131" s="4" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>14417</v>
+        <v>7826</v>
       </c>
       <c r="D131" s="6" t="n">
-        <v>16.79</v>
+        <v>11.99</v>
       </c>
       <c r="E131" s="4" t="n">
         <v>0</v>
@@ -2950,17 +2950,17 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Half-Life</t>
+          <t>Wolfenstein: The Old Blood</t>
         </is>
       </c>
       <c r="B132" s="4" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>88089</v>
+        <v>13343</v>
       </c>
       <c r="D132" s="6" t="n">
-        <v>8.19</v>
+        <v>19.99</v>
       </c>
       <c r="E132" s="4" t="n">
         <v>0</v>
@@ -2969,17 +2969,17 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Astral Ascent</t>
+          <t>DOOM (1993)</t>
         </is>
       </c>
       <c r="B133" s="4" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>2480</v>
+        <v>14463</v>
       </c>
       <c r="D133" s="6" t="n">
-        <v>24.5</v>
+        <v>4.99</v>
       </c>
       <c r="E133" s="4" t="n">
         <v>0</v>
@@ -2988,17 +2988,17 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Ghost Watchers</t>
+          <t>Bendy and the Ink Machine</t>
         </is>
       </c>
       <c r="B134" s="4" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>10684</v>
+        <v>14424</v>
       </c>
       <c r="D134" s="6" t="n">
-        <v>12.49</v>
+        <v>16.79</v>
       </c>
       <c r="E134" s="4" t="n">
         <v>0</v>
@@ -3007,17 +3007,17 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty® 2</t>
+          <t>Half-Life 2: Episode Two</t>
         </is>
       </c>
       <c r="B135" s="4" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>7127</v>
+        <v>30628</v>
       </c>
       <c r="D135" s="6" t="n">
-        <v>19.99</v>
+        <v>6.59</v>
       </c>
       <c r="E135" s="4" t="n">
         <v>0</v>
@@ -3026,17 +3026,17 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Far Cry 3</t>
+          <t>Gloomwood</t>
         </is>
       </c>
       <c r="B136" s="4" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="C136" s="5" t="n">
-        <v>88148</v>
+        <v>4229</v>
       </c>
       <c r="D136" s="6" t="n">
-        <v>19.99</v>
+        <v>19.5</v>
       </c>
       <c r="E136" s="4" t="n">
         <v>0</v>
@@ -3045,17 +3045,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Cruelty Squad</t>
+          <t>The House of Da Vinci 2</t>
         </is>
       </c>
       <c r="B137" s="4" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>14048</v>
+        <v>1448</v>
       </c>
       <c r="D137" s="6" t="n">
-        <v>16.79</v>
+        <v>19.99</v>
       </c>
       <c r="E137" s="4" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0.87</v>
       </c>
       <c r="C138" s="5" t="n">
-        <v>28037</v>
+        <v>28036</v>
       </c>
       <c r="D138" s="6" t="n">
         <v>19.99</v>
@@ -3083,17 +3083,17 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Killer Frequency</t>
+          <t>The House of Da Vinci</t>
         </is>
       </c>
       <c r="B139" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>1767</v>
+        <v>4796</v>
       </c>
       <c r="D139" s="6" t="n">
-        <v>24.99</v>
+        <v>19.99</v>
       </c>
       <c r="E139" s="4" t="n">
         <v>0</v>
@@ -3102,17 +3102,17 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Katana ZERO</t>
+          <t>Half-Life: Opposing Force</t>
         </is>
       </c>
       <c r="B140" s="4" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>55250</v>
+        <v>17806</v>
       </c>
       <c r="D140" s="6" t="n">
-        <v>14.79</v>
+        <v>4.99</v>
       </c>
       <c r="E140" s="4" t="n">
         <v>0</v>
@@ -3121,14 +3121,14 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>SHENZHEN I/O</t>
+          <t>Little Inferno</t>
         </is>
       </c>
       <c r="B141" s="4" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>3136</v>
+        <v>7434</v>
       </c>
       <c r="D141" s="6" t="n">
         <v>14.79</v>
@@ -3140,17 +3140,17 @@
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Total Conflict: Resistance</t>
+          <t>Prison Simulator</t>
         </is>
       </c>
       <c r="B142" s="4" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>2068</v>
+        <v>1710</v>
       </c>
       <c r="D142" s="6" t="n">
-        <v>28.99</v>
+        <v>16.79</v>
       </c>
       <c r="E142" s="4" t="n">
         <v>0</v>
@@ -3159,14 +3159,14 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Alice: Madness Returns</t>
+          <t>Call of Duty® 2</t>
         </is>
       </c>
       <c r="B143" s="4" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>13270</v>
+        <v>7129</v>
       </c>
       <c r="D143" s="6" t="n">
         <v>19.99</v>
@@ -3178,17 +3178,17 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Metro 2033 Redux</t>
+          <t>Ghost Watchers</t>
         </is>
       </c>
       <c r="B144" s="4" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>69165</v>
+        <v>10683</v>
       </c>
       <c r="D144" s="6" t="n">
-        <v>19.99</v>
+        <v>12.49</v>
       </c>
       <c r="E144" s="4" t="n">
         <v>0</v>
@@ -3197,17 +3197,17 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Rogue Legacy 2</t>
+          <t>Primal Carnage: Extinction</t>
         </is>
       </c>
       <c r="B145" s="4" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="C145" s="5" t="n">
-        <v>12706</v>
+        <v>7147</v>
       </c>
       <c r="D145" s="6" t="n">
-        <v>24.5</v>
+        <v>12.99</v>
       </c>
       <c r="E145" s="4" t="n">
         <v>0</v>
@@ -3216,17 +3216,17 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Crysis 3 Remastered</t>
+          <t>Zero Hour</t>
         </is>
       </c>
       <c r="B146" s="4" t="n">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C146" s="5" t="n">
-        <v>3055</v>
+        <v>23663</v>
       </c>
       <c r="D146" s="6" t="n">
-        <v>29.99</v>
+        <v>9.99</v>
       </c>
       <c r="E146" s="4" t="n">
         <v>0</v>
@@ -3235,17 +3235,17 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>The Last Campfire</t>
+          <t>Half-Life: Blue Shift</t>
         </is>
       </c>
       <c r="B147" s="4" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="C147" s="5" t="n">
-        <v>6222</v>
+        <v>13106</v>
       </c>
       <c r="D147" s="6" t="n">
-        <v>14.79</v>
+        <v>4.99</v>
       </c>
       <c r="E147" s="4" t="n">
         <v>0</v>
@@ -3254,17 +3254,17 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Half-Life 2: Episode One</t>
+          <t>ISLANDERS</t>
         </is>
       </c>
       <c r="B148" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C148" s="5" t="n">
-        <v>23076</v>
+        <v>14673</v>
       </c>
       <c r="D148" s="6" t="n">
-        <v>7.79</v>
+        <v>4.99</v>
       </c>
       <c r="E148" s="4" t="n">
         <v>0</v>
@@ -3273,17 +3273,17 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Zero Hour</t>
+          <t>Forgive Me Father</t>
         </is>
       </c>
       <c r="B149" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="C149" s="5" t="n">
-        <v>23658</v>
+        <v>1911</v>
       </c>
       <c r="D149" s="6" t="n">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
       <c r="E149" s="4" t="n">
         <v>0</v>
@@ -3292,17 +3292,17 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty® 4: Modern Warfare® (2007)</t>
+          <t>Besiege</t>
         </is>
       </c>
       <c r="B150" s="4" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="C150" s="5" t="n">
-        <v>18152</v>
+        <v>41807</v>
       </c>
       <c r="D150" s="6" t="n">
-        <v>19.99</v>
+        <v>12.99</v>
       </c>
       <c r="E150" s="4" t="n">
         <v>0</v>
@@ -3311,17 +3311,17 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Call of Duty® (2003)</t>
+          <t>DOOM 3</t>
         </is>
       </c>
       <c r="B151" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="C151" s="5" t="n">
-        <v>5371</v>
+        <v>6925</v>
       </c>
       <c r="D151" s="6" t="n">
-        <v>19.99</v>
+        <v>9.99</v>
       </c>
       <c r="E151" s="4" t="n">
         <v>0</v>
@@ -3330,17 +3330,17 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Myst</t>
+          <t>Little Witch in the Woods</t>
         </is>
       </c>
       <c r="B152" s="4" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="C152" s="5" t="n">
-        <v>1122</v>
+        <v>5910</v>
       </c>
       <c r="D152" s="6" t="n">
-        <v>28.99</v>
+        <v>13.29</v>
       </c>
       <c r="E152" s="4" t="n">
         <v>0</v>
@@ -3349,17 +3349,17 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Half-Life 2: Episode Two</t>
+          <t>My Friendly Neighborhood</t>
         </is>
       </c>
       <c r="B153" s="4" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="C153" s="5" t="n">
-        <v>30616</v>
+        <v>1711</v>
       </c>
       <c r="D153" s="6" t="n">
-        <v>6.59</v>
+        <v>28.99</v>
       </c>
       <c r="E153" s="4" t="n">
         <v>0</v>
@@ -3368,17 +3368,17 @@
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Slipways</t>
+          <t>The Room Three</t>
         </is>
       </c>
       <c r="B154" s="4" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="C154" s="5" t="n">
-        <v>1868</v>
+        <v>10056</v>
       </c>
       <c r="D154" s="6" t="n">
-        <v>14.99</v>
+        <v>5.99</v>
       </c>
       <c r="E154" s="4" t="n">
         <v>0</v>
@@ -3387,17 +3387,17 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>DOOM 3</t>
+          <t>FAR: Lone Sails</t>
         </is>
       </c>
       <c r="B155" s="4" t="n">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C155" s="5" t="n">
-        <v>6924</v>
+        <v>15808</v>
       </c>
       <c r="D155" s="6" t="n">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
       <c r="E155" s="4" t="n">
         <v>0</v>
@@ -3406,17 +3406,17 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Metro: Last Light Redux</t>
+          <t>Tricky Towers</t>
         </is>
       </c>
       <c r="B156" s="4" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="C156" s="5" t="n">
-        <v>53041</v>
+        <v>10667</v>
       </c>
       <c r="D156" s="6" t="n">
-        <v>19.99</v>
+        <v>14.99</v>
       </c>
       <c r="E156" s="4" t="n">
         <v>0</v>
@@ -3425,17 +3425,17 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>There Is No Game: Wrong Dimension</t>
+          <t>Pony Island</t>
         </is>
       </c>
       <c r="B157" s="4" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="C157" s="5" t="n">
-        <v>19137</v>
+        <v>12058</v>
       </c>
       <c r="D157" s="6" t="n">
-        <v>12.99</v>
+        <v>4.99</v>
       </c>
       <c r="E157" s="4" t="n">
         <v>0</v>
@@ -3444,17 +3444,17 @@
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>DUSK</t>
+          <t>Quern - Undying Thoughts</t>
         </is>
       </c>
       <c r="B158" s="4" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="C158" s="5" t="n">
-        <v>18138</v>
+        <v>2983</v>
       </c>
       <c r="D158" s="6" t="n">
-        <v>19.5</v>
+        <v>22.99</v>
       </c>
       <c r="E158" s="4" t="n">
         <v>0</v>
@@ -3463,14 +3463,14 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Peggle Deluxe</t>
+          <t>Cube Escape Collection</t>
         </is>
       </c>
       <c r="B159" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C159" s="5" t="n">
-        <v>6010</v>
+        <v>5262</v>
       </c>
       <c r="D159" s="6" t="n">
         <v>4.99</v>
@@ -3482,14 +3482,14 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Spelunky 2</t>
+          <t>Spirit of the North</t>
         </is>
       </c>
       <c r="B160" s="4" t="n">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="C160" s="5" t="n">
-        <v>16387</v>
+        <v>3190</v>
       </c>
       <c r="D160" s="6" t="n">
         <v>16.79</v>
@@ -3501,17 +3501,17 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Underground Blossom</t>
+          <t>Slipways</t>
         </is>
       </c>
       <c r="B161" s="4" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="C161" s="5" t="n">
-        <v>4431</v>
+        <v>1868</v>
       </c>
       <c r="D161" s="6" t="n">
-        <v>4.99</v>
+        <v>14.99</v>
       </c>
       <c r="E161" s="4" t="n">
         <v>0</v>
@@ -3520,17 +3520,17 @@
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Gloomwood</t>
+          <t>Bright Memory: Infinite</t>
         </is>
       </c>
       <c r="B162" s="4" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C162" s="5" t="n">
-        <v>4223</v>
+        <v>33097</v>
       </c>
       <c r="D162" s="6" t="n">
-        <v>19.5</v>
+        <v>16.79</v>
       </c>
       <c r="E162" s="4" t="n">
         <v>0</v>
@@ -3539,17 +3539,17 @@
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>GoreBox</t>
+          <t>The Room</t>
         </is>
       </c>
       <c r="B163" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C163" s="5" t="n">
-        <v>4586</v>
+        <v>24519</v>
       </c>
       <c r="D163" s="6" t="n">
-        <v>7.79</v>
+        <v>4.99</v>
       </c>
       <c r="E163" s="4" t="n">
         <v>0</v>
@@ -3558,17 +3558,17 @@
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Opus Magnum</t>
+          <t>The Last Campfire</t>
         </is>
       </c>
       <c r="B164" s="4" t="n">
         <v>0.97</v>
       </c>
       <c r="C164" s="5" t="n">
-        <v>4359</v>
+        <v>6227</v>
       </c>
       <c r="D164" s="6" t="n">
-        <v>19.5</v>
+        <v>14.79</v>
       </c>
       <c r="E164" s="4" t="n">
         <v>0</v>
@@ -3577,17 +3577,17 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Half-Life: Opposing Force</t>
+          <t>GoreBox</t>
         </is>
       </c>
       <c r="B165" s="4" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="C165" s="5" t="n">
-        <v>17799</v>
+        <v>4625</v>
       </c>
       <c r="D165" s="6" t="n">
-        <v>4.99</v>
+        <v>7.79</v>
       </c>
       <c r="E165" s="4" t="n">
         <v>0</v>
@@ -3596,17 +3596,17 @@
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Broforce</t>
+          <t>HYPERCHARGE: Unboxed</t>
         </is>
       </c>
       <c r="B166" s="4" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="C166" s="5" t="n">
-        <v>45054</v>
+        <v>3232</v>
       </c>
       <c r="D166" s="6" t="n">
-        <v>14.79</v>
+        <v>24.99</v>
       </c>
       <c r="E166" s="4" t="n">
         <v>0</v>
@@ -3615,17 +3615,17 @@
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Pony Island</t>
+          <t>The Sexy Brutale</t>
         </is>
       </c>
       <c r="B167" s="4" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C167" s="5" t="n">
-        <v>12052</v>
+        <v>2313</v>
       </c>
       <c r="D167" s="6" t="n">
-        <v>4.99</v>
+        <v>19.99</v>
       </c>
       <c r="E167" s="4" t="n">
         <v>0</v>
@@ -3634,17 +3634,17 @@
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Operation: Tango</t>
+          <t>Day of Defeat</t>
         </is>
       </c>
       <c r="B168" s="4" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C168" s="5" t="n">
-        <v>5436</v>
+        <v>3928</v>
       </c>
       <c r="D168" s="6" t="n">
-        <v>16.99</v>
+        <v>4.99</v>
       </c>
       <c r="E168" s="4" t="n">
         <v>0</v>
@@ -3653,17 +3653,17 @@
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Half-Life: Blue Shift</t>
+          <t>The Entropy Centre</t>
         </is>
       </c>
       <c r="B169" s="4" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="C169" s="5" t="n">
-        <v>13100</v>
+        <v>1932</v>
       </c>
       <c r="D169" s="6" t="n">
-        <v>4.99</v>
+        <v>24.99</v>
       </c>
       <c r="E169" s="4" t="n">
         <v>0</v>
@@ -3672,17 +3672,17 @@
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>The Room Three</t>
+          <t>Prodeus</t>
         </is>
       </c>
       <c r="B170" s="4" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="C170" s="5" t="n">
-        <v>10055</v>
+        <v>4679</v>
       </c>
       <c r="D170" s="6" t="n">
-        <v>5.99</v>
+        <v>24.99</v>
       </c>
       <c r="E170" s="4" t="n">
         <v>0</v>
@@ -3691,17 +3691,17 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>The Room 4: Old Sins</t>
+          <t>7 Billion Humans</t>
         </is>
       </c>
       <c r="B171" s="4" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="C171" s="5" t="n">
-        <v>13157</v>
+        <v>1511</v>
       </c>
       <c r="D171" s="6" t="n">
-        <v>8.49</v>
+        <v>14.79</v>
       </c>
       <c r="E171" s="4" t="n">
         <v>0</v>
@@ -3710,17 +3710,17 @@
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>DOOM II</t>
+          <t>LIMBO</t>
         </is>
       </c>
       <c r="B172" s="4" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C172" s="5" t="n">
-        <v>6990</v>
+        <v>29824</v>
       </c>
       <c r="D172" s="6" t="n">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="E172" s="4" t="n">
         <v>0</v>
@@ -3729,17 +3729,17 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Tick Tock: A Tale for Two</t>
+          <t>Fran Bow</t>
         </is>
       </c>
       <c r="B173" s="4" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="C173" s="5" t="n">
-        <v>8169</v>
+        <v>13621</v>
       </c>
       <c r="D173" s="6" t="n">
-        <v>4.99</v>
+        <v>14.99</v>
       </c>
       <c r="E173" s="4" t="n">
         <v>0</v>
@@ -3748,17 +3748,17 @@
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Besiege</t>
+          <t>Rising Storm 2: Vietnam</t>
         </is>
       </c>
       <c r="B174" s="4" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="C174" s="5" t="n">
-        <v>41805</v>
+        <v>37330</v>
       </c>
       <c r="D174" s="6" t="n">
-        <v>12.99</v>
+        <v>22.99</v>
       </c>
       <c r="E174" s="4" t="n">
         <v>0</v>
@@ -3767,17 +3767,17 @@
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Little Inferno</t>
+          <t>Tomb Raider: Legend</t>
         </is>
       </c>
       <c r="B175" s="4" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="C175" s="5" t="n">
-        <v>7432</v>
+        <v>4086</v>
       </c>
       <c r="D175" s="6" t="n">
-        <v>14.79</v>
+        <v>6.99</v>
       </c>
       <c r="E175" s="4" t="n">
         <v>0</v>
@@ -3786,17 +3786,17 @@
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>Mini Metro</t>
+          <t>Far Cry 3 - Blood Dragon</t>
         </is>
       </c>
       <c r="B176" s="4" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="C176" s="5" t="n">
-        <v>10712</v>
+        <v>14671</v>
       </c>
       <c r="D176" s="6" t="n">
-        <v>8.19</v>
+        <v>14.99</v>
       </c>
       <c r="E176" s="4" t="n">
         <v>0</v>
@@ -3805,17 +3805,17 @@
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>A Castle Full of Cats</t>
+          <t>F.E.A.R. 2: Project Origin</t>
         </is>
       </c>
       <c r="B177" s="4" t="n">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="C177" s="5" t="n">
-        <v>2459</v>
+        <v>4069</v>
       </c>
       <c r="D177" s="6" t="n">
-        <v>2.98</v>
+        <v>14.99</v>
       </c>
       <c r="E177" s="4" t="n">
         <v>0</v>
@@ -3824,17 +3824,17 @@
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Tom Clancy's Rainbow Six® Vegas 2</t>
+          <t>DOOM II</t>
         </is>
       </c>
       <c r="B178" s="4" t="n">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="C178" s="5" t="n">
-        <v>4516</v>
+        <v>6989</v>
       </c>
       <c r="D178" s="6" t="n">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="E178" s="4" t="n">
         <v>0</v>
@@ -3843,17 +3843,17 @@
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>HYPER DEMON</t>
+          <t>Rusty Lake: Roots</t>
         </is>
       </c>
       <c r="B179" s="4" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C179" s="5" t="n">
-        <v>1948</v>
+        <v>5791</v>
       </c>
       <c r="D179" s="6" t="n">
-        <v>12.49</v>
+        <v>3.99</v>
       </c>
       <c r="E179" s="4" t="n">
         <v>0</v>
@@ -3862,17 +3862,17 @@
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>My Friendly Neighborhood</t>
+          <t>Ion Fury</t>
         </is>
       </c>
       <c r="B180" s="4" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="C180" s="5" t="n">
-        <v>1708</v>
+        <v>5031</v>
       </c>
       <c r="D180" s="6" t="n">
-        <v>28.99</v>
+        <v>24.99</v>
       </c>
       <c r="E180" s="4" t="n">
         <v>0</v>
@@ -3881,17 +3881,17 @@
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Tricky Towers</t>
+          <t>Peggle™ Nights</t>
         </is>
       </c>
       <c r="B181" s="4" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="C181" s="5" t="n">
-        <v>10660</v>
+        <v>1604</v>
       </c>
       <c r="D181" s="6" t="n">
-        <v>14.99</v>
+        <v>4.99</v>
       </c>
       <c r="E181" s="4" t="n">
         <v>0</v>
@@ -3900,17 +3900,17 @@
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>FAR: Lone Sails</t>
+          <t>Opus Magnum</t>
         </is>
       </c>
       <c r="B182" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C182" s="5" t="n">
-        <v>15807</v>
+        <v>4359</v>
       </c>
       <c r="D182" s="6" t="n">
-        <v>14.99</v>
+        <v>19.5</v>
       </c>
       <c r="E182" s="4" t="n">
         <v>0</v>
@@ -3919,14 +3919,14 @@
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Rayman® Origins</t>
+          <t>Tom Clancy's Rainbow Six® Vegas 2</t>
         </is>
       </c>
       <c r="B183" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="C183" s="5" t="n">
-        <v>3757</v>
+        <v>4516</v>
       </c>
       <c r="D183" s="6" t="n">
         <v>9.99</v>
@@ -3938,17 +3938,17 @@
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Spirit of the North</t>
+          <t>The Room Two</t>
         </is>
       </c>
       <c r="B184" s="4" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="C184" s="5" t="n">
-        <v>3186</v>
+        <v>16996</v>
       </c>
       <c r="D184" s="6" t="n">
-        <v>16.79</v>
+        <v>4.99</v>
       </c>
       <c r="E184" s="4" t="n">
         <v>0</v>
@@ -3957,17 +3957,17 @@
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Bright Memory: Infinite</t>
+          <t>Quake II</t>
         </is>
       </c>
       <c r="B185" s="4" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C185" s="5" t="n">
-        <v>33096</v>
+        <v>6332</v>
       </c>
       <c r="D185" s="6" t="n">
-        <v>16.79</v>
+        <v>9.99</v>
       </c>
       <c r="E185" s="4" t="n">
         <v>0</v>
@@ -3976,17 +3976,17 @@
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Day of Defeat</t>
+          <t>Rusty Lake Paradise</t>
         </is>
       </c>
       <c r="B186" s="4" t="n">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="C186" s="5" t="n">
-        <v>3927</v>
+        <v>4142</v>
       </c>
       <c r="D186" s="6" t="n">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="E186" s="4" t="n">
         <v>0</v>
@@ -3995,17 +3995,17 @@
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>BattleBlock Theater®</t>
+          <t>Carto</t>
         </is>
       </c>
       <c r="B187" s="4" t="n">
         <v>0.97</v>
       </c>
       <c r="C187" s="5" t="n">
-        <v>52844</v>
+        <v>5381</v>
       </c>
       <c r="D187" s="6" t="n">
-        <v>14.99</v>
+        <v>19.99</v>
       </c>
       <c r="E187" s="4" t="n">
         <v>0</v>
@@ -4014,17 +4014,17 @@
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>Wolfenstein: The Old Blood</t>
+          <t>Syberia</t>
         </is>
       </c>
       <c r="B188" s="4" t="n">
         <v>0.89</v>
       </c>
       <c r="C188" s="5" t="n">
-        <v>13342</v>
+        <v>3231</v>
       </c>
       <c r="D188" s="6" t="n">
-        <v>19.99</v>
+        <v>12.99</v>
       </c>
       <c r="E188" s="4" t="n">
         <v>0</v>
@@ -4033,17 +4033,17 @@
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>The Entropy Centre</t>
+          <t>Poly Bridge 2</t>
         </is>
       </c>
       <c r="B189" s="4" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C189" s="5" t="n">
-        <v>1929</v>
+        <v>6767</v>
       </c>
       <c r="D189" s="6" t="n">
-        <v>24.99</v>
+        <v>12.49</v>
       </c>
       <c r="E189" s="4" t="n">
         <v>0</v>
@@ -4052,17 +4052,17 @@
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>Rising Storm 2: Vietnam</t>
+          <t>Pikuniku</t>
         </is>
       </c>
       <c r="B190" s="4" t="n">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="C190" s="5" t="n">
-        <v>37332</v>
+        <v>6772</v>
       </c>
       <c r="D190" s="6" t="n">
-        <v>22.99</v>
+        <v>12.79</v>
       </c>
       <c r="E190" s="4" t="n">
         <v>0</v>
@@ -4071,17 +4071,17 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Ion Fury</t>
+          <t>CULTIC</t>
         </is>
       </c>
       <c r="B191" s="4" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="C191" s="5" t="n">
-        <v>5031</v>
+        <v>4864</v>
       </c>
       <c r="D191" s="6" t="n">
-        <v>24.99</v>
+        <v>9.75</v>
       </c>
       <c r="E191" s="4" t="n">
         <v>0</v>
@@ -4090,17 +4090,17 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Fran Bow</t>
+          <t>Wolfenstein 3D</t>
         </is>
       </c>
       <c r="B192" s="4" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C192" s="5" t="n">
-        <v>13617</v>
+        <v>2971</v>
       </c>
       <c r="D192" s="6" t="n">
-        <v>14.99</v>
+        <v>4.99</v>
       </c>
       <c r="E192" s="4" t="n">
         <v>0</v>
@@ -4109,17 +4109,17 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Prodeus</t>
+          <t>Patrick's Parabox</t>
         </is>
       </c>
       <c r="B193" s="4" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C193" s="5" t="n">
-        <v>4680</v>
+        <v>2814</v>
       </c>
       <c r="D193" s="6" t="n">
-        <v>24.99</v>
+        <v>19.5</v>
       </c>
       <c r="E193" s="4" t="n">
         <v>0</v>
@@ -4128,17 +4128,17 @@
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Return to Castle Wolfenstein</t>
+          <t>Call of the Sea</t>
         </is>
       </c>
       <c r="B194" s="4" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="C194" s="5" t="n">
-        <v>6468</v>
+        <v>2891</v>
       </c>
       <c r="D194" s="6" t="n">
-        <v>4.99</v>
+        <v>19.99</v>
       </c>
       <c r="E194" s="4" t="n">
         <v>0</v>
@@ -4147,17 +4147,17 @@
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>HYPERCHARGE: Unboxed</t>
+          <t>Far Cry®</t>
         </is>
       </c>
       <c r="B195" s="4" t="n">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="C195" s="5" t="n">
-        <v>3232</v>
+        <v>7868</v>
       </c>
       <c r="D195" s="6" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="E195" s="4" t="n">
         <v>0</v>
@@ -4166,17 +4166,17 @@
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Far Cry 3 - Blood Dragon</t>
+          <t>Return to Castle Wolfenstein</t>
         </is>
       </c>
       <c r="B196" s="4" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="C196" s="5" t="n">
-        <v>14671</v>
+        <v>6468</v>
       </c>
       <c r="D196" s="6" t="n">
-        <v>14.99</v>
+        <v>4.99</v>
       </c>
       <c r="E196" s="4" t="n">
         <v>0</v>
@@ -4185,17 +4185,17 @@
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Primal Carnage: Extinction</t>
+          <t>Amanda the Adventurer</t>
         </is>
       </c>
       <c r="B197" s="4" t="n">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="C197" s="5" t="n">
-        <v>7148</v>
+        <v>4097</v>
       </c>
       <c r="D197" s="6" t="n">
-        <v>12.99</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E197" s="4" t="n">
         <v>0</v>
@@ -4204,17 +4204,17 @@
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Rusty Lake: Roots</t>
+          <t>Quake III Arena</t>
         </is>
       </c>
       <c r="B198" s="4" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C198" s="5" t="n">
-        <v>5788</v>
+        <v>2843</v>
       </c>
       <c r="D198" s="6" t="n">
-        <v>3.99</v>
+        <v>14.99</v>
       </c>
       <c r="E198" s="4" t="n">
         <v>0</v>
@@ -4223,17 +4223,17 @@
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>F.E.A.R. 2: Project Origin</t>
+          <t>STASIS: BONE TOTEM</t>
         </is>
       </c>
       <c r="B199" s="4" t="n">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="C199" s="5" t="n">
-        <v>4065</v>
+        <v>1038</v>
       </c>
       <c r="D199" s="6" t="n">
-        <v>14.99</v>
+        <v>19.5</v>
       </c>
       <c r="E199" s="4" t="n">
         <v>0</v>
@@ -4242,14 +4242,14 @@
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>The Messenger</t>
+          <t>Weed Shop 3</t>
         </is>
       </c>
       <c r="B200" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C200" s="5" t="n">
-        <v>7852</v>
+        <v>3311</v>
       </c>
       <c r="D200" s="6" t="n">
         <v>19.5</v>
@@ -4261,17 +4261,17 @@
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Zuma Deluxe</t>
+          <t>STAR WARS™ Jedi Knight II - Jedi Outcast™</t>
         </is>
       </c>
       <c r="B201" s="4" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="C201" s="5" t="n">
-        <v>3584</v>
+        <v>3575</v>
       </c>
       <c r="D201" s="6" t="n">
-        <v>4.99</v>
+        <v>9.75</v>
       </c>
       <c r="E201" s="4" t="n">
         <v>0</v>
@@ -4280,17 +4280,17 @@
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>30XX</t>
+          <t>Gorogoa</t>
         </is>
       </c>
       <c r="B202" s="4" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="C202" s="5" t="n">
-        <v>1802</v>
+        <v>14476</v>
       </c>
       <c r="D202" s="6" t="n">
-        <v>19.5</v>
+        <v>13.99</v>
       </c>
       <c r="E202" s="4" t="n">
         <v>0</v>
@@ -4299,17 +4299,17 @@
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Sherlock Holmes: Crimes and Punishments</t>
+          <t>HYPER DEMON</t>
         </is>
       </c>
       <c r="B203" s="4" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C203" s="5" t="n">
-        <v>5576</v>
+        <v>1947</v>
       </c>
       <c r="D203" s="6" t="n">
-        <v>29.99</v>
+        <v>12.49</v>
       </c>
       <c r="E203" s="4" t="n">
         <v>0</v>
@@ -4318,17 +4318,17 @@
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Sonic Adventure 2</t>
+          <t>Unravel</t>
         </is>
       </c>
       <c r="B204" s="4" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="C204" s="5" t="n">
-        <v>15573</v>
+        <v>3282</v>
       </c>
       <c r="D204" s="6" t="n">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
       <c r="E204" s="4" t="n">
         <v>0</v>
@@ -4337,17 +4337,17 @@
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>S.T.A.L.K.E.R.: Call of Pripyat</t>
+          <t>Tick Tock: A Tale for Two</t>
         </is>
       </c>
       <c r="B205" s="4" t="n">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="C205" s="5" t="n">
-        <v>20615</v>
+        <v>8170</v>
       </c>
       <c r="D205" s="6" t="n">
-        <v>19.99</v>
+        <v>4.99</v>
       </c>
       <c r="E205" s="4" t="n">
         <v>0</v>
@@ -4356,17 +4356,17 @@
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Neon Abyss</t>
+          <t>The White Door</t>
         </is>
       </c>
       <c r="B206" s="4" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="C206" s="5" t="n">
-        <v>18097</v>
+        <v>5025</v>
       </c>
       <c r="D206" s="6" t="n">
-        <v>19.99</v>
+        <v>3.99</v>
       </c>
       <c r="E206" s="4" t="n">
         <v>0</v>
@@ -4375,17 +4375,17 @@
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>LIMBO</t>
+          <t>Death and Taxes</t>
         </is>
       </c>
       <c r="B207" s="4" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="C207" s="5" t="n">
-        <v>29815</v>
+        <v>4539</v>
       </c>
       <c r="D207" s="6" t="n">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
       <c r="E207" s="4" t="n">
         <v>0</v>
@@ -4394,17 +4394,17 @@
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>DOOM 64</t>
+          <t>LEGO® Builder's Journey</t>
         </is>
       </c>
       <c r="B208" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="C208" s="5" t="n">
-        <v>5910</v>
+        <v>3087</v>
       </c>
       <c r="D208" s="6" t="n">
-        <v>4.99</v>
+        <v>16.99</v>
       </c>
       <c r="E208" s="4" t="n">
         <v>0</v>
@@ -4413,17 +4413,17 @@
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>Quake II</t>
+          <t>Blazing Sails</t>
         </is>
       </c>
       <c r="B209" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="C209" s="5" t="n">
-        <v>6331</v>
+        <v>6440</v>
       </c>
       <c r="D209" s="6" t="n">
-        <v>9.99</v>
+        <v>14.79</v>
       </c>
       <c r="E209" s="4" t="n">
         <v>0</v>
@@ -4432,17 +4432,17 @@
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>Prince of Persia®: The Sands of Time</t>
+          <t>AMID EVIL</t>
         </is>
       </c>
       <c r="B210" s="4" t="n">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C210" s="5" t="n">
-        <v>3316</v>
+        <v>5618</v>
       </c>
       <c r="D210" s="6" t="n">
-        <v>9.99</v>
+        <v>19.5</v>
       </c>
       <c r="E210" s="4" t="n">
         <v>0</v>
@@ -4451,17 +4451,17 @@
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>Sonic Mania</t>
+          <t>Cats Hidden in Italy</t>
         </is>
       </c>
       <c r="B211" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C211" s="5" t="n">
-        <v>19703</v>
+        <v>1172</v>
       </c>
       <c r="D211" s="6" t="n">
-        <v>19.99</v>
+        <v>0.99</v>
       </c>
       <c r="E211" s="4" t="n">
         <v>0</v>
@@ -4470,17 +4470,17 @@
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>CULTIC</t>
+          <t>Machinarium</t>
         </is>
       </c>
       <c r="B212" s="4" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="C212" s="5" t="n">
-        <v>4861</v>
+        <v>11160</v>
       </c>
       <c r="D212" s="6" t="n">
-        <v>9.75</v>
+        <v>19.99</v>
       </c>
       <c r="E212" s="4" t="n">
         <v>0</v>
@@ -4489,17 +4489,17 @@
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>Pikuniku</t>
+          <t>Quake</t>
         </is>
       </c>
       <c r="B213" s="4" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C213" s="5" t="n">
-        <v>6768</v>
+        <v>10971</v>
       </c>
       <c r="D213" s="6" t="n">
-        <v>12.79</v>
+        <v>9.99</v>
       </c>
       <c r="E213" s="4" t="n">
         <v>0</v>
@@ -4508,17 +4508,17 @@
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>Carto</t>
+          <t>Leisure Suit Larry - Wet Dreams Don't Dry</t>
         </is>
       </c>
       <c r="B214" s="4" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="C214" s="5" t="n">
-        <v>5377</v>
+        <v>1090</v>
       </c>
       <c r="D214" s="6" t="n">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="E214" s="4" t="n">
         <v>0</v>
@@ -4527,17 +4527,17 @@
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>Unravel</t>
+          <t>TIS-100</t>
         </is>
       </c>
       <c r="B215" s="4" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="C215" s="5" t="n">
-        <v>3281</v>
+        <v>3012</v>
       </c>
       <c r="D215" s="6" t="n">
-        <v>19.99</v>
+        <v>6.89</v>
       </c>
       <c r="E215" s="4" t="n">
         <v>0</v>
@@ -4546,17 +4546,17 @@
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>Cube Escape Collection</t>
+          <t>Duke Nukem 3D: 20th Anniversary World Tour</t>
         </is>
       </c>
       <c r="B216" s="4" t="n">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="C216" s="5" t="n">
-        <v>5261</v>
+        <v>3782</v>
       </c>
       <c r="D216" s="6" t="n">
-        <v>4.99</v>
+        <v>19.99</v>
       </c>
       <c r="E216" s="4" t="n">
         <v>0</v>
@@ -4565,17 +4565,17 @@
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>Unravel</t>
+          <t>Deus Ex: Game of the Year Edition</t>
         </is>
       </c>
       <c r="B217" s="4" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C217" s="5" t="n">
-        <v>3281</v>
+        <v>11607</v>
       </c>
       <c r="D217" s="6" t="n">
-        <v>19.99</v>
+        <v>6.99</v>
       </c>
       <c r="E217" s="4" t="n">
         <v>0</v>
@@ -4584,17 +4584,17 @@
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>Cube Escape Collection</t>
+          <t>Cats Organized Neatly</t>
         </is>
       </c>
       <c r="B218" s="4" t="n">
         <v>0.98</v>
       </c>
       <c r="C218" s="5" t="n">
-        <v>5261</v>
+        <v>3224</v>
       </c>
       <c r="D218" s="6" t="n">
-        <v>4.99</v>
+        <v>2.49</v>
       </c>
       <c r="E218" s="4" t="n">
         <v>0</v>
@@ -4603,17 +4603,17 @@
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>Poly Bridge 2</t>
+          <t>Rusty Lake Hotel</t>
         </is>
       </c>
       <c r="B219" s="4" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C219" s="5" t="n">
-        <v>6767</v>
+        <v>4785</v>
       </c>
       <c r="D219" s="6" t="n">
-        <v>12.49</v>
+        <v>1.99</v>
       </c>
       <c r="E219" s="4" t="n">
         <v>0</v>
@@ -4622,17 +4622,17 @@
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>Call of the Sea</t>
+          <t>STAR WARS™ Battlefront (Classic, 2004)</t>
         </is>
       </c>
       <c r="B220" s="4" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="C220" s="5" t="n">
-        <v>2892</v>
+        <v>3464</v>
       </c>
       <c r="D220" s="6" t="n">
-        <v>19.99</v>
+        <v>9.75</v>
       </c>
       <c r="E220" s="4" t="n">
         <v>0</v>
@@ -4641,17 +4641,17 @@
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>Quake Live</t>
+          <t>Trine 2: Complete Story</t>
         </is>
       </c>
       <c r="B221" s="4" t="n">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="C221" s="5" t="n">
-        <v>3575</v>
+        <v>14558</v>
       </c>
       <c r="D221" s="6" t="n">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
       <c r="E221" s="4" t="n">
         <v>0</v>
@@ -4660,17 +4660,17 @@
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>Far Cry®</t>
+          <t>Severed Steel</t>
         </is>
       </c>
       <c r="B222" s="4" t="n">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="C222" s="5" t="n">
-        <v>7865</v>
+        <v>3078</v>
       </c>
       <c r="D222" s="6" t="n">
-        <v>9.99</v>
+        <v>20.99</v>
       </c>
       <c r="E222" s="4" t="n">
         <v>0</v>
@@ -4679,17 +4679,17 @@
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>Patrick's Parabox</t>
+          <t>ATOM RPG: Post-apocalyptic indie game</t>
         </is>
       </c>
       <c r="B223" s="4" t="n">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="C223" s="5" t="n">
-        <v>2810</v>
+        <v>8577</v>
       </c>
       <c r="D223" s="6" t="n">
-        <v>19.5</v>
+        <v>14.99</v>
       </c>
       <c r="E223" s="4" t="n">
         <v>0</v>
@@ -4698,17 +4698,17 @@
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>Weed Shop 3</t>
+          <t>Zuma Deluxe</t>
         </is>
       </c>
       <c r="B224" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C224" s="5" t="n">
-        <v>3307</v>
+        <v>3586</v>
       </c>
       <c r="D224" s="6" t="n">
-        <v>19.5</v>
+        <v>4.99</v>
       </c>
       <c r="E224" s="4" t="n">
         <v>0</v>
@@ -4717,17 +4717,17 @@
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>Sam &amp; Max Save the World</t>
+          <t>Birth</t>
         </is>
       </c>
       <c r="B225" s="4" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="C225" s="5" t="n">
-        <v>1224</v>
+        <v>1679</v>
       </c>
       <c r="D225" s="6" t="n">
-        <v>16.79</v>
+        <v>8.99</v>
       </c>
       <c r="E225" s="4" t="n">
         <v>0</v>
@@ -4736,17 +4736,17 @@
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>Wolfenstein 3D</t>
+          <t>The Pedestrian</t>
         </is>
       </c>
       <c r="B226" s="4" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C226" s="5" t="n">
-        <v>2971</v>
+        <v>3594</v>
       </c>
       <c r="D226" s="6" t="n">
-        <v>4.99</v>
+        <v>19.5</v>
       </c>
       <c r="E226" s="4" t="n">
         <v>0</v>
@@ -4755,17 +4755,17 @@
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>ISLANDERS</t>
+          <t>Tinykin</t>
         </is>
       </c>
       <c r="B227" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C227" s="5" t="n">
-        <v>14671</v>
+        <v>1201</v>
       </c>
       <c r="D227" s="6" t="n">
-        <v>4.99</v>
+        <v>24.5</v>
       </c>
       <c r="E227" s="4" t="n">
         <v>0</v>
@@ -4774,17 +4774,17 @@
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>Röki</t>
+          <t>Orb of Creation</t>
         </is>
       </c>
       <c r="B228" s="4" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="C228" s="5" t="n">
-        <v>1858</v>
+        <v>1009</v>
       </c>
       <c r="D228" s="6" t="n">
-        <v>21.99</v>
+        <v>3.99</v>
       </c>
       <c r="E228" s="4" t="n">
         <v>0</v>
@@ -4793,17 +4793,17 @@
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>Amanda the Adventurer</t>
+          <t>DOOM 64</t>
         </is>
       </c>
       <c r="B229" s="4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C229" s="5" t="n">
-        <v>4095</v>
+        <v>5911</v>
       </c>
       <c r="D229" s="6" t="n">
-        <v>8.789999999999999</v>
+        <v>4.99</v>
       </c>
       <c r="E229" s="4" t="n">
         <v>0</v>
@@ -4812,17 +4812,17 @@
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>Gorogoa</t>
+          <t>BPM: BULLETS PER MINUTE</t>
         </is>
       </c>
       <c r="B230" s="4" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="C230" s="5" t="n">
-        <v>14469</v>
+        <v>8767</v>
       </c>
       <c r="D230" s="6" t="n">
-        <v>13.99</v>
+        <v>19.5</v>
       </c>
       <c r="E230" s="4" t="n">
         <v>0</v>
@@ -4831,17 +4831,17 @@
     <row r="231">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>The House of Da Vinci 2</t>
+          <t>Shadow Warrior 2</t>
         </is>
       </c>
       <c r="B231" s="4" t="n">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="C231" s="5" t="n">
-        <v>1448</v>
+        <v>21769</v>
       </c>
       <c r="D231" s="6" t="n">
-        <v>19.99</v>
+        <v>28.99</v>
       </c>
       <c r="E231" s="4" t="n">
         <v>0</v>
@@ -4850,14 +4850,14 @@
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>AMID EVIL</t>
+          <t>Amnesia: The Dark Descent</t>
         </is>
       </c>
       <c r="B232" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C232" s="5" t="n">
-        <v>5616</v>
+        <v>17481</v>
       </c>
       <c r="D232" s="6" t="n">
         <v>19.5</v>
@@ -4869,17 +4869,17 @@
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>The House of Da Vinci</t>
+          <t>Sherlock Holmes: Crimes and Punishments</t>
         </is>
       </c>
       <c r="B233" s="4" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="C233" s="5" t="n">
-        <v>4796</v>
+        <v>5575</v>
       </c>
       <c r="D233" s="6" t="n">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="E233" s="4" t="n">
         <v>0</v>
@@ -4888,17 +4888,17 @@
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>Blazing Sails</t>
+          <t>Monument Valley: Panoramic Edition</t>
         </is>
       </c>
       <c r="B234" s="4" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="C234" s="5" t="n">
-        <v>6439</v>
+        <v>2529</v>
       </c>
       <c r="D234" s="6" t="n">
-        <v>14.79</v>
+        <v>6.99</v>
       </c>
       <c r="E234" s="4" t="n">
         <v>0</v>
@@ -4907,17 +4907,17 @@
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>Sonic Generations Collection</t>
+          <t>Train Valley 2</t>
         </is>
       </c>
       <c r="B235" s="4" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="C235" s="5" t="n">
-        <v>17952</v>
+        <v>1865</v>
       </c>
       <c r="D235" s="6" t="n">
-        <v>19.99</v>
+        <v>12.49</v>
       </c>
       <c r="E235" s="4" t="n">
         <v>0</v>
@@ -4926,17 +4926,17 @@
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>Peggle™ Nights</t>
+          <t>Void Bastards</t>
         </is>
       </c>
       <c r="B236" s="4" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="C236" s="5" t="n">
-        <v>1602</v>
+        <v>3573</v>
       </c>
       <c r="D236" s="6" t="n">
-        <v>4.99</v>
+        <v>29.99</v>
       </c>
       <c r="E236" s="4" t="n">
         <v>0</v>
@@ -4945,17 +4945,17 @@
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>Rusty Lake Paradise</t>
+          <t>Medal of Honor™</t>
         </is>
       </c>
       <c r="B237" s="4" t="n">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C237" s="5" t="n">
-        <v>4141</v>
+        <v>5038</v>
       </c>
       <c r="D237" s="6" t="n">
-        <v>3.99</v>
+        <v>19.99</v>
       </c>
       <c r="E237" s="4" t="n">
         <v>0</v>
@@ -4964,17 +4964,17 @@
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>LEGO® Builder's Journey</t>
+          <t>Scribblenauts Unlimited</t>
         </is>
       </c>
       <c r="B238" s="4" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="C238" s="5" t="n">
-        <v>3087</v>
+        <v>7058</v>
       </c>
       <c r="D238" s="6" t="n">
-        <v>16.99</v>
+        <v>19.99</v>
       </c>
       <c r="E238" s="4" t="n">
         <v>0</v>
@@ -4983,17 +4983,17 @@
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>Machinarium</t>
+          <t>Monkey Island™ 2 Special Edition: LeChuck’s Revenge™</t>
         </is>
       </c>
       <c r="B239" s="4" t="n">
         <v>0.95</v>
       </c>
       <c r="C239" s="5" t="n">
-        <v>11155</v>
+        <v>2232</v>
       </c>
       <c r="D239" s="6" t="n">
-        <v>19.99</v>
+        <v>9.75</v>
       </c>
       <c r="E239" s="4" t="n">
         <v>0</v>
@@ -5002,17 +5002,17 @@
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>Death and Taxes</t>
+          <t>Antichamber</t>
         </is>
       </c>
       <c r="B240" s="4" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="C240" s="5" t="n">
-        <v>4534</v>
+        <v>12371</v>
       </c>
       <c r="D240" s="6" t="n">
-        <v>11.99</v>
+        <v>18.99</v>
       </c>
       <c r="E240" s="4" t="n">
         <v>0</v>
@@ -5021,17 +5021,17 @@
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>Cats Hidden in Italy</t>
+          <t>Hidden Folks</t>
         </is>
       </c>
       <c r="B241" s="4" t="n">
         <v>0.97</v>
       </c>
       <c r="C241" s="5" t="n">
-        <v>1171</v>
+        <v>7064</v>
       </c>
       <c r="D241" s="6" t="n">
-        <v>0.99</v>
+        <v>14.99</v>
       </c>
       <c r="E241" s="4" t="n">
         <v>0</v>
@@ -5040,17 +5040,17 @@
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>Prison Simulator</t>
+          <t>Kindergarten 2</t>
         </is>
       </c>
       <c r="B242" s="4" t="n">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="C242" s="5" t="n">
-        <v>1710</v>
+        <v>3764</v>
       </c>
       <c r="D242" s="6" t="n">
-        <v>16.79</v>
+        <v>12.49</v>
       </c>
       <c r="E242" s="4" t="n">
         <v>0</v>
@@ -5059,17 +5059,17 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>Dude, Stop</t>
+          <t>HROT</t>
         </is>
       </c>
       <c r="B243" s="4" t="n">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="C243" s="5" t="n">
-        <v>1916</v>
+        <v>3653</v>
       </c>
       <c r="D243" s="6" t="n">
-        <v>12.99</v>
+        <v>16.79</v>
       </c>
       <c r="E243" s="4" t="n">
         <v>0</v>
@@ -5078,14 +5078,14 @@
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>Duke Nukem 3D: 20th Anniversary World Tour</t>
+          <t>Creaks</t>
         </is>
       </c>
       <c r="B244" s="4" t="n">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="C244" s="5" t="n">
-        <v>3783</v>
+        <v>3176</v>
       </c>
       <c r="D244" s="6" t="n">
         <v>19.99</v>
@@ -5097,17 +5097,17 @@
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>Bejeweled® 3</t>
+          <t>EXAPUNKS</t>
         </is>
       </c>
       <c r="B245" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="C245" s="5" t="n">
-        <v>4296</v>
+        <v>1164</v>
       </c>
       <c r="D245" s="6" t="n">
-        <v>4.99</v>
+        <v>19.5</v>
       </c>
       <c r="E245" s="4" t="n">
         <v>0</v>
@@ -5116,17 +5116,17 @@
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>Medal of Honor™</t>
+          <t>Aliens vs. Predator™</t>
         </is>
       </c>
       <c r="B246" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C246" s="5" t="n">
-        <v>5037</v>
+        <v>13055</v>
       </c>
       <c r="D246" s="6" t="n">
-        <v>19.99</v>
+        <v>14.99</v>
       </c>
       <c r="E246" s="4" t="n">
         <v>0</v>
@@ -5135,17 +5135,17 @@
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>Spark the Electric Jester 3</t>
+          <t>Poly Bridge</t>
         </is>
       </c>
       <c r="B247" s="4" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="C247" s="5" t="n">
-        <v>1367</v>
+        <v>14887</v>
       </c>
       <c r="D247" s="6" t="n">
-        <v>20.99</v>
+        <v>8.19</v>
       </c>
       <c r="E247" s="4" t="n">
         <v>0</v>
@@ -5154,17 +5154,17 @@
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>Little Witch in the Woods</t>
+          <t>Deus Ex: Human Revolution - Director's Cut</t>
         </is>
       </c>
       <c r="B248" s="4" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C248" s="5" t="n">
-        <v>5909</v>
+        <v>22349</v>
       </c>
       <c r="D248" s="6" t="n">
-        <v>13.29</v>
+        <v>19.99</v>
       </c>
       <c r="E248" s="4" t="n">
         <v>0</v>
@@ -5173,17 +5173,17 @@
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>Tinykin</t>
+          <t>STAR WARS™ Republic Commando™</t>
         </is>
       </c>
       <c r="B249" s="4" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="C249" s="5" t="n">
-        <v>1200</v>
+        <v>12526</v>
       </c>
       <c r="D249" s="6" t="n">
-        <v>24.5</v>
+        <v>9.75</v>
       </c>
       <c r="E249" s="4" t="n">
         <v>0</v>
@@ -5192,17 +5192,17 @@
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>Severed Steel</t>
+          <t>Killing Floor</t>
         </is>
       </c>
       <c r="B250" s="4" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C250" s="5" t="n">
-        <v>3077</v>
+        <v>36711</v>
       </c>
       <c r="D250" s="6" t="n">
-        <v>20.99</v>
+        <v>19.99</v>
       </c>
       <c r="E250" s="4" t="n">
         <v>0</v>
@@ -5211,17 +5211,17 @@
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>Birth</t>
+          <t>Changed</t>
         </is>
       </c>
       <c r="B251" s="4" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="C251" s="5" t="n">
-        <v>1679</v>
+        <v>12561</v>
       </c>
       <c r="D251" s="6" t="n">
-        <v>8.99</v>
+        <v>4.99</v>
       </c>
       <c r="E251" s="4" t="n">
         <v>0</v>
@@ -5230,17 +5230,17 @@
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>Trine Enchanted Edition</t>
+          <t>The Painscreek Killings</t>
         </is>
       </c>
       <c r="B252" s="4" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="C252" s="5" t="n">
-        <v>11646</v>
+        <v>3454</v>
       </c>
       <c r="D252" s="6" t="n">
-        <v>14.99</v>
+        <v>19.99</v>
       </c>
       <c r="E252" s="4" t="n">
         <v>0</v>
@@ -5249,14 +5249,14 @@
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>Quake</t>
+          <t>FEZ</t>
         </is>
       </c>
       <c r="B253" s="4" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="C253" s="5" t="n">
-        <v>10967</v>
+        <v>9970</v>
       </c>
       <c r="D253" s="6" t="n">
         <v>9.99</v>
@@ -5268,17 +5268,17 @@
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>I'm on Observation Duty</t>
+          <t>Quake 4</t>
         </is>
       </c>
       <c r="B254" s="4" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="C254" s="5" t="n">
-        <v>1483</v>
+        <v>2296</v>
       </c>
       <c r="D254" s="6" t="n">
-        <v>2.99</v>
+        <v>14.99</v>
       </c>
       <c r="E254" s="4" t="n">
         <v>0</v>
@@ -5287,17 +5287,17 @@
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>ATOM RPG: Post-apocalyptic indie game</t>
+          <t>Minit</t>
         </is>
       </c>
       <c r="B255" s="4" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="C255" s="5" t="n">
-        <v>8576</v>
+        <v>1373</v>
       </c>
       <c r="D255" s="6" t="n">
-        <v>14.99</v>
+        <v>9.75</v>
       </c>
       <c r="E255" s="4" t="n">
         <v>0</v>
@@ -5306,14 +5306,14 @@
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>Rusty Lake Hotel</t>
+          <t>Zup! S</t>
         </is>
       </c>
       <c r="B256" s="4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C256" s="5" t="n">
-        <v>4786</v>
+        <v>12416</v>
       </c>
       <c r="D256" s="6" t="n">
         <v>1.99</v>
@@ -5325,17 +5325,17 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>Trine 2: Complete Story</t>
+          <t>Sherlock Holmes: The Devil's Daughter</t>
         </is>
       </c>
       <c r="B257" s="4" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="C257" s="5" t="n">
-        <v>14558</v>
+        <v>10694</v>
       </c>
       <c r="D257" s="6" t="n">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="E257" s="4" t="n">
         <v>0</v>
@@ -5344,2299 +5344,19 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>Lunistice</t>
+          <t>Day of Defeat: Source</t>
         </is>
       </c>
       <c r="B258" s="4" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="C258" s="5" t="n">
-        <v>1184</v>
+        <v>14052</v>
       </c>
       <c r="D258" s="6" t="n">
-        <v>4.99</v>
+        <v>9.75</v>
       </c>
       <c r="E258" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="3" t="inlineStr">
-        <is>
-          <t>Smile For Me</t>
-        </is>
-      </c>
-      <c r="B259" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C259" s="5" t="n">
-        <v>1681</v>
-      </c>
-      <c r="D259" s="6" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="E259" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="3" t="inlineStr">
-        <is>
-          <t>The White Door</t>
-        </is>
-      </c>
-      <c r="B260" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C260" s="5" t="n">
-        <v>5025</v>
-      </c>
-      <c r="D260" s="6" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E260" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="3" t="inlineStr">
-        <is>
-          <t>STAR WARS™ Battlefront (Classic, 2004)</t>
-        </is>
-      </c>
-      <c r="B261" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C261" s="5" t="n">
-        <v>3463</v>
-      </c>
-      <c r="D261" s="6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E261" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="3" t="inlineStr">
-        <is>
-          <t>BPM: BULLETS PER MINUTE</t>
-        </is>
-      </c>
-      <c r="B262" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C262" s="5" t="n">
-        <v>8765</v>
-      </c>
-      <c r="D262" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E262" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="3" t="inlineStr">
-        <is>
-          <t>GRIME</t>
-        </is>
-      </c>
-      <c r="B263" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C263" s="5" t="n">
-        <v>3317</v>
-      </c>
-      <c r="D263" s="6" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="E263" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="3" t="inlineStr">
-        <is>
-          <t>The Pedestrian</t>
-        </is>
-      </c>
-      <c r="B264" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C264" s="5" t="n">
-        <v>3593</v>
-      </c>
-      <c r="D264" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E264" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="3" t="inlineStr">
-        <is>
-          <t>Void Bastards</t>
-        </is>
-      </c>
-      <c r="B265" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C265" s="5" t="n">
-        <v>3573</v>
-      </c>
-      <c r="D265" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E265" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="3" t="inlineStr">
-        <is>
-          <t>Train Valley 2</t>
-        </is>
-      </c>
-      <c r="B266" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C266" s="5" t="n">
-        <v>1865</v>
-      </c>
-      <c r="D266" s="6" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="E266" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="3" t="inlineStr">
-        <is>
-          <t>Antichamber</t>
-        </is>
-      </c>
-      <c r="B267" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C267" s="5" t="n">
-        <v>12371</v>
-      </c>
-      <c r="D267" s="6" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="E267" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="3" t="inlineStr">
-        <is>
-          <t>Monkey Island™ 2 Special Edition: LeChuck’s Revenge™</t>
-        </is>
-      </c>
-      <c r="B268" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C268" s="5" t="n">
-        <v>2229</v>
-      </c>
-      <c r="D268" s="6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E268" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="3" t="inlineStr">
-        <is>
-          <t>The Room</t>
-        </is>
-      </c>
-      <c r="B269" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C269" s="5" t="n">
-        <v>24515</v>
-      </c>
-      <c r="D269" s="6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E269" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="3" t="inlineStr">
-        <is>
-          <t>Amnesia: The Dark Descent</t>
-        </is>
-      </c>
-      <c r="B270" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C270" s="5" t="n">
-        <v>17477</v>
-      </c>
-      <c r="D270" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E270" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="3" t="inlineStr">
-        <is>
-          <t>The Room</t>
-        </is>
-      </c>
-      <c r="B271" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C271" s="5" t="n">
-        <v>24515</v>
-      </c>
-      <c r="D271" s="6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E271" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="3" t="inlineStr">
-        <is>
-          <t>Amnesia: The Dark Descent</t>
-        </is>
-      </c>
-      <c r="B272" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C272" s="5" t="n">
-        <v>17477</v>
-      </c>
-      <c r="D272" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E272" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="3" t="inlineStr">
-        <is>
-          <t>Scribblenauts Unlimited</t>
-        </is>
-      </c>
-      <c r="B273" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C273" s="5" t="n">
-        <v>7058</v>
-      </c>
-      <c r="D273" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E273" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="3" t="inlineStr">
-        <is>
-          <t>Kindergarten 2</t>
-        </is>
-      </c>
-      <c r="B274" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C274" s="5" t="n">
-        <v>3764</v>
-      </c>
-      <c r="D274" s="6" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="E274" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="3" t="inlineStr">
-        <is>
-          <t>Monument Valley: Panoramic Edition</t>
-        </is>
-      </c>
-      <c r="B275" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C275" s="5" t="n">
-        <v>2526</v>
-      </c>
-      <c r="D275" s="6" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="E275" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="3" t="inlineStr">
-        <is>
-          <t>Sundered®: Eldritch Edition</t>
-        </is>
-      </c>
-      <c r="B276" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C276" s="5" t="n">
-        <v>3583</v>
-      </c>
-      <c r="D276" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E276" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="3" t="inlineStr">
-        <is>
-          <t>Hidden Folks</t>
-        </is>
-      </c>
-      <c r="B277" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C277" s="5" t="n">
-        <v>7065</v>
-      </c>
-      <c r="D277" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E277" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="3" t="inlineStr">
-        <is>
-          <t>Shadow Warrior 2</t>
-        </is>
-      </c>
-      <c r="B278" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C278" s="5" t="n">
-        <v>21766</v>
-      </c>
-      <c r="D278" s="6" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E278" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="3" t="inlineStr">
-        <is>
-          <t>Forgive Me Father</t>
-        </is>
-      </c>
-      <c r="B279" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C279" s="5" t="n">
-        <v>1911</v>
-      </c>
-      <c r="D279" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E279" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="3" t="inlineStr">
-        <is>
-          <t>Creaks</t>
-        </is>
-      </c>
-      <c r="B280" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C280" s="5" t="n">
-        <v>3175</v>
-      </c>
-      <c r="D280" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E280" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="3" t="inlineStr">
-        <is>
-          <t>Aliens vs. Predator™</t>
-        </is>
-      </c>
-      <c r="B281" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C281" s="5" t="n">
-        <v>13053</v>
-      </c>
-      <c r="D281" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E281" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="3" t="inlineStr">
-        <is>
-          <t>EXAPUNKS</t>
-        </is>
-      </c>
-      <c r="B282" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C282" s="5" t="n">
-        <v>1164</v>
-      </c>
-      <c r="D282" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E282" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="3" t="inlineStr">
-        <is>
-          <t>Orb of Creation</t>
-        </is>
-      </c>
-      <c r="B283" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C283" s="5" t="n">
-        <v>1007</v>
-      </c>
-      <c r="D283" s="6" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E283" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="3" t="inlineStr">
-        <is>
-          <t>HROT</t>
-        </is>
-      </c>
-      <c r="B284" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C284" s="5" t="n">
-        <v>3652</v>
-      </c>
-      <c r="D284" s="6" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="E284" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="3" t="inlineStr">
-        <is>
-          <t>Killing Floor</t>
-        </is>
-      </c>
-      <c r="B285" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C285" s="5" t="n">
-        <v>36712</v>
-      </c>
-      <c r="D285" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E285" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="3" t="inlineStr">
-        <is>
-          <t>STAR WARS™ Republic Commando™</t>
-        </is>
-      </c>
-      <c r="B286" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C286" s="5" t="n">
-        <v>12524</v>
-      </c>
-      <c r="D286" s="6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E286" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="3" t="inlineStr">
-        <is>
-          <t>Sherlock Holmes: The Devil's Daughter</t>
-        </is>
-      </c>
-      <c r="B287" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C287" s="5" t="n">
-        <v>10694</v>
-      </c>
-      <c r="D287" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E287" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="3" t="inlineStr">
-        <is>
-          <t>FEZ</t>
-        </is>
-      </c>
-      <c r="B288" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C288" s="5" t="n">
-        <v>9968</v>
-      </c>
-      <c r="D288" s="6" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E288" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="3" t="inlineStr">
-        <is>
-          <t>Deus Ex: Human Revolution - Director's Cut</t>
-        </is>
-      </c>
-      <c r="B289" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C289" s="5" t="n">
-        <v>22345</v>
-      </c>
-      <c r="D289" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E289" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="3" t="inlineStr">
-        <is>
-          <t>The Painscreek Killings</t>
-        </is>
-      </c>
-      <c r="B290" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C290" s="5" t="n">
-        <v>3454</v>
-      </c>
-      <c r="D290" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E290" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="3" t="inlineStr">
-        <is>
-          <t>The Room Two</t>
-        </is>
-      </c>
-      <c r="B291" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C291" s="5" t="n">
-        <v>16991</v>
-      </c>
-      <c r="D291" s="6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E291" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="3" t="inlineStr">
-        <is>
-          <t>Changed</t>
-        </is>
-      </c>
-      <c r="B292" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C292" s="5" t="n">
-        <v>12559</v>
-      </c>
-      <c r="D292" s="6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E292" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="3" t="inlineStr">
-        <is>
-          <t>Quake 4</t>
-        </is>
-      </c>
-      <c r="B293" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C293" s="5" t="n">
-        <v>2295</v>
-      </c>
-      <c r="D293" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E293" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="3" t="inlineStr">
-        <is>
-          <t>Day of Defeat: Source</t>
-        </is>
-      </c>
-      <c r="B294" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C294" s="5" t="n">
-        <v>14049</v>
-      </c>
-      <c r="D294" s="6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E294" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="3" t="inlineStr">
-        <is>
-          <t>Environmental Station Alpha</t>
-        </is>
-      </c>
-      <c r="B295" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="C295" s="5" t="n">
-        <v>1101</v>
-      </c>
-      <c r="D295" s="6" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E295" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="3" t="inlineStr">
-        <is>
-          <t>Mark of the Ninja: Remastered</t>
-        </is>
-      </c>
-      <c r="B296" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C296" s="5" t="n">
-        <v>5050</v>
-      </c>
-      <c r="D296" s="6" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="E296" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="3" t="inlineStr">
-        <is>
-          <t>Glass Masquerade</t>
-        </is>
-      </c>
-      <c r="B297" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C297" s="5" t="n">
-        <v>4802</v>
-      </c>
-      <c r="D297" s="6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E297" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="3" t="inlineStr">
-        <is>
-          <t>Mark of the Ninja: Remastered</t>
-        </is>
-      </c>
-      <c r="B298" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C298" s="5" t="n">
-        <v>5050</v>
-      </c>
-      <c r="D298" s="6" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="E298" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="3" t="inlineStr">
-        <is>
-          <t>Glass Masquerade</t>
-        </is>
-      </c>
-      <c r="B299" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C299" s="5" t="n">
-        <v>4802</v>
-      </c>
-      <c r="D299" s="6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E299" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="3" t="inlineStr">
-        <is>
-          <t>Pictopix</t>
-        </is>
-      </c>
-      <c r="B300" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C300" s="5" t="n">
-        <v>1086</v>
-      </c>
-      <c r="D300" s="6" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="E300" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="3" t="inlineStr">
-        <is>
-          <t>Hexcells Infinite</t>
-        </is>
-      </c>
-      <c r="B301" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C301" s="5" t="n">
-        <v>3530</v>
-      </c>
-      <c r="D301" s="6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E301" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="3" t="inlineStr">
-        <is>
-          <t>Zup! S</t>
-        </is>
-      </c>
-      <c r="B302" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C302" s="5" t="n">
-        <v>12415</v>
-      </c>
-      <c r="D302" s="6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="E302" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="3" t="inlineStr">
-        <is>
-          <t>Monument Valley 2: Panoramic Edition</t>
-        </is>
-      </c>
-      <c r="B303" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C303" s="5" t="n">
-        <v>1125</v>
-      </c>
-      <c r="D303" s="6" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="E303" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="3" t="inlineStr">
-        <is>
-          <t>Pogostuck: Rage With Your Friends</t>
-        </is>
-      </c>
-      <c r="B304" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C304" s="5" t="n">
-        <v>4881</v>
-      </c>
-      <c r="D304" s="6" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="E304" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="3" t="inlineStr">
-        <is>
-          <t>Donut County</t>
-        </is>
-      </c>
-      <c r="B305" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C305" s="5" t="n">
-        <v>7822</v>
-      </c>
-      <c r="D305" s="6" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="E305" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="3" t="inlineStr">
-        <is>
-          <t>Midnight Ghost Hunt</t>
-        </is>
-      </c>
-      <c r="B306" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C306" s="5" t="n">
-        <v>4657</v>
-      </c>
-      <c r="D306" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E306" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="3" t="inlineStr">
-        <is>
-          <t>Axiom Verge</t>
-        </is>
-      </c>
-      <c r="B307" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C307" s="5" t="n">
-        <v>4843</v>
-      </c>
-      <c r="D307" s="6" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="E307" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="3" t="inlineStr">
-        <is>
-          <t>Unheard - Voices of Crime</t>
-        </is>
-      </c>
-      <c r="B308" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C308" s="5" t="n">
-        <v>26548</v>
-      </c>
-      <c r="D308" s="6" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E308" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="3" t="inlineStr">
-        <is>
-          <t>Psychonauts</t>
-        </is>
-      </c>
-      <c r="B309" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C309" s="5" t="n">
-        <v>10055</v>
-      </c>
-      <c r="D309" s="6" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E309" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="3" t="inlineStr">
-        <is>
-          <t>Borderlands Game of the Year Enhanced</t>
-        </is>
-      </c>
-      <c r="B310" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C310" s="5" t="n">
-        <v>11597</v>
-      </c>
-      <c r="D310" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E310" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="3" t="inlineStr">
-        <is>
-          <t>Northern Journey</t>
-        </is>
-      </c>
-      <c r="B311" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C311" s="5" t="n">
-        <v>2072</v>
-      </c>
-      <c r="D311" s="6" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E311" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="3" t="inlineStr">
-        <is>
-          <t>Supraland Six Inches Under</t>
-        </is>
-      </c>
-      <c r="B312" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C312" s="5" t="n">
-        <v>2472</v>
-      </c>
-      <c r="D312" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E312" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="3" t="inlineStr">
-        <is>
-          <t>Intruder</t>
-        </is>
-      </c>
-      <c r="B313" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C313" s="5" t="n">
-        <v>4622</v>
-      </c>
-      <c r="D313" s="6" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="E313" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="3" t="inlineStr">
-        <is>
-          <t>SuchArt: Genius Artist Simulator</t>
-        </is>
-      </c>
-      <c r="B314" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C314" s="5" t="n">
-        <v>3269</v>
-      </c>
-      <c r="D314" s="6" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="E314" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="3" t="inlineStr">
-        <is>
-          <t>Prince of Persia: Warrior Within™</t>
-        </is>
-      </c>
-      <c r="B315" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="C315" s="5" t="n">
-        <v>2605</v>
-      </c>
-      <c r="D315" s="6" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E315" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="3" t="inlineStr">
-        <is>
-          <t>Just Go</t>
-        </is>
-      </c>
-      <c r="B316" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C316" s="5" t="n">
-        <v>2191</v>
-      </c>
-      <c r="D316" s="6" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E316" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="3" t="inlineStr">
-        <is>
-          <t>realMyst: Masterpiece Edition</t>
-        </is>
-      </c>
-      <c r="B317" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C317" s="5" t="n">
-        <v>1247</v>
-      </c>
-      <c r="D317" s="6" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="E317" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="3" t="inlineStr">
-        <is>
-          <t>Welcome to the Game</t>
-        </is>
-      </c>
-      <c r="B318" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="C318" s="5" t="n">
-        <v>2110</v>
-      </c>
-      <c r="D318" s="6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E318" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="3" t="inlineStr">
-        <is>
-          <t>Infinifactory</t>
-        </is>
-      </c>
-      <c r="B319" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C319" s="5" t="n">
-        <v>1678</v>
-      </c>
-      <c r="D319" s="6" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E319" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="3" t="inlineStr">
-        <is>
-          <t>The Excavation of Hob's Barrow</t>
-        </is>
-      </c>
-      <c r="B320" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C320" s="5" t="n">
-        <v>1283</v>
-      </c>
-      <c r="D320" s="6" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="E320" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="3" t="inlineStr">
-        <is>
-          <t>Cyber Manhunt</t>
-        </is>
-      </c>
-      <c r="B321" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C321" s="5" t="n">
-        <v>12218</v>
-      </c>
-      <c r="D321" s="6" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E321" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="3" t="inlineStr">
-        <is>
-          <t>7 Billion Humans</t>
-        </is>
-      </c>
-      <c r="B322" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C322" s="5" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D322" s="6" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="E322" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="3" t="inlineStr">
-        <is>
-          <t>F.I.S.T.: Forged In Shadow Torch</t>
-        </is>
-      </c>
-      <c r="B323" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C323" s="5" t="n">
-        <v>5355</v>
-      </c>
-      <c r="D323" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E323" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="3" t="inlineStr">
-        <is>
-          <t>Human Resource Machine</t>
-        </is>
-      </c>
-      <c r="B324" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C324" s="5" t="n">
-        <v>2755</v>
-      </c>
-      <c r="D324" s="6" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="E324" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="3" t="inlineStr">
-        <is>
-          <t>Thimbleweed Park™</t>
-        </is>
-      </c>
-      <c r="B325" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C325" s="5" t="n">
-        <v>3121</v>
-      </c>
-      <c r="D325" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E325" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="3" t="inlineStr">
-        <is>
-          <t>Tomb Raider I (1996)</t>
-        </is>
-      </c>
-      <c r="B326" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C326" s="5" t="n">
-        <v>3805</v>
-      </c>
-      <c r="D326" s="6" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="E326" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="3" t="inlineStr">
-        <is>
-          <t>Sonic Adventure DX</t>
-        </is>
-      </c>
-      <c r="B327" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C327" s="5" t="n">
-        <v>11241</v>
-      </c>
-      <c r="D327" s="6" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E327" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="3" t="inlineStr">
-        <is>
-          <t>Kindergarten</t>
-        </is>
-      </c>
-      <c r="B328" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C328" s="5" t="n">
-        <v>6863</v>
-      </c>
-      <c r="D328" s="6" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E328" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="3" t="inlineStr">
-        <is>
-          <t>Call of Duty Warchest</t>
-        </is>
-      </c>
-      <c r="B329" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C329" s="5" t="n">
-        <v>14177</v>
-      </c>
-      <c r="D329" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E329" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="3" t="inlineStr">
-        <is>
-          <t>Legend of Grimrock 2</t>
-        </is>
-      </c>
-      <c r="B330" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C330" s="5" t="n">
-        <v>2613</v>
-      </c>
-      <c r="D330" s="6" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="E330" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="3" t="inlineStr">
-        <is>
-          <t>Sanctum 2</t>
-        </is>
-      </c>
-      <c r="B331" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C331" s="5" t="n">
-        <v>7208</v>
-      </c>
-      <c r="D331" s="6" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="E331" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="3" t="inlineStr">
-        <is>
-          <t>INFRA</t>
-        </is>
-      </c>
-      <c r="B332" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C332" s="5" t="n">
-        <v>2476</v>
-      </c>
-      <c r="D332" s="6" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="E332" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="3" t="inlineStr">
-        <is>
-          <t>Shift Happens</t>
-        </is>
-      </c>
-      <c r="B333" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C333" s="5" t="n">
-        <v>2410</v>
-      </c>
-      <c r="D333" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E333" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="3" t="inlineStr">
-        <is>
-          <t>Braid</t>
-        </is>
-      </c>
-      <c r="B334" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C334" s="5" t="n">
-        <v>6405</v>
-      </c>
-      <c r="D334" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E334" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="3" t="inlineStr">
-        <is>
-          <t>Hyperbolica</t>
-        </is>
-      </c>
-      <c r="B335" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="C335" s="5" t="n">
-        <v>1072</v>
-      </c>
-      <c r="D335" s="6" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="E335" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="3" t="inlineStr">
-        <is>
-          <t>Turok</t>
-        </is>
-      </c>
-      <c r="B336" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C336" s="5" t="n">
-        <v>2636</v>
-      </c>
-      <c r="D336" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E336" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="3" t="inlineStr">
-        <is>
-          <t>S.T.A.L.K.E.R.: Clear Sky</t>
-        </is>
-      </c>
-      <c r="B337" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C337" s="5" t="n">
-        <v>14149</v>
-      </c>
-      <c r="D337" s="6" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E337" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="3" t="inlineStr">
-        <is>
-          <t>ibb &amp; obb</t>
-        </is>
-      </c>
-      <c r="B338" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C338" s="5" t="n">
-        <v>3632</v>
-      </c>
-      <c r="D338" s="6" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E338" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="3" t="inlineStr">
-        <is>
-          <t>Serious Sam 3: BFE</t>
-        </is>
-      </c>
-      <c r="B339" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C339" s="5" t="n">
-        <v>19955</v>
-      </c>
-      <c r="D339" s="6" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E339" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="3" t="inlineStr">
-        <is>
-          <t>Cats Organized Neatly</t>
-        </is>
-      </c>
-      <c r="B340" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C340" s="5" t="n">
-        <v>3223</v>
-      </c>
-      <c r="D340" s="6" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="E340" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="3" t="inlineStr">
-        <is>
-          <t>Tomb Raider II (1997)</t>
-        </is>
-      </c>
-      <c r="B341" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C341" s="5" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D341" s="6" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="E341" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="3" t="inlineStr">
-        <is>
-          <t>Quern - Undying Thoughts</t>
-        </is>
-      </c>
-      <c r="B342" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C342" s="5" t="n">
-        <v>2982</v>
-      </c>
-      <c r="D342" s="6" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="E342" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="3" t="inlineStr">
-        <is>
-          <t>Blood™ Fresh Supply</t>
-        </is>
-      </c>
-      <c r="B343" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C343" s="5" t="n">
-        <v>5130</v>
-      </c>
-      <c r="D343" s="6" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E343" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="3" t="inlineStr">
-        <is>
-          <t>Ziggurat 2</t>
-        </is>
-      </c>
-      <c r="B344" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C344" s="5" t="n">
-        <v>1080</v>
-      </c>
-      <c r="D344" s="6" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="E344" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="3" t="inlineStr">
-        <is>
-          <t>while True: learn()</t>
-        </is>
-      </c>
-      <c r="B345" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C345" s="5" t="n">
-        <v>5888</v>
-      </c>
-      <c r="D345" s="6" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="E345" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="3" t="inlineStr">
-        <is>
-          <t>Spelunky</t>
-        </is>
-      </c>
-      <c r="B346" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C346" s="5" t="n">
-        <v>13832</v>
-      </c>
-      <c r="D346" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E346" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="3" t="inlineStr">
-        <is>
-          <t>TOEM</t>
-        </is>
-      </c>
-      <c r="B347" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C347" s="5" t="n">
-        <v>3447</v>
-      </c>
-      <c r="D347" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E347" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="3" t="inlineStr">
-        <is>
-          <t>STAR WARS™ Jedi Knight II - Jedi Outcast™</t>
-        </is>
-      </c>
-      <c r="B348" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C348" s="5" t="n">
-        <v>3574</v>
-      </c>
-      <c r="D348" s="6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E348" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="3" t="inlineStr">
-        <is>
-          <t>It Steals</t>
-        </is>
-      </c>
-      <c r="B349" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C349" s="5" t="n">
-        <v>1296</v>
-      </c>
-      <c r="D349" s="6" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E349" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="3" t="inlineStr">
-        <is>
-          <t>Timespinner</t>
-        </is>
-      </c>
-      <c r="B350" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C350" s="5" t="n">
-        <v>2244</v>
-      </c>
-      <c r="D350" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E350" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="3" t="inlineStr">
-        <is>
-          <t>Zompiercer</t>
-        </is>
-      </c>
-      <c r="B351" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C351" s="5" t="n">
-        <v>1394</v>
-      </c>
-      <c r="D351" s="6" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="E351" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="3" t="inlineStr">
-        <is>
-          <t>Never Alone (Kisima Ingitchuna)</t>
-        </is>
-      </c>
-      <c r="B352" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C352" s="5" t="n">
-        <v>5422</v>
-      </c>
-      <c r="D352" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E352" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="3" t="inlineStr">
-        <is>
-          <t>Blood and Bacon</t>
-        </is>
-      </c>
-      <c r="B353" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C353" s="5" t="n">
-        <v>24722</v>
-      </c>
-      <c r="D353" s="6" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E353" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="3" t="inlineStr">
-        <is>
-          <t>The Sexy Brutale</t>
-        </is>
-      </c>
-      <c r="B354" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C354" s="5" t="n">
-        <v>2312</v>
-      </c>
-      <c r="D354" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E354" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="3" t="inlineStr">
-        <is>
-          <t>Tom Clancy's Ghost Recon®</t>
-        </is>
-      </c>
-      <c r="B355" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C355" s="5" t="n">
-        <v>1206</v>
-      </c>
-      <c r="D355" s="6" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E355" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="3" t="inlineStr">
-        <is>
-          <t>Syberia</t>
-        </is>
-      </c>
-      <c r="B356" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C356" s="5" t="n">
-        <v>3231</v>
-      </c>
-      <c r="D356" s="6" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="E356" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="3" t="inlineStr">
-        <is>
-          <t>Hob</t>
-        </is>
-      </c>
-      <c r="B357" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C357" s="5" t="n">
-        <v>4077</v>
-      </c>
-      <c r="D357" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E357" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="3" t="inlineStr">
-        <is>
-          <t>Receiver 2</t>
-        </is>
-      </c>
-      <c r="B358" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C358" s="5" t="n">
-        <v>2264</v>
-      </c>
-      <c r="D358" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E358" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="3" t="inlineStr">
-        <is>
-          <t>World of Goo</t>
-        </is>
-      </c>
-      <c r="B359" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C359" s="5" t="n">
-        <v>4016</v>
-      </c>
-      <c r="D359" s="6" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="E359" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="3" t="inlineStr">
-        <is>
-          <t>Brothers in Arms: Hell's Highway™</t>
-        </is>
-      </c>
-      <c r="B360" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C360" s="5" t="n">
-        <v>1755</v>
-      </c>
-      <c r="D360" s="6" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E360" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="3" t="inlineStr">
-        <is>
-          <t>TIS-100</t>
-        </is>
-      </c>
-      <c r="B361" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C361" s="5" t="n">
-        <v>3012</v>
-      </c>
-      <c r="D361" s="6" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="E361" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="3" t="inlineStr">
-        <is>
-          <t>Haydee 2</t>
-        </is>
-      </c>
-      <c r="B362" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C362" s="5" t="n">
-        <v>1224</v>
-      </c>
-      <c r="D362" s="6" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="E362" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="3" t="inlineStr">
-        <is>
-          <t>Dustforce DX</t>
-        </is>
-      </c>
-      <c r="B363" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C363" s="5" t="n">
-        <v>1127</v>
-      </c>
-      <c r="D363" s="6" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E363" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="3" t="inlineStr">
-        <is>
-          <t>Turok 2: Seeds of Evil</t>
-        </is>
-      </c>
-      <c r="B364" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C364" s="5" t="n">
-        <v>1897</v>
-      </c>
-      <c r="D364" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E364" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="3" t="inlineStr">
-        <is>
-          <t>Owlboy</t>
-        </is>
-      </c>
-      <c r="B365" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C365" s="5" t="n">
-        <v>3289</v>
-      </c>
-      <c r="D365" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E365" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="3" t="inlineStr">
-        <is>
-          <t>Tormented Souls</t>
-        </is>
-      </c>
-      <c r="B366" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C366" s="5" t="n">
-        <v>3379</v>
-      </c>
-      <c r="D366" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E366" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="3" t="inlineStr">
-        <is>
-          <t>Brothers - A Tale of Two Sons</t>
-        </is>
-      </c>
-      <c r="B367" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C367" s="5" t="n">
-        <v>33188</v>
-      </c>
-      <c r="D367" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E367" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="3" t="inlineStr">
-        <is>
-          <t>GTTOD: Get To The Orange Door</t>
-        </is>
-      </c>
-      <c r="B368" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C368" s="5" t="n">
-        <v>2796</v>
-      </c>
-      <c r="D368" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E368" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="3" t="inlineStr">
-        <is>
-          <t>The Unfinished Swan</t>
-        </is>
-      </c>
-      <c r="B369" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C369" s="5" t="n">
-        <v>1289</v>
-      </c>
-      <c r="D369" s="6" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="E369" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="3" t="inlineStr">
-        <is>
-          <t>Wolfenstein: The Two Pack</t>
-        </is>
-      </c>
-      <c r="B370" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C370" s="5" t="n">
-        <v>50539</v>
-      </c>
-      <c r="D370" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E370" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="3" t="inlineStr">
-        <is>
-          <t>Nightmare Reaper</t>
-        </is>
-      </c>
-      <c r="B371" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C371" s="5" t="n">
-        <v>2934</v>
-      </c>
-      <c r="D371" s="6" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E371" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="3" t="inlineStr">
-        <is>
-          <t>Wolfenstein: The Two Pack</t>
-        </is>
-      </c>
-      <c r="B372" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C372" s="5" t="n">
-        <v>50539</v>
-      </c>
-      <c r="D372" s="6" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="E372" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="3" t="inlineStr">
-        <is>
-          <t>Nightmare Reaper</t>
-        </is>
-      </c>
-      <c r="B373" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C373" s="5" t="n">
-        <v>2934</v>
-      </c>
-      <c r="D373" s="6" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E373" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="3" t="inlineStr">
-        <is>
-          <t>TowerFall Ascension</t>
-        </is>
-      </c>
-      <c r="B374" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C374" s="5" t="n">
-        <v>2604</v>
-      </c>
-      <c r="D374" s="6" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="E374" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="3" t="inlineStr">
-        <is>
-          <t>Chaos on Deponia</t>
-        </is>
-      </c>
-      <c r="B375" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C375" s="5" t="n">
-        <v>2043</v>
-      </c>
-      <c r="D375" s="6" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E375" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="3" t="inlineStr">
-        <is>
-          <t>Aimbeast</t>
-        </is>
-      </c>
-      <c r="B376" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C376" s="5" t="n">
-        <v>1599</v>
-      </c>
-      <c r="D376" s="6" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E376" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="3" t="inlineStr">
-        <is>
-          <t>Zuma's Revenge!</t>
-        </is>
-      </c>
-      <c r="B377" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C377" s="5" t="n">
-        <v>1849</v>
-      </c>
-      <c r="D377" s="6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E377" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="3" t="inlineStr">
-        <is>
-          <t>Serious Sam Fusion 2017 (beta)</t>
-        </is>
-      </c>
-      <c r="B378" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C378" s="5" t="n">
-        <v>3584</v>
-      </c>
-      <c r="D378" s="6" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E378" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7899,126 +5619,6 @@
     <hyperlink ref="A256" r:id="rId255"/>
     <hyperlink ref="A257" r:id="rId256"/>
     <hyperlink ref="A258" r:id="rId257"/>
-    <hyperlink ref="A259" r:id="rId258"/>
-    <hyperlink ref="A260" r:id="rId259"/>
-    <hyperlink ref="A261" r:id="rId260"/>
-    <hyperlink ref="A262" r:id="rId261"/>
-    <hyperlink ref="A263" r:id="rId262"/>
-    <hyperlink ref="A264" r:id="rId263"/>
-    <hyperlink ref="A265" r:id="rId264"/>
-    <hyperlink ref="A266" r:id="rId265"/>
-    <hyperlink ref="A267" r:id="rId266"/>
-    <hyperlink ref="A268" r:id="rId267"/>
-    <hyperlink ref="A269" r:id="rId268"/>
-    <hyperlink ref="A270" r:id="rId269"/>
-    <hyperlink ref="A271" r:id="rId270"/>
-    <hyperlink ref="A272" r:id="rId271"/>
-    <hyperlink ref="A273" r:id="rId272"/>
-    <hyperlink ref="A274" r:id="rId273"/>
-    <hyperlink ref="A275" r:id="rId274"/>
-    <hyperlink ref="A276" r:id="rId275"/>
-    <hyperlink ref="A277" r:id="rId276"/>
-    <hyperlink ref="A278" r:id="rId277"/>
-    <hyperlink ref="A279" r:id="rId278"/>
-    <hyperlink ref="A280" r:id="rId279"/>
-    <hyperlink ref="A281" r:id="rId280"/>
-    <hyperlink ref="A282" r:id="rId281"/>
-    <hyperlink ref="A283" r:id="rId282"/>
-    <hyperlink ref="A284" r:id="rId283"/>
-    <hyperlink ref="A285" r:id="rId284"/>
-    <hyperlink ref="A286" r:id="rId285"/>
-    <hyperlink ref="A287" r:id="rId286"/>
-    <hyperlink ref="A288" r:id="rId287"/>
-    <hyperlink ref="A289" r:id="rId288"/>
-    <hyperlink ref="A290" r:id="rId289"/>
-    <hyperlink ref="A291" r:id="rId290"/>
-    <hyperlink ref="A292" r:id="rId291"/>
-    <hyperlink ref="A293" r:id="rId292"/>
-    <hyperlink ref="A294" r:id="rId293"/>
-    <hyperlink ref="A295" r:id="rId294"/>
-    <hyperlink ref="A296" r:id="rId295"/>
-    <hyperlink ref="A297" r:id="rId296"/>
-    <hyperlink ref="A298" r:id="rId297"/>
-    <hyperlink ref="A299" r:id="rId298"/>
-    <hyperlink ref="A300" r:id="rId299"/>
-    <hyperlink ref="A301" r:id="rId300"/>
-    <hyperlink ref="A302" r:id="rId301"/>
-    <hyperlink ref="A303" r:id="rId302"/>
-    <hyperlink ref="A304" r:id="rId303"/>
-    <hyperlink ref="A305" r:id="rId304"/>
-    <hyperlink ref="A306" r:id="rId305"/>
-    <hyperlink ref="A307" r:id="rId306"/>
-    <hyperlink ref="A308" r:id="rId307"/>
-    <hyperlink ref="A309" r:id="rId308"/>
-    <hyperlink ref="A310" r:id="rId309"/>
-    <hyperlink ref="A311" r:id="rId310"/>
-    <hyperlink ref="A312" r:id="rId311"/>
-    <hyperlink ref="A313" r:id="rId312"/>
-    <hyperlink ref="A314" r:id="rId313"/>
-    <hyperlink ref="A315" r:id="rId314"/>
-    <hyperlink ref="A316" r:id="rId315"/>
-    <hyperlink ref="A317" r:id="rId316"/>
-    <hyperlink ref="A318" r:id="rId317"/>
-    <hyperlink ref="A319" r:id="rId318"/>
-    <hyperlink ref="A320" r:id="rId319"/>
-    <hyperlink ref="A321" r:id="rId320"/>
-    <hyperlink ref="A322" r:id="rId321"/>
-    <hyperlink ref="A323" r:id="rId322"/>
-    <hyperlink ref="A324" r:id="rId323"/>
-    <hyperlink ref="A325" r:id="rId324"/>
-    <hyperlink ref="A326" r:id="rId325"/>
-    <hyperlink ref="A327" r:id="rId326"/>
-    <hyperlink ref="A328" r:id="rId327"/>
-    <hyperlink ref="A329" r:id="rId328"/>
-    <hyperlink ref="A330" r:id="rId329"/>
-    <hyperlink ref="A331" r:id="rId330"/>
-    <hyperlink ref="A332" r:id="rId331"/>
-    <hyperlink ref="A333" r:id="rId332"/>
-    <hyperlink ref="A334" r:id="rId333"/>
-    <hyperlink ref="A335" r:id="rId334"/>
-    <hyperlink ref="A336" r:id="rId335"/>
-    <hyperlink ref="A337" r:id="rId336"/>
-    <hyperlink ref="A338" r:id="rId337"/>
-    <hyperlink ref="A339" r:id="rId338"/>
-    <hyperlink ref="A340" r:id="rId339"/>
-    <hyperlink ref="A341" r:id="rId340"/>
-    <hyperlink ref="A342" r:id="rId341"/>
-    <hyperlink ref="A343" r:id="rId342"/>
-    <hyperlink ref="A344" r:id="rId343"/>
-    <hyperlink ref="A345" r:id="rId344"/>
-    <hyperlink ref="A346" r:id="rId345"/>
-    <hyperlink ref="A347" r:id="rId346"/>
-    <hyperlink ref="A348" r:id="rId347"/>
-    <hyperlink ref="A349" r:id="rId348"/>
-    <hyperlink ref="A350" r:id="rId349"/>
-    <hyperlink ref="A351" r:id="rId350"/>
-    <hyperlink ref="A352" r:id="rId351"/>
-    <hyperlink ref="A353" r:id="rId352"/>
-    <hyperlink ref="A354" r:id="rId353"/>
-    <hyperlink ref="A355" r:id="rId354"/>
-    <hyperlink ref="A356" r:id="rId355"/>
-    <hyperlink ref="A357" r:id="rId356"/>
-    <hyperlink ref="A358" r:id="rId357"/>
-    <hyperlink ref="A359" r:id="rId358"/>
-    <hyperlink ref="A360" r:id="rId359"/>
-    <hyperlink ref="A361" r:id="rId360"/>
-    <hyperlink ref="A362" r:id="rId361"/>
-    <hyperlink ref="A363" r:id="rId362"/>
-    <hyperlink ref="A364" r:id="rId363"/>
-    <hyperlink ref="A365" r:id="rId364"/>
-    <hyperlink ref="A366" r:id="rId365"/>
-    <hyperlink ref="A367" r:id="rId366"/>
-    <hyperlink ref="A368" r:id="rId367"/>
-    <hyperlink ref="A369" r:id="rId368"/>
-    <hyperlink ref="A370" r:id="rId369"/>
-    <hyperlink ref="A371" r:id="rId370"/>
-    <hyperlink ref="A372" r:id="rId371"/>
-    <hyperlink ref="A373" r:id="rId372"/>
-    <hyperlink ref="A374" r:id="rId373"/>
-    <hyperlink ref="A375" r:id="rId374"/>
-    <hyperlink ref="A376" r:id="rId375"/>
-    <hyperlink ref="A377" r:id="rId376"/>
-    <hyperlink ref="A378" r:id="rId377"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
